--- a/META.xlsx
+++ b/META.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07D81F-C81E-4BAF-8C5D-FDB038479B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA1C145-0AAF-4094-8CB7-49566180A1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49390" yWindow="4640" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <author>tc={A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}</author>
     <author>tc={3D2F6350-1756-4982-89B0-68C8E9231F2B}</author>
     <author>tc={5607579E-D033-47D3-9B2C-C24197BA8A4A}</author>
+    <author>tc={91CBABE9-5D33-43AB-ABFC-972A33AB3B90}</author>
   </authors>
   <commentList>
     <comment ref="BD31" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -132,6 +133,14 @@
     Q225: 42.2-45.5B</t>
       </text>
     </comment>
+    <comment ref="CP89" authorId="10" shapeId="0" xr:uid="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q2: increased guidance from 64-72 to 66-72B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -917,7 +926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -951,6 +960,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1112,8 +1127,8 @@
     <xdr:to>
       <xdr:col>93</xdr:col>
       <xdr:colOff>2299</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>141653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1128,8 +1143,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30784471" y="0"/>
-          <a:ext cx="0" cy="10004644"/>
+          <a:off x="58446722" y="0"/>
+          <a:ext cx="0" cy="18219615"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1489,6 +1504,9 @@
   <threadedComment ref="BP32" dT="2025-04-30T20:23:13.01" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{5607579E-D033-47D3-9B2C-C24197BA8A4A}">
     <text>Q225: 42.2-45.5B</text>
   </threadedComment>
+  <threadedComment ref="CP89" dT="2025-08-27T14:58:28.74" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
+    <text>Q2: increased guidance from 64-72 to 66-72B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1692,10 +1710,10 @@
   <dimension ref="A1:EY118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CC25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BM66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CT38" sqref="CT38"/>
+      <selection pane="bottomRight" activeCell="BP89" sqref="BP89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5769,27 +5787,27 @@
         <v>31687.690000000002</v>
       </c>
       <c r="BK34" s="6">
-        <f>+BK32-BK33</f>
+        <f t="shared" ref="BK34:BP34" si="36">+BK32-BK33</f>
         <v>29815</v>
       </c>
       <c r="BL34" s="6">
-        <f>+BL32-BL33</f>
+        <f t="shared" si="36"/>
         <v>31763</v>
       </c>
       <c r="BM34" s="6">
-        <f>+BM32-BM33</f>
+        <f t="shared" si="36"/>
         <v>33214</v>
       </c>
       <c r="BN34" s="6">
-        <f>+BN32-BN33</f>
+        <f t="shared" si="36"/>
         <v>39546</v>
       </c>
       <c r="BO34" s="6">
-        <f>+BO32-BO33</f>
+        <f t="shared" si="36"/>
         <v>34742</v>
       </c>
       <c r="BP34" s="6">
-        <f>+BP32-BP33</f>
+        <f t="shared" si="36"/>
         <v>39025</v>
       </c>
       <c r="BQ34" s="6">
@@ -5802,63 +5820,63 @@
       </c>
       <c r="BS34" s="6"/>
       <c r="BX34" s="3">
-        <f t="shared" ref="BX34:CC34" si="36">+BX32-BX33</f>
+        <f t="shared" ref="BX34:CC34" si="37">+BX32-BX33</f>
         <v>112</v>
       </c>
       <c r="BY34" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>148</v>
       </c>
       <c r="BZ34" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>554</v>
       </c>
       <c r="CA34" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1481</v>
       </c>
       <c r="CB34" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2851</v>
       </c>
       <c r="CC34" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3725</v>
       </c>
       <c r="CD34" s="3">
-        <f t="shared" ref="CD34:CK34" si="37">+CD32-CD33</f>
+        <f t="shared" ref="CD34:CK34" si="38">+CD32-CD33</f>
         <v>5997</v>
       </c>
       <c r="CE34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>10313</v>
       </c>
       <c r="CF34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15061</v>
       </c>
       <c r="CG34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>23849</v>
       </c>
       <c r="CH34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>35199</v>
       </c>
       <c r="CI34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>46483</v>
       </c>
       <c r="CJ34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>57927</v>
       </c>
       <c r="CK34" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>69273</v>
       </c>
       <c r="CL34" s="3">
-        <f t="shared" ref="CL34" si="38">+CL32-CL33</f>
+        <f t="shared" ref="CL34" si="39">+CL32-CL33</f>
         <v>95280</v>
       </c>
       <c r="CM34" s="3">
@@ -5866,35 +5884,35 @@
         <v>94453.290000000008</v>
       </c>
       <c r="CN34" s="3">
-        <f t="shared" ref="CN34:CU34" si="39">+CN32*0.81</f>
+        <f t="shared" ref="CN34:CU34" si="40">+CN32*0.81</f>
         <v>109269.81000000001</v>
       </c>
       <c r="CO34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>133245</v>
       </c>
       <c r="CP34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>154727.17200000002</v>
       </c>
       <c r="CQ34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>170199.88920000003</v>
       </c>
       <c r="CR34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>183815.88033600006</v>
       </c>
       <c r="CS34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>198521.15076288008</v>
       </c>
       <c r="CT34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>208447.2083010241</v>
       </c>
       <c r="CU34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>218869.56871607533</v>
       </c>
     </row>
@@ -6054,11 +6072,11 @@
         <v>12942</v>
       </c>
       <c r="BQ35" s="6">
-        <f t="shared" ref="BP35:BR36" si="40">+BM35</f>
+        <f t="shared" ref="BQ35:BR36" si="41">+BM35</f>
         <v>11177</v>
       </c>
       <c r="BR35" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>12180</v>
       </c>
       <c r="BS35" s="6"/>
@@ -6108,39 +6126,39 @@
         <v>24655</v>
       </c>
       <c r="CM35" s="3">
-        <f t="shared" ref="CM35:CR35" si="41">+CL35*0.9</f>
+        <f t="shared" ref="CM35:CR35" si="42">+CL35*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="CN35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>19970.55</v>
       </c>
       <c r="CO35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>17973.494999999999</v>
       </c>
       <c r="CP35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>16176.145499999999</v>
       </c>
       <c r="CQ35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>14558.530949999998</v>
       </c>
       <c r="CR35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>13102.677854999998</v>
       </c>
       <c r="CS35" s="3">
-        <f t="shared" ref="CS35:CU35" si="42">+CR35*0.9</f>
+        <f t="shared" ref="CS35:CU35" si="43">+CR35*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="CT35" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>10613.169062549998</v>
       </c>
       <c r="CU35" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -6269,7 +6287,7 @@
         <v>4574</v>
       </c>
       <c r="BG36" s="6">
-        <f t="shared" ref="BG36:BG37" si="43">+BC36*0.9</f>
+        <f t="shared" ref="BG36:BG37" si="44">+BC36*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="BH36" s="6">
@@ -6300,11 +6318,11 @@
         <v>2979</v>
       </c>
       <c r="BQ36" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2822</v>
       </c>
       <c r="BR36" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3240</v>
       </c>
       <c r="BS36" s="6"/>
@@ -6358,35 +6376,35 @@
         <v>14043</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" ref="CN36:CU36" si="44">+CM36</f>
+        <f t="shared" ref="CN36:CU36" si="45">+CM36</f>
         <v>14043</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CT36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
       <c r="CU36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>14043</v>
       </c>
     </row>
@@ -6517,7 +6535,7 @@
         <v>3085</v>
       </c>
       <c r="BG37" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2124</v>
       </c>
       <c r="BH37" s="6">
@@ -6604,39 +6622,39 @@
         <v>9829</v>
       </c>
       <c r="CM37" s="3">
-        <f t="shared" ref="CM37:CU37" si="45">+CL37</f>
+        <f t="shared" ref="CM37:CU37" si="46">+CL37</f>
         <v>9829</v>
       </c>
       <c r="CN37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CO37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CP37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CQ37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CR37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CS37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CT37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
       <c r="CU37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>9829</v>
       </c>
     </row>
@@ -6649,47 +6667,47 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38" si="46">SUM(G35:G37)</f>
+        <f t="shared" ref="G38" si="47">SUM(G35:G37)</f>
         <v>83</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38" si="47">SUM(H35:H37)</f>
+        <f t="shared" ref="H38" si="48">SUM(H35:H37)</f>
         <v>102</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" ref="I38" si="48">SUM(I35:I37)</f>
+        <f t="shared" ref="I38" si="49">SUM(I35:I37)</f>
         <v>120</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:Q38" si="49">SUM(J35:J37)</f>
+        <f t="shared" ref="J38:Q38" si="50">SUM(J35:J37)</f>
         <v>144</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>176</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>278</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>304</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>336</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>400</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1560</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>563</v>
       </c>
       <c r="R38" s="6">
@@ -6717,67 +6735,67 @@
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="6">
-        <f t="shared" ref="AM38:AN38" si="50">+AM37+AM36+AM35</f>
+        <f t="shared" ref="AM38:AN38" si="51">+AM37+AM36+AM35</f>
         <v>4590</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5154</v>
       </c>
       <c r="AO38" s="6">
-        <f t="shared" ref="AO38:AQ38" si="51">+AO37+AO36+AO35</f>
+        <f t="shared" ref="AO38:AQ38" si="52">+AO37+AO36+AO35</f>
         <v>5528</v>
       </c>
       <c r="AP38" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>6298</v>
       </c>
       <c r="AQ38" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5944</v>
       </c>
       <c r="AR38" s="6">
-        <f t="shared" ref="AR38:AS38" si="52">+AR37+AR36+AR35</f>
+        <f t="shared" ref="AR38:AS38" si="53">+AR37+AR36+AR35</f>
         <v>6953</v>
       </c>
       <c r="AS38" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>7312</v>
       </c>
       <c r="AT38" s="6">
-        <f t="shared" ref="AT38:AU38" si="53">+AT37+AT36+AT35</f>
+        <f t="shared" ref="AT38:AU38" si="54">+AT37+AT36+AT35</f>
         <v>8732</v>
       </c>
       <c r="AU38" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>8385</v>
       </c>
       <c r="AV38" s="6">
-        <f t="shared" ref="AV38" si="54">+AV37+AV36+AV35</f>
+        <f t="shared" ref="AV38" si="55">+AV37+AV36+AV35</f>
         <v>8895</v>
       </c>
       <c r="AW38" s="6">
-        <f t="shared" ref="AW38" si="55">+AW37+AW36+AW35</f>
+        <f t="shared" ref="AW38" si="56">+AW37+AW36+AW35</f>
         <v>9236</v>
       </c>
       <c r="AX38" s="6">
-        <f t="shared" ref="AX38" si="56">+AX37+AX36+AX35</f>
+        <f t="shared" ref="AX38" si="57">+AX37+AX36+AX35</f>
         <v>10087</v>
       </c>
       <c r="AY38" s="6">
-        <f t="shared" ref="AY38:BB38" si="57">+AY37+AY36+AY35</f>
+        <f t="shared" ref="AY38:BB38" si="58">+AY37+AY36+AY35</f>
         <v>9662</v>
       </c>
       <c r="AZ38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>11311</v>
       </c>
       <c r="BA38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>12816</v>
       </c>
       <c r="BB38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>14738</v>
       </c>
       <c r="BC38" s="6">
@@ -6785,31 +6803,31 @@
         <v>13379</v>
       </c>
       <c r="BD38" s="6">
-        <f t="shared" ref="BD38:BF38" si="58">+BD37+BD36+BD35</f>
+        <f t="shared" ref="BD38:BF38" si="59">+BD37+BD36+BD35</f>
         <v>15272</v>
       </c>
       <c r="BE38" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>16334</v>
       </c>
       <c r="BF38" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>17430</v>
       </c>
       <c r="BG38" s="6">
-        <f t="shared" ref="BG38:BJ38" si="59">+BG37+BG36+BG35</f>
+        <f t="shared" ref="BG38:BJ38" si="60">+BG37+BG36+BG35</f>
         <v>12041.1</v>
       </c>
       <c r="BH38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>14792</v>
       </c>
       <c r="BI38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>14188</v>
       </c>
       <c r="BJ38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>16032</v>
       </c>
       <c r="BK38" s="6">
@@ -6833,60 +6851,60 @@
         <v>17187</v>
       </c>
       <c r="BP38" s="6">
-        <f t="shared" ref="BP38:BR38" si="60">+BP37+BP36+BP35</f>
+        <f t="shared" ref="BP38:BR38" si="61">+BP37+BP36+BP35</f>
         <v>18584</v>
       </c>
       <c r="BQ38" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>15864</v>
       </c>
       <c r="BR38" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>17285</v>
       </c>
       <c r="BS38" s="6"/>
       <c r="BX38" s="6">
-        <f t="shared" ref="BX38:BY38" si="61">+BX37+BX36+BX35</f>
+        <f t="shared" ref="BX38:BY38" si="62">+BX37+BX36+BX35</f>
         <v>236</v>
       </c>
       <c r="BY38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>203</v>
       </c>
       <c r="BZ38" s="6">
-        <f t="shared" ref="BZ38:CA38" si="62">+BZ37+BZ36+BZ35</f>
+        <f t="shared" ref="BZ38:CA38" si="63">+BZ37+BZ36+BZ35</f>
         <v>292</v>
       </c>
       <c r="CA38" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>449</v>
       </c>
       <c r="CB38" s="6">
-        <f t="shared" ref="CB38:CC38" si="63">+CB37+CB36+CB35</f>
+        <f t="shared" ref="CB38:CC38" si="64">+CB37+CB36+CB35</f>
         <v>1095</v>
       </c>
       <c r="CC38" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3187</v>
       </c>
       <c r="CD38" s="6">
-        <f t="shared" ref="CD38:CH38" si="64">+CD37+CD36+CD35</f>
+        <f t="shared" ref="CD38:CH38" si="65">+CD37+CD36+CD35</f>
         <v>3193</v>
       </c>
       <c r="CE38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5319</v>
       </c>
       <c r="CF38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8836</v>
       </c>
       <c r="CG38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>11422</v>
       </c>
       <c r="CH38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>14996</v>
       </c>
       <c r="CI38" s="3">
@@ -6902,43 +6920,43 @@
         <v>36602</v>
       </c>
       <c r="CL38" s="3">
-        <f t="shared" ref="CL38" si="65">SUM(CL35:CL37)</f>
+        <f t="shared" ref="CL38" si="66">SUM(CL35:CL37)</f>
         <v>48527</v>
       </c>
       <c r="CM38" s="3">
-        <f t="shared" ref="CM38" si="66">SUM(CM35:CM37)</f>
+        <f t="shared" ref="CM38" si="67">SUM(CM35:CM37)</f>
         <v>46061.5</v>
       </c>
       <c r="CN38" s="3">
-        <f t="shared" ref="CN38" si="67">SUM(CN35:CN37)</f>
+        <f t="shared" ref="CN38" si="68">SUM(CN35:CN37)</f>
         <v>43842.55</v>
       </c>
       <c r="CO38" s="3">
-        <f t="shared" ref="CO38" si="68">SUM(CO35:CO37)</f>
+        <f t="shared" ref="CO38" si="69">SUM(CO35:CO37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="CP38" s="3">
-        <f t="shared" ref="CP38" si="69">SUM(CP35:CP37)</f>
+        <f t="shared" ref="CP38" si="70">SUM(CP35:CP37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="CQ38" s="3">
-        <f t="shared" ref="CQ38" si="70">SUM(CQ35:CQ37)</f>
+        <f t="shared" ref="CQ38" si="71">SUM(CQ35:CQ37)</f>
         <v>38430.53095</v>
       </c>
       <c r="CR38" s="3">
-        <f t="shared" ref="CR38" si="71">SUM(CR35:CR37)</f>
+        <f t="shared" ref="CR38" si="72">SUM(CR35:CR37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="CS38" s="3">
-        <f t="shared" ref="CS38" si="72">SUM(CS35:CS37)</f>
+        <f t="shared" ref="CS38" si="73">SUM(CS35:CS37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="CT38" s="3">
-        <f t="shared" ref="CT38" si="73">SUM(CT35:CT37)</f>
+        <f t="shared" ref="CT38" si="74">SUM(CT35:CT37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="CU38" s="3">
-        <f t="shared" ref="CU38" si="74">SUM(CU35:CU37)</f>
+        <f t="shared" ref="CU38" si="75">SUM(CU35:CU37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -6951,47 +6969,47 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39" si="75">+G34-G38</f>
+        <f t="shared" ref="G39" si="76">+G34-G38</f>
         <v>162</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39" si="76">+H34-H38</f>
+        <f t="shared" ref="H39" si="77">+H34-H38</f>
         <v>219</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39" si="77">+I34-I38</f>
+        <f t="shared" ref="I39" si="78">+I34-I38</f>
         <v>216</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:Q39" si="78">+J34-J38</f>
+        <f t="shared" ref="J39:Q39" si="79">+J34-J38</f>
         <v>437</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>388</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>407</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>414</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>548</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>381</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>-743</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>377</v>
       </c>
       <c r="R39" s="6">
@@ -7019,67 +7037,67 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6">
-        <f t="shared" ref="AM39:AN39" si="79">+AM34-AM38</f>
+        <f t="shared" ref="AM39:AN39" si="80">+AM34-AM38</f>
         <v>5449</v>
       </c>
       <c r="AN39" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>5863</v>
       </c>
       <c r="AO39" s="6">
-        <f t="shared" ref="AO39:AQ39" si="80">+AO34-AO38</f>
+        <f t="shared" ref="AO39:AQ39" si="81">+AO34-AO38</f>
         <v>5781</v>
       </c>
       <c r="AP39" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7820</v>
       </c>
       <c r="AQ39" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>6317</v>
       </c>
       <c r="AR39" s="6">
-        <f t="shared" ref="AR39:AS39" si="81">+AR34-AR38</f>
+        <f t="shared" ref="AR39:AS39" si="82">+AR34-AR38</f>
         <v>6626</v>
       </c>
       <c r="AS39" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>7185</v>
       </c>
       <c r="AT39" s="6">
-        <f t="shared" ref="AT39:AU39" si="82">+AT34-AT38</f>
+        <f t="shared" ref="AT39:AU39" si="83">+AT34-AT38</f>
         <v>8858</v>
       </c>
       <c r="AU39" s="6">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5893</v>
       </c>
       <c r="AV39" s="6">
-        <f t="shared" ref="AV39" si="83">+AV34-AV38</f>
+        <f t="shared" ref="AV39" si="84">+AV34-AV38</f>
         <v>5963</v>
       </c>
       <c r="AW39" s="6">
-        <f t="shared" ref="AW39" si="84">+AW34-AW38</f>
+        <f t="shared" ref="AW39" si="85">+AW34-AW38</f>
         <v>8040</v>
       </c>
       <c r="AX39" s="6">
-        <f t="shared" ref="AX39" si="85">+AX34-AX38</f>
+        <f t="shared" ref="AX39" si="86">+AX34-AX38</f>
         <v>12775</v>
       </c>
       <c r="AY39" s="6">
-        <f t="shared" ref="AY39:BB39" si="86">+AY34-AY38</f>
+        <f t="shared" ref="AY39:BB39" si="87">+AY34-AY38</f>
         <v>11378</v>
       </c>
       <c r="AZ39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12367</v>
       </c>
       <c r="BA39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>10423</v>
       </c>
       <c r="BB39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>12585</v>
       </c>
       <c r="BC39" s="6">
@@ -7087,31 +7105,31 @@
         <v>8524</v>
       </c>
       <c r="BD39" s="6">
-        <f t="shared" ref="BD39:BF39" si="87">+BD34-BD38</f>
+        <f t="shared" ref="BD39:BF39" si="88">+BD34-BD38</f>
         <v>8358</v>
       </c>
       <c r="BE39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>5664</v>
       </c>
       <c r="BF39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>6399</v>
       </c>
       <c r="BG39" s="6">
-        <f t="shared" ref="BG39:BJ39" si="88">+BG34-BG38</f>
+        <f t="shared" ref="BG39:BJ39" si="89">+BG34-BG38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="BH39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>11262</v>
       </c>
       <c r="BI39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>13748</v>
       </c>
       <c r="BJ39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>15655.690000000002</v>
       </c>
       <c r="BK39" s="6">
@@ -7135,60 +7153,60 @@
         <v>17555</v>
       </c>
       <c r="BP39" s="6">
-        <f t="shared" ref="BP39:BR39" si="89">+BP34-BP38</f>
+        <f t="shared" ref="BP39:BR39" si="90">+BP34-BP38</f>
         <v>20441</v>
       </c>
       <c r="BQ39" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>23146</v>
       </c>
       <c r="BR39" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>27693.696000000004</v>
       </c>
       <c r="BS39" s="6"/>
       <c r="BX39" s="6">
-        <f t="shared" ref="BX39:BY39" si="90">+BX34-BX38</f>
+        <f t="shared" ref="BX39:BY39" si="91">+BX34-BX38</f>
         <v>-124</v>
       </c>
       <c r="BY39" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>-55</v>
       </c>
       <c r="BZ39" s="6">
-        <f t="shared" ref="BZ39:CA39" si="91">+BZ34-BZ38</f>
+        <f t="shared" ref="BZ39:CA39" si="92">+BZ34-BZ38</f>
         <v>262</v>
       </c>
       <c r="CA39" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1032</v>
       </c>
       <c r="CB39" s="6">
-        <f t="shared" ref="CB39:CC39" si="92">+CB34-CB38</f>
+        <f t="shared" ref="CB39:CC39" si="93">+CB34-CB38</f>
         <v>1756</v>
       </c>
       <c r="CC39" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>538</v>
       </c>
       <c r="CD39" s="6">
-        <f t="shared" ref="CD39:CH39" si="93">+CD34-CD38</f>
+        <f t="shared" ref="CD39:CH39" si="94">+CD34-CD38</f>
         <v>2804</v>
       </c>
       <c r="CE39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>4994</v>
       </c>
       <c r="CF39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>6225</v>
       </c>
       <c r="CG39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>12427</v>
       </c>
       <c r="CH39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>20203</v>
       </c>
       <c r="CI39" s="3">
@@ -7204,43 +7222,43 @@
         <v>32671</v>
       </c>
       <c r="CL39" s="3">
-        <f t="shared" ref="CL39" si="94">CL34-CL38</f>
+        <f t="shared" ref="CL39" si="95">CL34-CL38</f>
         <v>46753</v>
       </c>
       <c r="CM39" s="3">
-        <f t="shared" ref="CM39" si="95">CM34-CM38</f>
+        <f t="shared" ref="CM39" si="96">CM34-CM38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN39" s="3">
-        <f t="shared" ref="CN39" si="96">CN34-CN38</f>
+        <f t="shared" ref="CN39" si="97">CN34-CN38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="CO39" s="3">
-        <f t="shared" ref="CO39" si="97">CO34-CO38</f>
+        <f t="shared" ref="CO39" si="98">CO34-CO38</f>
         <v>91399.505000000005</v>
       </c>
       <c r="CP39" s="3">
-        <f t="shared" ref="CP39" si="98">CP34-CP38</f>
+        <f t="shared" ref="CP39" si="99">CP34-CP38</f>
         <v>114679.02650000002</v>
       </c>
       <c r="CQ39" s="3">
-        <f t="shared" ref="CQ39" si="99">CQ34-CQ38</f>
+        <f t="shared" ref="CQ39" si="100">CQ34-CQ38</f>
         <v>131769.35825000005</v>
       </c>
       <c r="CR39" s="3">
-        <f t="shared" ref="CR39" si="100">CR34-CR38</f>
+        <f t="shared" ref="CR39" si="101">CR34-CR38</f>
         <v>146841.20248100004</v>
       </c>
       <c r="CS39" s="3">
-        <f t="shared" ref="CS39" si="101">CS34-CS38</f>
+        <f t="shared" ref="CS39" si="102">CS34-CS38</f>
         <v>162856.74069338007</v>
       </c>
       <c r="CT39" s="3">
-        <f t="shared" ref="CT39" si="102">CT34-CT38</f>
+        <f t="shared" ref="CT39" si="103">CT34-CT38</f>
         <v>173962.0392384741</v>
       </c>
       <c r="CU39" s="3">
-        <f t="shared" ref="CU39" si="103">CU34-CU38</f>
+        <f t="shared" ref="CU39" si="104">CU34-CU38</f>
         <v>185445.71655978033</v>
       </c>
     </row>
@@ -7424,35 +7442,35 @@
         <v>531</v>
       </c>
       <c r="CN40" s="3">
-        <f t="shared" ref="CN40:CU40" si="104">+CM59*$CZ$58</f>
+        <f t="shared" ref="CN40:CU40" si="105">+CM59*$CZ$58</f>
         <v>938.78</v>
       </c>
       <c r="CO40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>2027.1830560000003</v>
       </c>
       <c r="CP40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>3559.3807401184004</v>
       </c>
       <c r="CQ40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5498.4906188563418</v>
       </c>
       <c r="CR40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>7749.6833403055871</v>
       </c>
       <c r="CS40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>10284.973867774999</v>
       </c>
       <c r="CT40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>13124.497986577942</v>
       </c>
       <c r="CU40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>16192.717197068794</v>
       </c>
     </row>
@@ -7497,67 +7515,67 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6">
-        <f t="shared" ref="AM41:AN41" si="105">+AM39+AM40</f>
+        <f t="shared" ref="AM41:AN41" si="106">+AM39+AM40</f>
         <v>5610</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>5868</v>
       </c>
       <c r="AO41" s="6">
-        <f t="shared" ref="AO41:AQ41" si="106">+AO39+AO40</f>
+        <f t="shared" ref="AO41:AQ41" si="107">+AO39+AO40</f>
         <v>5912</v>
       </c>
       <c r="AP41" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>7971</v>
       </c>
       <c r="AQ41" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>6523</v>
       </c>
       <c r="AR41" s="6">
-        <f t="shared" ref="AR41" si="107">+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="108">+AR39+AR40</f>
         <v>6832</v>
       </c>
       <c r="AS41" s="6">
-        <f t="shared" ref="AS41:AT41" si="108">+AS39+AS40</f>
+        <f t="shared" ref="AS41:AT41" si="109">+AS39+AS40</f>
         <v>7329</v>
       </c>
       <c r="AT41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9169</v>
       </c>
       <c r="AU41" s="6">
-        <f t="shared" ref="AU41:BB41" si="109">+AU39+AU40</f>
+        <f t="shared" ref="AU41:BB41" si="110">+AU39+AU40</f>
         <v>5861</v>
       </c>
       <c r="AV41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6131</v>
       </c>
       <c r="AW41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>8133</v>
       </c>
       <c r="AX41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>13055</v>
       </c>
       <c r="AY41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11503</v>
       </c>
       <c r="AZ41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12513</v>
       </c>
       <c r="BA41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>10565</v>
       </c>
       <c r="BB41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>12702</v>
       </c>
       <c r="BC41" s="6">
@@ -7565,31 +7583,31 @@
         <v>8908</v>
       </c>
       <c r="BD41" s="6">
-        <f t="shared" ref="BD41:BJ41" si="110">+BD39+BD40</f>
+        <f t="shared" ref="BD41:BJ41" si="111">+BD39+BD40</f>
         <v>8186</v>
       </c>
       <c r="BE41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>5576</v>
       </c>
       <c r="BF41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>6149</v>
       </c>
       <c r="BG41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>10338.449999999999</v>
       </c>
       <c r="BH41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>11163</v>
       </c>
       <c r="BI41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>14020</v>
       </c>
       <c r="BJ41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>16079.690000000002</v>
       </c>
       <c r="BK41" s="6">
@@ -7613,112 +7631,112 @@
         <v>18382</v>
       </c>
       <c r="BP41" s="6">
-        <f t="shared" ref="BP41:BR41" si="111">+BP39+BP40</f>
+        <f t="shared" ref="BP41:BR41" si="112">+BP39+BP40</f>
         <v>20534</v>
       </c>
       <c r="BQ41" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>23239</v>
       </c>
       <c r="BR41" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>27786.696000000004</v>
       </c>
       <c r="BS41" s="6"/>
       <c r="BX41" s="3">
-        <f t="shared" ref="BX41" si="112">+BX39+BX40</f>
+        <f t="shared" ref="BX41" si="113">+BX39+BX40</f>
         <v>-124</v>
       </c>
       <c r="BY41" s="3">
-        <f t="shared" ref="BY41" si="113">+BY39+BY40</f>
+        <f t="shared" ref="BY41" si="114">+BY39+BY40</f>
         <v>-55</v>
       </c>
       <c r="BZ41" s="3">
-        <f t="shared" ref="BZ41" si="114">+BZ39+BZ40</f>
+        <f t="shared" ref="BZ41" si="115">+BZ39+BZ40</f>
         <v>262</v>
       </c>
       <c r="CA41" s="3">
-        <f t="shared" ref="CA41:CK41" si="115">+CA39+CA40</f>
+        <f t="shared" ref="CA41:CK41" si="116">+CA39+CA40</f>
         <v>1008</v>
       </c>
       <c r="CB41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>1695</v>
       </c>
       <c r="CC41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>494</v>
       </c>
       <c r="CD41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>2754</v>
       </c>
       <c r="CE41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>4910</v>
       </c>
       <c r="CF41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>6194</v>
       </c>
       <c r="CG41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>12518</v>
       </c>
       <c r="CH41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>20594</v>
       </c>
       <c r="CI41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>25361</v>
       </c>
       <c r="CJ41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>29812</v>
       </c>
       <c r="CK41" s="3">
-        <f t="shared" si="115"/>
+        <f t="shared" si="116"/>
         <v>33180</v>
       </c>
       <c r="CL41" s="3">
-        <f t="shared" ref="CL41" si="116">+CL39+CL40</f>
+        <f t="shared" ref="CL41" si="117">+CL39+CL40</f>
         <v>47284</v>
       </c>
       <c r="CM41" s="3">
-        <f t="shared" ref="CM41" si="117">+CM39+CM40</f>
+        <f t="shared" ref="CM41" si="118">+CM39+CM40</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN41" s="3">
-        <f t="shared" ref="CN41" si="118">+CN39+CN40</f>
+        <f t="shared" ref="CN41" si="119">+CN39+CN40</f>
         <v>66366.040000000008</v>
       </c>
       <c r="CO41" s="3">
-        <f t="shared" ref="CO41" si="119">+CO39+CO40</f>
+        <f t="shared" ref="CO41" si="120">+CO39+CO40</f>
         <v>93426.688055999999</v>
       </c>
       <c r="CP41" s="3">
-        <f t="shared" ref="CP41" si="120">+CP39+CP40</f>
+        <f t="shared" ref="CP41" si="121">+CP39+CP40</f>
         <v>118238.40724011842</v>
       </c>
       <c r="CQ41" s="3">
-        <f t="shared" ref="CQ41" si="121">+CQ39+CQ40</f>
+        <f t="shared" ref="CQ41" si="122">+CQ39+CQ40</f>
         <v>137267.84886885638</v>
       </c>
       <c r="CR41" s="3">
-        <f t="shared" ref="CR41" si="122">+CR39+CR40</f>
+        <f t="shared" ref="CR41" si="123">+CR39+CR40</f>
         <v>154590.88582130562</v>
       </c>
       <c r="CS41" s="3">
-        <f t="shared" ref="CS41" si="123">+CS39+CS40</f>
+        <f t="shared" ref="CS41" si="124">+CS39+CS40</f>
         <v>173141.71456115507</v>
       </c>
       <c r="CT41" s="3">
-        <f t="shared" ref="CT41" si="124">+CT39+CT40</f>
+        <f t="shared" ref="CT41" si="125">+CT39+CT40</f>
         <v>187086.53722505204</v>
       </c>
       <c r="CU41" s="3">
-        <f t="shared" ref="CU41" si="125">+CU39+CU40</f>
+        <f t="shared" ref="CU41" si="126">+CU39+CU40</f>
         <v>201638.43375684912</v>
       </c>
     </row>
@@ -7824,7 +7842,7 @@
         <v>1497</v>
       </c>
       <c r="BG42" s="6">
-        <f t="shared" ref="BG42" si="126">+BG41*0.19</f>
+        <f t="shared" ref="BG42" si="127">+BG41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="BH42" s="6">
@@ -7905,35 +7923,35 @@
         <v>8710.5222000000012</v>
       </c>
       <c r="CN42" s="3">
-        <f t="shared" ref="CN42:CU42" si="127">+CN41*0.18</f>
+        <f t="shared" ref="CN42:CU42" si="128">+CN41*0.18</f>
         <v>11945.887200000001</v>
       </c>
       <c r="CO42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>16816.803850079999</v>
       </c>
       <c r="CP42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>21282.913303221314</v>
       </c>
       <c r="CQ42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>24708.212796394149</v>
       </c>
       <c r="CR42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>27826.35944783501</v>
       </c>
       <c r="CS42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>31165.50862100791</v>
       </c>
       <c r="CT42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>33675.576700509366</v>
       </c>
       <c r="CU42" s="3">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>36294.91807623284</v>
       </c>
     </row>
@@ -7978,67 +7996,67 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="6">
-        <f t="shared" ref="AM43:AN43" si="128">+AM41-AM42</f>
+        <f t="shared" ref="AM43:AN43" si="129">+AM41-AM42</f>
         <v>4987</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>5106</v>
       </c>
       <c r="AO43" s="6">
-        <f t="shared" ref="AO43:AQ43" si="129">+AO41-AO42</f>
+        <f t="shared" ref="AO43:AQ43" si="130">+AO41-AO42</f>
         <v>5137</v>
       </c>
       <c r="AP43" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>6882</v>
       </c>
       <c r="AQ43" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="130"/>
         <v>4307</v>
       </c>
       <c r="AR43" s="6">
-        <f t="shared" ref="AR43" si="130">+AR41-AR42</f>
+        <f t="shared" ref="AR43" si="131">+AR41-AR42</f>
         <v>4616</v>
       </c>
       <c r="AS43" s="6">
-        <f t="shared" ref="AS43:AT43" si="131">+AS41-AS42</f>
+        <f t="shared" ref="AS43:AT43" si="132">+AS41-AS42</f>
         <v>6091</v>
       </c>
       <c r="AT43" s="6">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>7349</v>
       </c>
       <c r="AU43" s="6">
-        <f t="shared" ref="AU43:AV43" si="132">+AU41-AU42</f>
+        <f t="shared" ref="AU43:AV43" si="133">+AU41-AU42</f>
         <v>4902</v>
       </c>
       <c r="AV43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>5178</v>
       </c>
       <c r="AW43" s="6">
-        <f t="shared" ref="AW43:BB43" si="133">+AW41-AW42</f>
+        <f t="shared" ref="AW43:BB43" si="134">+AW41-AW42</f>
         <v>7846</v>
       </c>
       <c r="AX43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>11219</v>
       </c>
       <c r="AY43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>9497</v>
       </c>
       <c r="AZ43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>10394</v>
       </c>
       <c r="BA43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>9194</v>
       </c>
       <c r="BB43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>10285</v>
       </c>
       <c r="BC43" s="6">
@@ -8046,384 +8064,384 @@
         <v>7465</v>
       </c>
       <c r="BD43" s="6">
-        <f t="shared" ref="BD43:BF43" si="134">+BD41-BD42</f>
+        <f t="shared" ref="BD43:BF43" si="135">+BD41-BD42</f>
         <v>6687</v>
       </c>
       <c r="BE43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4395</v>
       </c>
       <c r="BF43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>4652</v>
       </c>
       <c r="BG43" s="6">
-        <f t="shared" ref="BG43:BR43" si="135">+BG41-BG42</f>
+        <f t="shared" ref="BG43:BR43" si="136">+BG41-BG42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>9658</v>
       </c>
       <c r="BI43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>11583</v>
       </c>
       <c r="BJ43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>12369</v>
       </c>
       <c r="BL43" s="6">
-        <f t="shared" ref="BL43" si="136">+BL41-BL42</f>
+        <f t="shared" ref="BL43" si="137">+BL41-BL42</f>
         <v>13465</v>
       </c>
       <c r="BM43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>15688</v>
       </c>
       <c r="BN43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>20838</v>
       </c>
       <c r="BO43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>16644</v>
       </c>
       <c r="BP43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>18337</v>
       </c>
       <c r="BQ43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>19753.150000000001</v>
       </c>
       <c r="BR43" s="6">
-        <f t="shared" si="135"/>
+        <f t="shared" si="136"/>
         <v>23618.691600000002</v>
       </c>
       <c r="BS43" s="6"/>
       <c r="BX43" s="3">
-        <f t="shared" ref="BX43:BY43" si="137">+BX41-BX42</f>
+        <f t="shared" ref="BX43:BY43" si="138">+BX41-BX42</f>
         <v>-124</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>-55</v>
       </c>
       <c r="BZ43" s="3">
-        <f t="shared" ref="BZ43:CK43" si="138">+BZ41-BZ42</f>
+        <f t="shared" ref="BZ43:CK43" si="139">+BZ41-BZ42</f>
         <v>262</v>
       </c>
       <c r="CA43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>606</v>
       </c>
       <c r="CB43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1000</v>
       </c>
       <c r="CC43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>53</v>
       </c>
       <c r="CD43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>1500</v>
       </c>
       <c r="CE43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>2940</v>
       </c>
       <c r="CF43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>3688</v>
       </c>
       <c r="CG43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>10217</v>
       </c>
       <c r="CH43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>15934</v>
       </c>
       <c r="CI43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>22111</v>
       </c>
       <c r="CJ43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>23485</v>
       </c>
       <c r="CK43" s="3">
-        <f t="shared" si="138"/>
+        <f t="shared" si="139"/>
         <v>29146</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" ref="CL43" si="139">+CL41-CL42</f>
+        <f t="shared" ref="CL43" si="140">+CL41-CL42</f>
         <v>39370</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" ref="CM43" si="140">+CM41-CM42</f>
+        <f t="shared" ref="CM43" si="141">+CM41-CM42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" ref="CN43" si="141">+CN41-CN42</f>
+        <f t="shared" ref="CN43" si="142">+CN41-CN42</f>
         <v>54420.152800000011</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" ref="CO43" si="142">+CO41-CO42</f>
+        <f t="shared" ref="CO43" si="143">+CO41-CO42</f>
         <v>76609.884205919996</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" ref="CP43" si="143">+CP41-CP42</f>
+        <f t="shared" ref="CP43" si="144">+CP41-CP42</f>
         <v>96955.49393689711</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" ref="CQ43" si="144">+CQ41-CQ42</f>
+        <f t="shared" ref="CQ43" si="145">+CQ41-CQ42</f>
         <v>112559.63607246224</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" ref="CR43" si="145">+CR41-CR42</f>
+        <f t="shared" ref="CR43" si="146">+CR41-CR42</f>
         <v>126764.52637347061</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" ref="CS43" si="146">+CS41-CS42</f>
+        <f t="shared" ref="CS43" si="147">+CS41-CS42</f>
         <v>141976.20594014716</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" ref="CT43" si="147">+CT41-CT42</f>
+        <f t="shared" ref="CT43" si="148">+CT41-CT42</f>
         <v>153410.96052454266</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" ref="CU43" si="148">+CU41-CU42</f>
+        <f t="shared" ref="CU43" si="149">+CU41-CU42</f>
         <v>165343.51568061628</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" ref="CV43:EA43" si="149">+CU43*(1+$CZ$57)</f>
+        <f t="shared" ref="CV43:EA43" si="150">+CU43*(1+$CZ$57)</f>
         <v>165343.51568061628</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="CX43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="CY43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="CZ43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DA43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DB43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DC43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DD43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DE43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DF43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DG43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DH43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DI43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DJ43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DK43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DL43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DM43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DN43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DO43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DP43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DQ43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DR43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DS43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DT43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DU43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DV43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DW43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DX43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DY43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="DZ43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="EA43" s="3">
-        <f t="shared" si="149"/>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="EB43" s="3">
-        <f t="shared" ref="EB43:EY43" si="150">+EA43*(1+$CZ$57)</f>
-        <v>165343.51568061628</v>
-      </c>
-      <c r="EC43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="ED43" s="3">
+      <c r="CX43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EE43" s="3">
+      <c r="CY43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EF43" s="3">
+      <c r="CZ43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EG43" s="3">
+      <c r="DA43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EH43" s="3">
+      <c r="DB43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EI43" s="3">
+      <c r="DC43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EJ43" s="3">
+      <c r="DD43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EK43" s="3">
+      <c r="DE43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EL43" s="3">
+      <c r="DF43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EM43" s="3">
+      <c r="DG43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EN43" s="3">
+      <c r="DH43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EO43" s="3">
+      <c r="DI43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EP43" s="3">
+      <c r="DJ43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EQ43" s="3">
+      <c r="DK43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="ER43" s="3">
+      <c r="DL43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="ES43" s="3">
+      <c r="DM43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="ET43" s="3">
+      <c r="DN43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EU43" s="3">
+      <c r="DO43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EV43" s="3">
+      <c r="DP43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EW43" s="3">
+      <c r="DQ43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
-      <c r="EX43" s="3">
+      <c r="DR43" s="3">
         <f t="shared" si="150"/>
         <v>165343.51568061628</v>
       </c>
+      <c r="DS43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DT43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DU43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DV43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DW43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DX43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DY43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="DZ43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EA43" s="3">
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EB43" s="3">
+        <f t="shared" ref="EB43:EY43" si="151">+EA43*(1+$CZ$57)</f>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EC43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="ED43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EE43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EF43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EG43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EH43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EI43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EJ43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EK43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EL43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EM43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EN43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EO43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EP43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EQ43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="ER43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="ES43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="ET43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EU43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EV43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EW43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
+      <c r="EX43" s="3">
+        <f t="shared" si="151"/>
+        <v>165343.51568061628</v>
+      </c>
       <c r="EY43" s="3">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>165343.51568061628</v>
       </c>
     </row>
@@ -8468,67 +8486,67 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9">
-        <f t="shared" ref="AM44:AN44" si="151">+AM43/AM45</f>
+        <f t="shared" ref="AM44:AN44" si="152">+AM43/AM45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="AN44" s="9">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="AO44" s="9">
-        <f t="shared" ref="AO44:AQ44" si="152">+AO43/AO45</f>
+        <f t="shared" ref="AO44:AQ44" si="153">+AO43/AO45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="AP44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="AQ44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="AR44" s="9">
-        <f t="shared" ref="AR44" si="153">+AR43/AR45</f>
+        <f t="shared" ref="AR44" si="154">+AR43/AR45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="AS44" s="9">
-        <f t="shared" ref="AS44:AT44" si="154">+AS43/AS45</f>
+        <f t="shared" ref="AS44:AT44" si="155">+AS43/AS45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="AT44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>2.559735283873215</v>
       </c>
       <c r="AU44" s="9">
-        <f t="shared" ref="AU44:AV44" si="155">+AU43/AU45</f>
+        <f t="shared" ref="AU44:AV44" si="156">+AU43/AU45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="AV44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="AW44" s="9">
-        <f t="shared" ref="AW44:BB44" si="156">+AW43/AW45</f>
+        <f t="shared" ref="AW44:BB44" si="157">+AW43/AW45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="AX44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.882006920415225</v>
       </c>
       <c r="AY44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="AZ44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="BA44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="BB44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="BC44" s="9">
@@ -8536,149 +8554,149 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="BD44" s="9">
-        <f t="shared" ref="BD44:BF44" si="157">+BD43/BD45</f>
+        <f t="shared" ref="BD44:BF44" si="158">+BD43/BD45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="BE44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="BF44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="BG44" s="9">
-        <f t="shared" ref="BG44:BR44" si="158">+BG43/BG45</f>
+        <f t="shared" ref="BG44:BR44" si="159">+BG43/BG45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="BH44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="BI44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="BJ44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="BK44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="BL44" s="9">
-        <f t="shared" ref="BL44" si="159">+BL43/BL45</f>
+        <f t="shared" ref="BL44" si="160">+BL43/BL45</f>
         <v>5.1590038314176248</v>
       </c>
       <c r="BM44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>6.0338461538461541</v>
       </c>
       <c r="BN44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>8.0176991150442483</v>
       </c>
       <c r="BO44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>6.4262548262548265</v>
       </c>
       <c r="BP44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.1350194552529187</v>
       </c>
       <c r="BQ44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.6860505836575879</v>
       </c>
       <c r="BR44" s="9">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>9.1901523735408563</v>
       </c>
       <c r="BS44" s="9"/>
       <c r="BZ44" s="17"/>
       <c r="CA44" s="17">
-        <f t="shared" ref="CA44:CK44" si="160">+CA43/CA45</f>
+        <f t="shared" ref="CA44:CK44" si="161">+CA43/CA45</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="CB44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.66312997347480107</v>
       </c>
       <c r="CC44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>2.4469067405355493E-2</v>
       </c>
       <c r="CD44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>0.59594755661501786</v>
       </c>
       <c r="CE44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.1036036036036037</v>
       </c>
       <c r="CF44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>1.2926743778478795</v>
       </c>
       <c r="CG44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>3.4929914529914532</v>
       </c>
       <c r="CH44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>5.4850243863516397</v>
       </c>
       <c r="CI44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>7.5696679219445393</v>
       </c>
       <c r="CJ44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>8.1658553546592483</v>
       </c>
       <c r="CK44" s="17">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>10.092105263157896</v>
       </c>
       <c r="CL44" s="17">
-        <f t="shared" ref="CL44" si="161">+CL43/CL45</f>
+        <f t="shared" ref="CL44" si="162">+CL43/CL45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="CM44" s="17">
-        <f t="shared" ref="CM44" si="162">+CM43/CM45</f>
+        <f t="shared" ref="CM44" si="163">+CM43/CM45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="CN44" s="17">
-        <f t="shared" ref="CN44" si="163">+CN43/CN45</f>
+        <f t="shared" ref="CN44" si="164">+CN43/CN45</f>
         <v>20.189260916342057</v>
       </c>
       <c r="CO44" s="17">
-        <f t="shared" ref="CO44" si="164">+CO43/CO45</f>
+        <f t="shared" ref="CO44" si="165">+CO43/CO45</f>
         <v>29.369324978309372</v>
       </c>
       <c r="CP44" s="17">
-        <f t="shared" ref="CP44" si="165">+CP43/CP45</f>
+        <f t="shared" ref="CP44" si="166">+CP43/CP45</f>
         <v>37.169060355337209</v>
       </c>
       <c r="CQ44" s="17">
-        <f t="shared" ref="CQ44" si="166">+CQ43/CQ45</f>
+        <f t="shared" ref="CQ44" si="167">+CQ43/CQ45</f>
         <v>43.15109682670586</v>
       </c>
       <c r="CR44" s="17">
-        <f t="shared" ref="CR44" si="167">+CR43/CR45</f>
+        <f t="shared" ref="CR44" si="168">+CR43/CR45</f>
         <v>48.596713196653482</v>
       </c>
       <c r="CS44" s="17">
-        <f t="shared" ref="CS44" si="168">+CS43/CS45</f>
+        <f t="shared" ref="CS44" si="169">+CS43/CS45</f>
         <v>54.428294399136348</v>
       </c>
       <c r="CT44" s="17">
-        <f t="shared" ref="CT44" si="169">+CT43/CT45</f>
+        <f t="shared" ref="CT44" si="170">+CT43/CT45</f>
         <v>58.811945763673627</v>
       </c>
       <c r="CU44" s="17">
-        <f t="shared" ref="CU44" si="170">+CU43/CU45</f>
+        <f t="shared" ref="CU44" si="171">+CU43/CU45</f>
         <v>63.386434993527423</v>
       </c>
     </row>
@@ -8864,7 +8882,7 @@
         <v>2695.5</v>
       </c>
       <c r="CN45" s="3">
-        <f t="shared" ref="CN45:CU45" si="171">+CM45</f>
+        <f t="shared" ref="CN45:CU45" si="172">+CM45</f>
         <v>2695.5</v>
       </c>
       <c r="CO45" s="3">
@@ -8872,27 +8890,27 @@
         <v>2608.5</v>
       </c>
       <c r="CP45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CQ45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CR45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CS45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CT45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CU45" s="3">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
     </row>
@@ -8944,23 +8962,23 @@
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="11">
-        <f t="shared" ref="AQ47:AU47" si="172">+AQ32/AM32-1</f>
+        <f t="shared" ref="AQ47:AU47" si="173">+AQ32/AM32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="AV47" s="11">
@@ -8984,11 +9002,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" ref="BA47:BB47" si="173">+BA32/AW32-1</f>
+        <f t="shared" ref="BA47:BB47" si="174">+BA32/AW32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="BC47" s="11">
@@ -9004,7 +9022,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" ref="BF47" si="174">+BF32/BB32-1</f>
+        <f t="shared" ref="BF47" si="175">+BF32/BB32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="BG47" s="11">
@@ -9012,31 +9030,31 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="BH47" s="11">
-        <f t="shared" ref="BH47" si="175">+BH32/BD32-1</f>
+        <f t="shared" ref="BH47" si="176">+BH32/BD32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="BI47" s="11">
-        <f t="shared" ref="BI47" si="176">+BI32/BE32-1</f>
+        <f t="shared" ref="BI47" si="177">+BI32/BE32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="BJ47" s="11">
-        <f t="shared" ref="BJ47" si="177">+BJ32/BF32-1</f>
+        <f t="shared" ref="BJ47" si="178">+BJ32/BF32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="BK47" s="11">
-        <f t="shared" ref="BK47:BR47" si="178">+BK32/BG32-1</f>
+        <f t="shared" ref="BK47:BR47" si="179">+BK32/BG32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="BO47" s="11">
@@ -9044,72 +9062,72 @@
         <v>0.16071869428062002</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.21614496685521223</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.1579491980585872</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="BS47" s="11"/>
       <c r="BV47" s="18">
-        <f t="shared" ref="BV47:CH47" si="179">+BV32/BU32-1</f>
+        <f t="shared" ref="BV47:CH47" si="180">+BV32/BU32-1</f>
         <v>22.560209424083769</v>
       </c>
       <c r="BW47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>4.333333333333333</v>
       </c>
       <c r="BX47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>2.1875</v>
       </c>
       <c r="BY47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="BZ47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1.8566176470588234</v>
       </c>
       <c r="CA47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>1.5405405405405403</v>
       </c>
       <c r="CB47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.87993920972644379</v>
       </c>
       <c r="CC47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.37132848288870934</v>
       </c>
       <c r="CD47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.5468657889565729</v>
       </c>
       <c r="CE47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.58358739837398366</v>
       </c>
       <c r="CF47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="CG47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="CH47" s="18">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="CI47" s="18">
-        <f t="shared" ref="CI47" si="180">+CI32/CH32-1</f>
+        <f t="shared" ref="CI47" si="181">+CI32/CH32-1</f>
         <v>0.37352716896661997</v>
       </c>
       <c r="CJ47" s="18">
@@ -9129,35 +9147,35 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="CN47" s="18">
-        <f t="shared" ref="CN47:CU47" si="181">+CN32/CM32-1</f>
+        <f t="shared" ref="CN47:CU47" si="182">+CN32/CM32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="CO47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="CP47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.16122310030395148</v>
       </c>
       <c r="CQ47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CR47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="CS47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="CT47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CU47" s="18">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -9218,15 +9236,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="AZ48" s="11">
-        <f t="shared" ref="AZ48:BB48" si="182">+AZ27/AV27-1</f>
+        <f t="shared" ref="AZ48:BB48" si="183">+AZ27/AV27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="BA48" s="11">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="BB48" s="11">
-        <f t="shared" si="182"/>
+        <f t="shared" si="183"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="BC48" s="11">
@@ -9238,7 +9256,7 @@
         <v>-1</v>
       </c>
       <c r="BE48" s="11">
-        <f t="shared" ref="BE48" si="183">+BE27/BA27-1</f>
+        <f t="shared" ref="BE48" si="184">+BE27/BA27-1</f>
         <v>-1</v>
       </c>
       <c r="BF48" s="11"/>
@@ -9444,76 +9462,76 @@
       <c r="AZ51" s="10"/>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10">
-        <f t="shared" ref="BB51" si="184">+BB30/AX30-1</f>
+        <f t="shared" ref="BB51" si="185">+BB30/AX30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="BC51" s="10">
-        <f t="shared" ref="BC51:BK51" si="185">+BC30/AY30-1</f>
+        <f t="shared" ref="BC51:BK51" si="186">+BC30/AY30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="BD51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="BE51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="BF51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="BG51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="BH51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="BI51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="BJ51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="BK51" s="10">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="BL51" s="10">
-        <f t="shared" ref="BL51" si="186">+BL30/BH30-1</f>
+        <f t="shared" ref="BL51" si="187">+BL30/BH30-1</f>
         <v>0.27898550724637672</v>
       </c>
       <c r="BM51" s="10">
-        <f t="shared" ref="BM51" si="187">+BM30/BI30-1</f>
+        <f t="shared" ref="BM51" si="188">+BM30/BI30-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="BN51" s="10">
-        <f t="shared" ref="BN51" si="188">+BN30/BJ30-1</f>
+        <f t="shared" ref="BN51" si="189">+BN30/BJ30-1</f>
         <v>1.1204481792717047E-2</v>
       </c>
       <c r="BO51" s="10">
-        <f t="shared" ref="BO51" si="189">+BO30/BK30-1</f>
+        <f t="shared" ref="BO51" si="190">+BO30/BK30-1</f>
         <v>-6.3636363636363602E-2</v>
       </c>
       <c r="BP51" s="10">
-        <f t="shared" ref="BP51" si="190">+BP30/BL30-1</f>
+        <f t="shared" ref="BP51" si="191">+BP30/BL30-1</f>
         <v>4.8158640226628968E-2</v>
       </c>
       <c r="BQ51" s="10">
-        <f t="shared" ref="BQ51" si="191">+BQ30/BM30-1</f>
+        <f t="shared" ref="BQ51" si="192">+BQ30/BM30-1</f>
         <v>-1</v>
       </c>
       <c r="BR51" s="10">
-        <f t="shared" ref="BR51" si="192">+BR30/BN30-1</f>
+        <f t="shared" ref="BR51" si="193">+BR30/BN30-1</f>
         <v>-1</v>
       </c>
       <c r="BS51" s="10"/>
       <c r="CK51" s="19">
-        <f t="shared" ref="CK51" si="193">CK30/CJ30-1</f>
+        <f t="shared" ref="CK51" si="194">CK30/CJ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="CL51" s="19">
@@ -9580,19 +9598,19 @@
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
       <c r="BA52" s="10">
-        <f t="shared" ref="BA52:BD52" si="194">+BA38/AW38-1</f>
+        <f t="shared" ref="BA52:BD52" si="195">+BA38/AW38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="BB52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="BC52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="BD52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="BE52" s="10">
@@ -9600,23 +9618,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="BF52" s="10">
-        <f t="shared" ref="BF52:BJ52" si="195">+BF38/BB38-1</f>
+        <f t="shared" ref="BF52:BJ52" si="196">+BF38/BB38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="BG52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BH52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="BI52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="BJ52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="BK52" s="10">
@@ -9624,31 +9642,31 @@
         <v>0.32853310744035014</v>
       </c>
       <c r="BL52" s="10">
-        <f t="shared" ref="BL52:BO52" si="196">+BL38/BH38-1</f>
+        <f t="shared" ref="BL52:BO52" si="197">+BL38/BH38-1</f>
         <v>0.14359113034072468</v>
       </c>
       <c r="BM52" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>0.11812799548914565</v>
       </c>
       <c r="BN52" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>9.2939121756487886E-3</v>
       </c>
       <c r="BO52" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="197"/>
         <v>7.4388947927736426E-2</v>
       </c>
       <c r="BP52" s="10">
-        <f t="shared" ref="BP52" si="197">+BP38/BL38-1</f>
+        <f t="shared" ref="BP52" si="198">+BP38/BL38-1</f>
         <v>9.8604871127926152E-2</v>
       </c>
       <c r="BQ52" s="10">
-        <f t="shared" ref="BQ52" si="198">+BQ38/BM38-1</f>
+        <f t="shared" ref="BQ52" si="199">+BQ38/BM38-1</f>
         <v>0</v>
       </c>
       <c r="BR52" s="10">
-        <f t="shared" ref="BR52" si="199">+BR38/BN38-1</f>
+        <f t="shared" ref="BR52" si="200">+BR38/BN38-1</f>
         <v>6.8228168839997494E-2</v>
       </c>
       <c r="BS52" s="10"/>
@@ -9765,99 +9783,99 @@
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="10">
-        <f t="shared" ref="AM54:BJ54" si="200">+AM34/AM32</f>
+        <f t="shared" ref="AM54:BJ54" si="201">+AM34/AM32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="AN54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="AO54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="AP54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="AQ54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="AR54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="AS54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="AT54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="AU54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="AV54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="AW54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="AX54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="AY54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="AZ54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="BA54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="BB54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="BC54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="BD54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="BE54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="BF54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="BG54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BH54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="BI54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="BJ54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.79</v>
       </c>
       <c r="BK54" s="10">
@@ -9865,84 +9883,84 @@
         <v>0.81785763269784661</v>
       </c>
       <c r="BL54" s="10">
-        <f t="shared" ref="BL54:BO54" si="201">+BL34/BL32</f>
+        <f t="shared" ref="BL54:BO54" si="202">+BL34/BL32</f>
         <v>0.81295590079598679</v>
       </c>
       <c r="BM54" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="BN54" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.81731941717474421</v>
       </c>
       <c r="BO54" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.82105213404546962</v>
       </c>
       <c r="BP54" s="10">
-        <f t="shared" ref="BP54:BR54" si="202">+BP34/BP32</f>
+        <f t="shared" ref="BP54:BR54" si="203">+BP34/BP32</f>
         <v>0.82130229817324696</v>
       </c>
       <c r="BQ54" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.83</v>
       </c>
       <c r="BR54" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.83</v>
       </c>
       <c r="BS54" s="10"/>
       <c r="CI54" s="19">
-        <f t="shared" ref="CI54:CU54" si="203">+CI34/CI32</f>
+        <f t="shared" ref="CI54:CU54" si="204">+CI34/CI32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="CJ54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="CK54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="CL54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="CM54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CN54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CO54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CP54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CQ54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CR54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CS54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CT54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
       <c r="CU54" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
     </row>
@@ -9987,75 +10005,75 @@
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="10">
-        <f t="shared" ref="AM55:AO55" si="204">+AM39/AM32</f>
+        <f t="shared" ref="AM55:AO55" si="205">+AM39/AM32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:AS55" si="205">+AP39/AP32</f>
+        <f t="shared" ref="AP55:AS55" si="206">+AP39/AP32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" ref="AT55:AV55" si="206">+AT39/AT32</f>
+        <f t="shared" ref="AT55:AV55" si="207">+AT39/AT32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" ref="AW55:AZ55" si="207">+AW39/AW32</f>
+        <f t="shared" ref="AW55:AZ55" si="208">+AW39/AW32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" ref="BA55:BD55" si="208">+BA39/BA32</f>
+        <f t="shared" ref="BA55:BD55" si="209">+BA39/BA32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="BC55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="BD55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="BE55" s="10">
@@ -10063,23 +10081,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="BF55" s="10">
-        <f t="shared" ref="BF55:BJ55" si="209">+BF39/BF32</f>
+        <f t="shared" ref="BF55:BJ55" si="210">+BF39/BF32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="BG55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="BH55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="BI55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="BJ55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="BK55" s="10">
@@ -10087,84 +10105,84 @@
         <v>0.37904265532848719</v>
       </c>
       <c r="BL55" s="10">
-        <f t="shared" ref="BL55:BO55" si="210">+BL39/BL32</f>
+        <f t="shared" ref="BL55:BO55" si="211">+BL39/BL32</f>
         <v>0.38000051188861306</v>
       </c>
       <c r="BM55" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="BN55" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.48289759222899659</v>
       </c>
       <c r="BO55" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.41487450961856598</v>
       </c>
       <c r="BP55" s="10">
-        <f t="shared" ref="BP55:BR55" si="211">+BP39/BP32</f>
+        <f t="shared" ref="BP55:BR55" si="212">+BP39/BP32</f>
         <v>0.43019193534809325</v>
       </c>
       <c r="BQ55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.49246808510638296</v>
       </c>
       <c r="BR55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.51103677349828014</v>
       </c>
       <c r="BS55" s="10"/>
       <c r="CI55" s="10">
-        <f t="shared" ref="CI55:CU55" si="212">+CI39/CI32</f>
+        <f t="shared" ref="CI55:CU55" si="213">+CI39/CI32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="CJ55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="CK55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="CL55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="CM55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="CN55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="CO55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="CP55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.6003471159222119</v>
       </c>
       <c r="CQ55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.62710487465170461</v>
       </c>
       <c r="CR55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.64706799974080131</v>
       </c>
       <c r="CS55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.66448315181892159</v>
       </c>
       <c r="CT55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.67599490984630151</v>
       </c>
       <c r="CU55" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.68630386259078657</v>
       </c>
       <c r="CY55" t="s">
@@ -10216,99 +10234,99 @@
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="10">
-        <f t="shared" ref="AM56:BF56" si="213">+AM42/AM41</f>
+        <f t="shared" ref="AM56:BF56" si="214">+AM42/AM41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="AN56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="AO56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="AP56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="AQ56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="AR56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="AS56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="AT56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="AU56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="AV56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="AW56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="AX56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="AY56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="AZ56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="BA56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="BB56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="BC56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="BD56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="BE56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="BF56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="BG56" s="10">
-        <f t="shared" ref="BG56:BJ56" si="214">+BG42/BG41</f>
+        <f t="shared" ref="BG56:BJ56" si="215">+BG42/BG41</f>
         <v>0.19</v>
       </c>
       <c r="BH56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="BI56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="BJ56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="BK56" s="10">
@@ -10316,84 +10334,84 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="BL56" s="10">
-        <f t="shared" ref="BL56:BO56" si="215">+BL42/BL41</f>
+        <f t="shared" ref="BL56:BO56" si="216">+BL42/BL41</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="BM56" s="10">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0.11973964762652901</v>
       </c>
       <c r="BN56" s="10">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>0.11527193988027003</v>
       </c>
       <c r="BO56" s="10">
-        <f t="shared" si="215"/>
+        <f t="shared" si="216"/>
         <v>9.4549015341094556E-2</v>
       </c>
       <c r="BP56" s="10">
-        <f t="shared" ref="BP56:BR56" si="216">+BP42/BP41</f>
+        <f t="shared" ref="BP56:BR56" si="217">+BP42/BP41</f>
         <v>0.10699327943897925</v>
       </c>
       <c r="BQ56" s="10">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.15</v>
       </c>
       <c r="BR56" s="10">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.15</v>
       </c>
       <c r="BS56" s="10"/>
       <c r="CI56" s="19">
-        <f t="shared" ref="CI56:CU56" si="217">+CI42/CI41</f>
+        <f t="shared" ref="CI56:CU56" si="218">+CI42/CI41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="CJ56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="CK56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="CL56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="CM56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CN56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CO56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CP56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CQ56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CR56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CS56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CT56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CU56" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
       <c r="CY56" s="3" t="s">
@@ -10417,63 +10435,63 @@
         <v>195</v>
       </c>
       <c r="BA58" s="6">
-        <f t="shared" ref="BA58:BC58" si="218">+BA59-BA73</f>
+        <f t="shared" ref="BA58:BC58" si="219">+BA59-BA73</f>
         <v>64833</v>
       </c>
       <c r="BB58" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>54773</v>
       </c>
       <c r="BC58" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>50665</v>
       </c>
       <c r="BD58" s="6">
-        <f t="shared" ref="BD58:BG58" si="219">+BD59-BD73</f>
+        <f t="shared" ref="BD58:BG58" si="220">+BD59-BD73</f>
         <v>47025</v>
       </c>
       <c r="BE58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>38382</v>
       </c>
       <c r="BF58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>37016</v>
       </c>
       <c r="BG58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>33681</v>
       </c>
       <c r="BH58" s="6">
-        <f t="shared" ref="BH58:BO58" si="220">+BH59-BH73</f>
+        <f t="shared" ref="BH58:BO58" si="221">+BH59-BH73</f>
         <v>41272</v>
       </c>
       <c r="BI58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>48882</v>
       </c>
       <c r="BJ58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>53159</v>
       </c>
       <c r="BK58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>45951</v>
       </c>
       <c r="BL58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>45898</v>
       </c>
       <c r="BM58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>48148</v>
       </c>
       <c r="BN58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>55059</v>
       </c>
       <c r="BO58" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>47569</v>
       </c>
       <c r="BP58" s="6"/>
@@ -10623,35 +10641,35 @@
         <v>46939</v>
       </c>
       <c r="CN59" s="3">
-        <f t="shared" ref="CN59:CU59" si="221">+CM59+CN43</f>
+        <f t="shared" ref="CN59:CU59" si="222">+CM59+CN43</f>
         <v>101359.15280000001</v>
       </c>
       <c r="CO59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>177969.03700592002</v>
       </c>
       <c r="CP59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>274924.5309428171</v>
       </c>
       <c r="CQ59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>387484.16701527935</v>
       </c>
       <c r="CR59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>514248.69338874996</v>
       </c>
       <c r="CS59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>656224.89932889713</v>
       </c>
       <c r="CT59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>809635.85985343973</v>
       </c>
       <c r="CU59" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>974979.37553405599</v>
       </c>
       <c r="CY59" s="3" t="s">
@@ -11370,23 +11388,23 @@
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6">
-        <f t="shared" ref="AX66:AY66" si="222">SUM(AX59:AX65)</f>
+        <f t="shared" ref="AX66:AY66" si="223">SUM(AX59:AX65)</f>
         <v>159316</v>
       </c>
       <c r="AY66" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>163523</v>
       </c>
       <c r="AZ66" s="6">
-        <f t="shared" ref="AZ66:BA66" si="223">SUM(AZ59:AZ65)</f>
+        <f t="shared" ref="AZ66:BA66" si="224">SUM(AZ59:AZ65)</f>
         <v>170609</v>
       </c>
       <c r="BA66" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="224"/>
         <v>169585</v>
       </c>
       <c r="BB66" s="6">
-        <f t="shared" ref="BB66" si="224">SUM(BB59:BB65)</f>
+        <f t="shared" ref="BB66" si="225">SUM(BB59:BB65)</f>
         <v>165987</v>
       </c>
       <c r="BC66" s="6">
@@ -11402,43 +11420,43 @@
         <v>178894</v>
       </c>
       <c r="BF66" s="6">
-        <f t="shared" ref="BF66:BO66" si="225">SUM(BF59:BF65)</f>
+        <f t="shared" ref="BF66:BO66" si="226">SUM(BF59:BF65)</f>
         <v>185727</v>
       </c>
       <c r="BG66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>184491</v>
       </c>
       <c r="BH66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>206688</v>
       </c>
       <c r="BI66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>216274</v>
       </c>
       <c r="BJ66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>229623</v>
       </c>
       <c r="BK66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>222844</v>
       </c>
       <c r="BL66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>230238</v>
       </c>
       <c r="BM66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>256408</v>
       </c>
       <c r="BN66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>276054</v>
       </c>
       <c r="BO66" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>280213</v>
       </c>
     </row>
@@ -12045,35 +12063,35 @@
         <v>61</v>
       </c>
       <c r="AX78" s="6">
-        <f t="shared" ref="AX78:AY78" si="226">SUM(AX68:AX77)</f>
+        <f t="shared" ref="AX78:AY78" si="227">SUM(AX68:AX77)</f>
         <v>159316</v>
       </c>
       <c r="AY78" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>163523</v>
       </c>
       <c r="AZ78" s="6">
-        <f t="shared" ref="AZ78:BA78" si="227">SUM(AZ68:AZ77)</f>
+        <f t="shared" ref="AZ78:BA78" si="228">SUM(AZ68:AZ77)</f>
         <v>170609</v>
       </c>
       <c r="BA78" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>169585</v>
       </c>
       <c r="BB78" s="6">
-        <f t="shared" ref="BB78:BE78" si="228">SUM(BB68:BB77)</f>
+        <f t="shared" ref="BB78:BE78" si="229">SUM(BB68:BB77)</f>
         <v>165987</v>
       </c>
       <c r="BC78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>164218</v>
       </c>
       <c r="BD78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>169779</v>
       </c>
       <c r="BE78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>178894</v>
       </c>
       <c r="BF78" s="6">
@@ -12097,23 +12115,23 @@
         <v>229623</v>
       </c>
       <c r="BK78" s="6">
-        <f t="shared" ref="BK78:BO78" si="229">SUM(BK68:BK77)</f>
+        <f t="shared" ref="BK78:BO78" si="230">SUM(BK68:BK77)</f>
         <v>222844</v>
       </c>
       <c r="BL78" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>230238</v>
       </c>
       <c r="BM78" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>256408</v>
       </c>
       <c r="BN78" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>276054</v>
       </c>
       <c r="BO78" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>280213</v>
       </c>
     </row>
@@ -12125,31 +12143,31 @@
         <v>66</v>
       </c>
       <c r="AY80" s="6">
-        <f t="shared" ref="AY80:BJ80" si="230">AY43</f>
+        <f t="shared" ref="AY80:BJ80" si="231">AY43</f>
         <v>9497</v>
       </c>
       <c r="AZ80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>10394</v>
       </c>
       <c r="BA80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>9194</v>
       </c>
       <c r="BB80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>10285</v>
       </c>
       <c r="BC80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>7465</v>
       </c>
       <c r="BD80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>6687</v>
       </c>
       <c r="BE80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>4395</v>
       </c>
       <c r="BF80" s="6">
@@ -12157,43 +12175,43 @@
         <v>4652</v>
       </c>
       <c r="BG80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>9658</v>
       </c>
       <c r="BI80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>11583</v>
       </c>
       <c r="BJ80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK80" s="6">
-        <f t="shared" ref="BK80:BO80" si="231">BK43</f>
+        <f t="shared" ref="BK80:BO80" si="232">BK43</f>
         <v>12369</v>
       </c>
       <c r="BL80" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>13465</v>
       </c>
       <c r="BM80" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>15688</v>
       </c>
       <c r="BN80" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>20838</v>
       </c>
       <c r="BO80" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>16644</v>
       </c>
     </row>
-    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -12259,7 +12277,7 @@
         <v>16644</v>
       </c>
     </row>
-    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -12325,7 +12343,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -12391,7 +12409,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -12457,7 +12475,7 @@
         <v>-993</v>
       </c>
     </row>
-    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -12525,7 +12543,7 @@
         <v>-231</v>
       </c>
     </row>
-    <row r="86" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -12598,76 +12616,76 @@
         <v>559</v>
       </c>
     </row>
-    <row r="87" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:94" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="AY87" s="6">
-        <f t="shared" ref="AY87:BH87" si="232">SUM(AY81:AY86)</f>
+        <f t="shared" ref="AY87:BH87" si="233">SUM(AY81:AY86)</f>
         <v>12242</v>
       </c>
       <c r="AZ87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>13247</v>
       </c>
       <c r="BA87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>14090</v>
       </c>
       <c r="BB87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>18104</v>
       </c>
       <c r="BC87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>14076</v>
       </c>
       <c r="BD87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>12197</v>
       </c>
       <c r="BE87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>9691</v>
       </c>
       <c r="BF87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>14511</v>
       </c>
       <c r="BG87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>13998</v>
       </c>
       <c r="BH87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>17309</v>
       </c>
       <c r="BI87" s="6">
-        <f t="shared" ref="BI87:BO87" si="233">SUM(BI81:BI86)</f>
+        <f t="shared" ref="BI87:BO87" si="234">SUM(BI81:BI86)</f>
         <v>20402</v>
       </c>
       <c r="BJ87" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>19404</v>
       </c>
       <c r="BK87" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>19246</v>
       </c>
       <c r="BL87" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>19370</v>
       </c>
       <c r="BM87" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>24724</v>
       </c>
       <c r="BN87" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>27988</v>
       </c>
       <c r="BO87" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>24026</v>
       </c>
       <c r="CA87" s="3">
@@ -12680,11 +12698,11 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="88" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:94" x14ac:dyDescent="0.25">
       <c r="BC88" s="6"/>
       <c r="BD88" s="6"/>
     </row>
-    <row r="89" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -12800,8 +12818,27 @@
       <c r="BO89" s="3">
         <v>-12941</v>
       </c>
-    </row>
-    <row r="90" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP89" s="3">
+        <v>-16538</v>
+      </c>
+      <c r="BQ89" s="3">
+        <f>+BP89-2000</f>
+        <v>-18538</v>
+      </c>
+      <c r="BR89" s="3">
+        <f>+BQ89-2000</f>
+        <v>-20538</v>
+      </c>
+      <c r="CO89" s="3">
+        <f>SUM(BK89:BN89)</f>
+        <v>-37256</v>
+      </c>
+      <c r="CP89" s="3">
+        <f>SUM(BO89:BR89)</f>
+        <v>-68555</v>
+      </c>
+    </row>
+    <row r="90" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -12922,7 +12959,7 @@
         <v>-7069</v>
       </c>
     </row>
-    <row r="91" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -13036,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -13089,51 +13126,51 @@
       <c r="AW92" s="6"/>
       <c r="AX92" s="6"/>
       <c r="AY92" s="6">
-        <f t="shared" ref="AY92:BJ92" si="234">SUM(AY89:AY91)</f>
+        <f t="shared" ref="AY92:BJ92" si="235">SUM(AY89:AY91)</f>
         <v>-4874</v>
       </c>
       <c r="AZ92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-8195</v>
       </c>
       <c r="BA92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-330</v>
       </c>
       <c r="BB92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>5829</v>
       </c>
       <c r="BC92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-4779</v>
       </c>
       <c r="BD92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-6959</v>
       </c>
       <c r="BE92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-9701</v>
       </c>
       <c r="BF92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-7531</v>
       </c>
       <c r="BG92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-6743</v>
       </c>
       <c r="BH92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-5203</v>
       </c>
       <c r="BI92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-6077</v>
       </c>
       <c r="BJ92" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-6472</v>
       </c>
       <c r="BK92" s="3">
@@ -13157,7 +13194,7 @@
         <v>-20010</v>
       </c>
     </row>
-    <row r="93" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -13218,7 +13255,7 @@
       <c r="BH93" s="6"/>
       <c r="BI93" s="6"/>
     </row>
-    <row r="94" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -13332,7 +13369,7 @@
         <v>-4883</v>
       </c>
     </row>
-    <row r="95" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
@@ -13446,7 +13483,7 @@
         <v>-12754</v>
       </c>
     </row>
-    <row r="96" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -13807,71 +13844,71 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="6">
-        <f t="shared" ref="AY99:BA99" si="235">SUM(AY94:AY98)</f>
+        <f t="shared" ref="AY99:BA99" si="236">SUM(AY94:AY98)</f>
         <v>-5185</v>
       </c>
       <c r="AZ99" s="6">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>-8549</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" si="235"/>
+        <f t="shared" si="236"/>
         <v>-15252</v>
       </c>
       <c r="BB99" s="6">
-        <f t="shared" ref="BB99" si="236">SUM(BB94:BB98)</f>
+        <f t="shared" ref="BB99" si="237">SUM(BB94:BB98)</f>
         <v>-21742</v>
       </c>
       <c r="BC99" s="6">
-        <f t="shared" ref="BC99:BO99" si="237">SUM(BC94:BC98)</f>
+        <f t="shared" ref="BC99:BO99" si="238">SUM(BC94:BC98)</f>
         <v>-10660</v>
       </c>
       <c r="BD99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-6563</v>
       </c>
       <c r="BE99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>2147</v>
       </c>
       <c r="BF99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-7060</v>
       </c>
       <c r="BG99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-10516</v>
       </c>
       <c r="BH99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>5292</v>
       </c>
       <c r="BI99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-5875</v>
       </c>
       <c r="BJ99" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-8401</v>
       </c>
       <c r="BK99" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-19767</v>
       </c>
       <c r="BL99" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-11178</v>
       </c>
       <c r="BM99" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-4371</v>
       </c>
       <c r="BN99" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-5465</v>
       </c>
       <c r="BO99" s="3">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-19495</v>
       </c>
     </row>
@@ -13946,31 +13983,31 @@
         <v>81</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" ref="AY101:BJ101" si="238">+AY100+AY99+AY92+AY87</f>
+        <f t="shared" ref="AY101:BJ101" si="239">+AY100+AY99+AY92+AY87</f>
         <v>1937</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-3380</v>
       </c>
       <c r="BA101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-1707</v>
       </c>
       <c r="BB101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>2061</v>
       </c>
       <c r="BC101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-1512</v>
       </c>
       <c r="BD101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-1875</v>
       </c>
       <c r="BE101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1773</v>
       </c>
       <c r="BF101" s="6">
@@ -13978,19 +14015,19 @@
         <v>345</v>
       </c>
       <c r="BG101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-3176</v>
       </c>
       <c r="BH101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>17384</v>
       </c>
       <c r="BI101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>8096</v>
       </c>
       <c r="BJ101" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>4927</v>
       </c>
       <c r="BK101" s="3">
@@ -14124,55 +14161,55 @@
         <v>199</v>
       </c>
       <c r="BC104" s="6">
-        <f t="shared" ref="BC104:BO104" si="239">+BC103-BB103</f>
+        <f t="shared" ref="BC104:BO104" si="240">+BC103-BB103</f>
         <v>5835</v>
       </c>
       <c r="BD104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>5748</v>
       </c>
       <c r="BE104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>3761</v>
       </c>
       <c r="BF104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-1314</v>
       </c>
       <c r="BG104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-8886</v>
       </c>
       <c r="BH104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-5645</v>
       </c>
       <c r="BI104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-5284</v>
       </c>
       <c r="BJ104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1132</v>
       </c>
       <c r="BK104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2012</v>
       </c>
       <c r="BL104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1470</v>
       </c>
       <c r="BM104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1605</v>
       </c>
       <c r="BN104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1663</v>
       </c>
       <c r="BO104" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2767</v>
       </c>
     </row>
@@ -14189,51 +14226,51 @@
         <v>7970</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" ref="AZ106:BC106" si="240">+AZ87+AZ89</f>
+        <f t="shared" ref="AZ106:BC106" si="241">+AZ87+AZ89</f>
         <v>8635</v>
       </c>
       <c r="BA106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>9776</v>
       </c>
       <c r="BB106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>12734</v>
       </c>
       <c r="BC106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>8761</v>
       </c>
       <c r="BD106" s="6">
-        <f t="shared" ref="BD106:BJ106" si="241">+BD87+BD89</f>
+        <f t="shared" ref="BD106:BJ106" si="242">+BD87+BD89</f>
         <v>4669</v>
       </c>
       <c r="BE106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>336</v>
       </c>
       <c r="BF106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>5523</v>
       </c>
       <c r="BG106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>7175</v>
       </c>
       <c r="BH106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>11175</v>
       </c>
       <c r="BI106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>13906</v>
       </c>
       <c r="BJ106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>11812</v>
       </c>
       <c r="BK106" s="3">
-        <f t="shared" ref="BK106" si="242">+BK87+BK89</f>
+        <f t="shared" ref="BK106" si="243">+BK87+BK89</f>
         <v>12846</v>
       </c>
       <c r="BL106" s="3">
@@ -14258,11 +14295,11 @@
         <v>127</v>
       </c>
       <c r="BB107" s="6">
-        <f t="shared" ref="BB107:BC107" si="243">SUM(AY106:BB106)</f>
+        <f t="shared" ref="BB107:BC107" si="244">SUM(AY106:BB106)</f>
         <v>39115</v>
       </c>
       <c r="BC107" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>39906</v>
       </c>
       <c r="BD107" s="6">
@@ -14278,31 +14315,31 @@
         <v>19289</v>
       </c>
       <c r="BG107" s="6">
-        <f t="shared" ref="BG107:BK107" si="244">SUM(BD106:BG106)</f>
+        <f t="shared" ref="BG107:BK107" si="245">SUM(BD106:BG106)</f>
         <v>17703</v>
       </c>
       <c r="BH107" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>24209</v>
       </c>
       <c r="BI107" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>37779</v>
       </c>
       <c r="BJ107" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>44068</v>
       </c>
       <c r="BK107" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>49739</v>
       </c>
       <c r="BL107" s="3">
-        <f t="shared" ref="BL107:BM107" si="245">SUM(BI106:BL106)</f>
+        <f t="shared" ref="BL107:BM107" si="246">SUM(BI106:BL106)</f>
         <v>49761</v>
       </c>
       <c r="BM107" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>52321</v>
       </c>
       <c r="BN107" s="3">
@@ -14361,59 +14398,59 @@
         <v>94400</v>
       </c>
       <c r="AZ110" s="3">
-        <f t="shared" ref="AZ110:BM110" si="246">SUM(AW32:AZ32)</f>
+        <f t="shared" ref="AZ110:BM110" si="247">SUM(AW32:AZ32)</f>
         <v>104790</v>
       </c>
       <c r="BA110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>112330</v>
       </c>
       <c r="BB110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>117929</v>
       </c>
       <c r="BC110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>119666</v>
       </c>
       <c r="BD110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>119411</v>
       </c>
       <c r="BE110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>118115</v>
       </c>
       <c r="BF110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>116609</v>
       </c>
       <c r="BG110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>117346</v>
       </c>
       <c r="BH110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>120523</v>
       </c>
       <c r="BI110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>126955</v>
       </c>
       <c r="BJ110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>134901</v>
       </c>
       <c r="BK110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>142711</v>
       </c>
       <c r="BL110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>149783</v>
       </c>
       <c r="BM110" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>156226</v>
       </c>
       <c r="BN110" s="3">

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA1C145-0AAF-4094-8CB7-49566180A1FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738F637F-4E77-49F5-A58C-20CC5C1AC91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39430" yWindow="1720" windowWidth="26400" windowHeight="18030" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="53750" yWindow="420" windowWidth="24340" windowHeight="15680" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,8 @@
     <author>tc={A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}</author>
     <author>tc={3D2F6350-1756-4982-89B0-68C8E9231F2B}</author>
     <author>tc={5607579E-D033-47D3-9B2C-C24197BA8A4A}</author>
+    <author>tc={9773F841-2AD4-4743-9A36-360E5BB43231}</author>
+    <author>tc={B9D2C9B5-95D5-467F-B83F-2DC9425E1A30}</author>
     <author>tc={91CBABE9-5D33-43AB-ABFC-972A33AB3B90}</author>
   </authors>
   <commentList>
@@ -133,7 +135,23 @@
     Q225: 42.2-45.5B</t>
       </text>
     </comment>
-    <comment ref="CP89" authorId="10" shapeId="0" xr:uid="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
+    <comment ref="BR32" authorId="10" shapeId="0" xr:uid="{9773F841-2AD4-4743-9A36-360E5BB43231}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 56-59B</t>
+      </text>
+    </comment>
+    <comment ref="BQ47" authorId="11" shapeId="0" xr:uid="{B9D2C9B5-95D5-467F-B83F-2DC9425E1A30}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    25% CC</t>
+      </text>
+    </comment>
+    <comment ref="CT89" authorId="12" shapeId="0" xr:uid="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -146,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="262">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -920,13 +938,25 @@
   </si>
   <si>
     <t>TTM Revenue</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -960,12 +990,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1070,13 +1094,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>81251</xdr:colOff>
+      <xdr:colOff>613674</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>81251</xdr:colOff>
+      <xdr:colOff>613674</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -1093,7 +1117,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43139136" y="0"/>
+          <a:off x="43671559" y="0"/>
           <a:ext cx="0" cy="21140616"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1119,13 +1143,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>93</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>2299</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>93</xdr:col>
+      <xdr:col>97</xdr:col>
       <xdr:colOff>2299</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>141653</xdr:rowOff>
@@ -1504,7 +1528,13 @@
   <threadedComment ref="BP32" dT="2025-04-30T20:23:13.01" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{5607579E-D033-47D3-9B2C-C24197BA8A4A}">
     <text>Q225: 42.2-45.5B</text>
   </threadedComment>
-  <threadedComment ref="CP89" dT="2025-08-27T14:58:28.74" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
+  <threadedComment ref="BR32" dT="2025-10-29T20:26:37.00" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{9773F841-2AD4-4743-9A36-360E5BB43231}">
+    <text>Q3 guidance: 56-59B</text>
+  </threadedComment>
+  <threadedComment ref="BQ47" dT="2025-10-29T20:25:58.92" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{B9D2C9B5-95D5-467F-B83F-2DC9425E1A30}">
+    <text>25% CC</text>
+  </threadedComment>
+  <threadedComment ref="CT89" dT="2025-08-27T14:58:28.74" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{91CBABE9-5D33-43AB-ABFC-972A33AB3B90}">
     <text>Q2: increased guidance from 64-72 to 66-72B</text>
   </threadedComment>
 </ThreadedComments>
@@ -1515,7 +1545,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>722</v>
+        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1548,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <v>2590</v>
+        <v>2572</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1566,7 +1596,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>1869980</v>
+        <v>1751532</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1577,10 +1607,10 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <v>76398</v>
+        <v>69522</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1591,10 +1621,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <v>28829</v>
+        <v>28834</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1603,7 +1633,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>1822411</v>
+        <v>1710844</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
@@ -1707,13 +1737,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:EY118"/>
+  <dimension ref="A1:FC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BM66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BP89" sqref="BP89"/>
+      <selection pane="bottomRight" activeCell="BP103" sqref="BP103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1724,12 +1754,12 @@
     <col min="39" max="61" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
@@ -1934,105 +1964,117 @@
       <c r="BR2" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BS2" s="1"/>
-      <c r="BU2">
+      <c r="BS2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BW2" s="1"/>
+      <c r="BY2">
         <v>2004</v>
       </c>
-      <c r="BV2">
+      <c r="BZ2">
         <v>2005</v>
       </c>
-      <c r="BW2">
+      <c r="CA2">
         <v>2006</v>
       </c>
-      <c r="BX2">
+      <c r="CB2">
         <v>2007</v>
       </c>
-      <c r="BY2">
+      <c r="CC2">
         <v>2008</v>
       </c>
-      <c r="BZ2">
+      <c r="CD2">
         <v>2009</v>
       </c>
-      <c r="CA2">
+      <c r="CE2">
         <v>2010</v>
       </c>
-      <c r="CB2">
+      <c r="CF2">
         <v>2011</v>
       </c>
-      <c r="CC2">
+      <c r="CG2">
         <v>2012</v>
       </c>
-      <c r="CD2">
+      <c r="CH2">
         <v>2013</v>
       </c>
-      <c r="CE2">
+      <c r="CI2">
         <v>2014</v>
       </c>
-      <c r="CF2">
+      <c r="CJ2">
         <v>2015</v>
       </c>
-      <c r="CG2">
-        <f>+CF2+1</f>
+      <c r="CK2">
+        <f>+CJ2+1</f>
         <v>2016</v>
       </c>
-      <c r="CH2">
-        <f t="shared" ref="CH2:CU2" si="0">+CG2+1</f>
+      <c r="CL2">
+        <f t="shared" ref="CL2:CY2" si="0">+CK2+1</f>
         <v>2017</v>
       </c>
-      <c r="CI2">
+      <c r="CM2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="CJ2">
+      <c r="CN2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="CK2">
+      <c r="CO2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="CL2">
+      <c r="CP2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="CM2">
+      <c r="CQ2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="CN2">
+      <c r="CR2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="CO2">
+      <c r="CS2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="CP2">
+      <c r="CT2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="CQ2">
+      <c r="CU2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="CR2">
+      <c r="CV2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="CS2">
+      <c r="CW2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="CT2">
+      <c r="CX2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="CU2">
+      <c r="CY2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2145,8 +2187,11 @@
       <c r="BO3" s="3">
         <v>3430</v>
       </c>
-    </row>
-    <row r="4" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BQ3" s="3">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2245,7 +2290,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2375,17 +2420,17 @@
       <c r="BJ5" s="3">
         <v>2110</v>
       </c>
-      <c r="CA5" s="3">
+      <c r="CE5" s="3">
         <v>327</v>
       </c>
-      <c r="CB5" s="3">
+      <c r="CF5" s="3">
         <v>483</v>
       </c>
-      <c r="CC5" s="3">
+      <c r="CG5" s="3">
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -2471,7 +2516,7 @@
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -2568,7 +2613,7 @@
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
     </row>
-    <row r="8" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2698,35 +2743,35 @@
       <c r="BJ8" s="3">
         <v>3070</v>
       </c>
-      <c r="BU8" s="3">
+      <c r="BY8" s="3">
         <v>1</v>
       </c>
-      <c r="BV8" s="3">
+      <c r="BZ8" s="3">
         <v>6</v>
       </c>
-      <c r="BW8" s="3">
+      <c r="CA8" s="3">
         <v>12</v>
       </c>
-      <c r="BX8" s="3">
+      <c r="CB8" s="3">
         <v>58</v>
       </c>
-      <c r="BY8" s="3">
+      <c r="CC8" s="3">
         <v>145</v>
       </c>
-      <c r="BZ8" s="3">
+      <c r="CD8" s="3">
         <v>360</v>
       </c>
-      <c r="CA8" s="3">
+      <c r="CE8" s="3">
         <v>608</v>
       </c>
-      <c r="CB8" s="3">
+      <c r="CF8" s="3">
         <v>845</v>
       </c>
-      <c r="CC8" s="3">
+      <c r="CG8" s="3">
         <v>1056</v>
       </c>
     </row>
-    <row r="9" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2811,17 +2856,17 @@
       <c r="BG9" s="6"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
-      <c r="CA9" s="3">
+      <c r="CE9" s="3">
         <v>154</v>
       </c>
-      <c r="CB9" s="3">
+      <c r="CF9" s="3">
         <v>179</v>
       </c>
-      <c r="CC9" s="3">
+      <c r="CG9" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2882,7 +2927,7 @@
       <c r="BH10" s="6"/>
       <c r="BI10" s="6"/>
     </row>
-    <row r="11" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2985,7 +3030,7 @@
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
     </row>
-    <row r="12" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -3085,7 +3130,7 @@
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
     </row>
-    <row r="13" spans="1:99" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -3173,7 +3218,7 @@
       <c r="BH13" s="14"/>
       <c r="BI13" s="14"/>
     </row>
-    <row r="14" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -3276,7 +3321,7 @@
       <c r="BH14" s="6"/>
       <c r="BI14" s="6"/>
     </row>
-    <row r="15" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -3379,7 +3424,7 @@
       <c r="BH15" s="6"/>
       <c r="BI15" s="6"/>
     </row>
-    <row r="16" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -3479,7 +3524,7 @@
       <c r="BH16" s="6"/>
       <c r="BI16" s="6"/>
     </row>
-    <row r="17" spans="2:99" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:103" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -3567,7 +3612,7 @@
       <c r="BH17" s="14"/>
       <c r="BI17" s="14"/>
     </row>
-    <row r="18" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3628,7 +3673,7 @@
       <c r="BH18" s="6"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -3721,7 +3766,7 @@
         <v>20982</v>
       </c>
     </row>
-    <row r="20" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -3814,7 +3859,7 @@
         <v>11154</v>
       </c>
     </row>
-    <row r="21" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -3907,7 +3952,7 @@
         <v>9012</v>
       </c>
     </row>
-    <row r="22" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -4000,7 +4045,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="23" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -4061,7 +4106,7 @@
       <c r="BH23" s="6"/>
       <c r="BI23" s="6"/>
     </row>
-    <row r="24" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -4146,7 +4191,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -4231,7 +4276,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -4316,7 +4361,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -4401,7 +4446,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -4462,7 +4507,7 @@
       <c r="BH28" s="6"/>
       <c r="BI28" s="6"/>
     </row>
-    <row r="29" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -4588,32 +4633,32 @@
       <c r="BP29" s="3">
         <v>583</v>
       </c>
-      <c r="CI29" s="3">
+      <c r="CM29" s="3">
         <v>825</v>
       </c>
-      <c r="CJ29" s="3">
+      <c r="CN29" s="3">
         <v>541</v>
       </c>
-      <c r="CK29" s="3">
+      <c r="CO29" s="3">
         <v>657</v>
       </c>
-      <c r="CL29" s="3">
+      <c r="CP29" s="3">
         <v>721</v>
       </c>
-      <c r="CM29" s="3">
+      <c r="CQ29" s="3">
         <f>SUM(BC29:BF29)</f>
         <v>809</v>
       </c>
-      <c r="CN29" s="3">
+      <c r="CR29" s="3">
         <f>SUM(BG29:BJ29)</f>
         <v>1057</v>
       </c>
-      <c r="CO29" s="3">
+      <c r="CS29" s="3">
         <f>SUM(BK29:BN29)</f>
         <v>1722</v>
       </c>
     </row>
-    <row r="30" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -4721,29 +4766,29 @@
       <c r="BP30" s="3">
         <v>370</v>
       </c>
-      <c r="CJ30" s="3">
+      <c r="CN30" s="3">
         <v>501</v>
       </c>
-      <c r="CK30" s="3">
+      <c r="CO30" s="3">
         <v>1139</v>
       </c>
-      <c r="CL30" s="3">
+      <c r="CP30" s="3">
         <v>2274</v>
       </c>
-      <c r="CM30" s="3">
+      <c r="CQ30" s="3">
         <f>SUM(BC30:BF30)</f>
         <v>2159</v>
       </c>
-      <c r="CN30" s="3">
+      <c r="CR30" s="3">
         <f>SUM(BG30:BJ30)</f>
         <v>1896</v>
       </c>
-      <c r="CO30" s="3">
+      <c r="CS30" s="3">
         <f>SUM(BK30:BN30)</f>
         <v>2146</v>
       </c>
     </row>
-    <row r="31" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:103" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -4922,76 +4967,80 @@
       <c r="BQ31" s="6"/>
       <c r="BR31" s="6"/>
       <c r="BS31" s="6"/>
-      <c r="BU31" s="3">
+      <c r="BT31" s="6"/>
+      <c r="BU31" s="6"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="6"/>
+      <c r="BY31" s="3">
         <v>0.38200000000000001</v>
       </c>
-      <c r="BV31" s="3">
+      <c r="BZ31" s="3">
         <v>9</v>
       </c>
-      <c r="BW31" s="3">
+      <c r="CA31" s="3">
         <v>48</v>
       </c>
-      <c r="BX31" s="3">
+      <c r="CB31" s="3">
         <v>153</v>
       </c>
-      <c r="BY31" s="3">
+      <c r="CC31" s="3">
         <v>272</v>
       </c>
-      <c r="BZ31" s="3">
+      <c r="CD31" s="3">
         <v>777</v>
       </c>
-      <c r="CA31" s="3">
+      <c r="CE31" s="3">
         <v>1974</v>
       </c>
-      <c r="CB31" s="3">
+      <c r="CF31" s="3">
         <f>SUM(K31:N31)</f>
         <v>3711</v>
       </c>
-      <c r="CC31" s="3">
+      <c r="CG31" s="3">
         <f>SUM(O31:R31)</f>
         <v>5089</v>
       </c>
-      <c r="CD31" s="3">
+      <c r="CH31" s="3">
         <v>7872</v>
       </c>
-      <c r="CE31" s="3">
+      <c r="CI31" s="3">
         <v>12466</v>
       </c>
-      <c r="CF31" s="3">
+      <c r="CJ31" s="3">
         <v>17928</v>
       </c>
-      <c r="CG31" s="3">
+      <c r="CK31" s="3">
         <v>27638</v>
       </c>
-      <c r="CH31" s="3">
+      <c r="CL31" s="3">
         <v>40653</v>
       </c>
-      <c r="CI31" s="3">
+      <c r="CM31" s="3">
         <v>55013</v>
       </c>
-      <c r="CJ31" s="3">
+      <c r="CN31" s="3">
         <v>69655</v>
       </c>
-      <c r="CK31" s="3">
+      <c r="CO31" s="3">
         <v>84169</v>
       </c>
-      <c r="CL31" s="3">
+      <c r="CP31" s="3">
         <v>114934</v>
       </c>
-      <c r="CM31" s="3">
+      <c r="CQ31" s="3">
         <f>SUM(BC31:BF31)</f>
         <v>113641</v>
       </c>
-      <c r="CN31" s="3">
+      <c r="CR31" s="3">
         <f>SUM(BG31:BJ31)</f>
         <v>131948</v>
       </c>
-      <c r="CO31" s="3">
+      <c r="CS31" s="3">
         <f>SUM(BK31:BN31)</f>
         <v>160632</v>
       </c>
     </row>
-    <row r="32" spans="2:99" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:103" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
@@ -5252,123 +5301,127 @@
         <v>47516</v>
       </c>
       <c r="BQ32" s="8">
-        <v>47000</v>
+        <v>51242</v>
       </c>
       <c r="BR32" s="8">
         <f>+BN32*1.12</f>
         <v>54191.200000000004</v>
       </c>
       <c r="BS32" s="8"/>
-      <c r="BU32" s="7">
-        <f t="shared" ref="BU32:BW32" si="23">SUM(BU29:BU31)</f>
+      <c r="BT32" s="8"/>
+      <c r="BU32" s="8"/>
+      <c r="BV32" s="8"/>
+      <c r="BW32" s="8"/>
+      <c r="BY32" s="7">
+        <f t="shared" ref="BY32:CA32" si="23">SUM(BY29:BY31)</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="BV32" s="7">
+      <c r="BZ32" s="7">
         <f t="shared" si="23"/>
         <v>9</v>
       </c>
-      <c r="BW32" s="7">
+      <c r="CA32" s="7">
         <f t="shared" si="23"/>
         <v>48</v>
       </c>
-      <c r="BX32" s="7">
-        <f t="shared" ref="BX32:CB32" si="24">SUM(BX29:BX31)</f>
+      <c r="CB32" s="7">
+        <f t="shared" ref="CB32:CF32" si="24">SUM(CB29:CB31)</f>
         <v>153</v>
       </c>
-      <c r="BY32" s="7">
+      <c r="CC32" s="7">
         <f t="shared" si="24"/>
         <v>272</v>
       </c>
-      <c r="BZ32" s="7">
+      <c r="CD32" s="7">
         <f t="shared" si="24"/>
         <v>777</v>
       </c>
-      <c r="CA32" s="7">
+      <c r="CE32" s="7">
         <f t="shared" si="24"/>
         <v>1974</v>
       </c>
-      <c r="CB32" s="7">
+      <c r="CF32" s="7">
         <f t="shared" si="24"/>
         <v>3711</v>
       </c>
-      <c r="CC32" s="7">
-        <f>SUM(CC29:CC31)</f>
+      <c r="CG32" s="7">
+        <f>SUM(CG29:CG31)</f>
         <v>5089</v>
       </c>
-      <c r="CD32" s="7">
-        <f t="shared" ref="CD32:CI32" si="25">SUM(CD29:CD31)</f>
+      <c r="CH32" s="7">
+        <f t="shared" ref="CH32:CM32" si="25">SUM(CH29:CH31)</f>
         <v>7872</v>
       </c>
-      <c r="CE32" s="7">
+      <c r="CI32" s="7">
         <f t="shared" si="25"/>
         <v>12466</v>
       </c>
-      <c r="CF32" s="7">
+      <c r="CJ32" s="7">
         <f t="shared" si="25"/>
         <v>17928</v>
       </c>
-      <c r="CG32" s="7">
+      <c r="CK32" s="7">
         <f t="shared" si="25"/>
         <v>27638</v>
       </c>
-      <c r="CH32" s="7">
+      <c r="CL32" s="7">
         <f t="shared" si="25"/>
         <v>40653</v>
       </c>
-      <c r="CI32" s="7">
+      <c r="CM32" s="7">
         <f t="shared" si="25"/>
         <v>55838</v>
       </c>
-      <c r="CJ32" s="7">
-        <f>SUM(CJ29:CJ31)</f>
+      <c r="CN32" s="7">
+        <f>SUM(CN29:CN31)</f>
         <v>70697</v>
       </c>
-      <c r="CK32" s="7">
-        <f t="shared" ref="CK32:CL32" si="26">SUM(CK29:CK31)</f>
+      <c r="CO32" s="7">
+        <f t="shared" ref="CO32:CP32" si="26">SUM(CO29:CO31)</f>
         <v>85965</v>
       </c>
-      <c r="CL32" s="7">
+      <c r="CP32" s="7">
         <f t="shared" si="26"/>
         <v>117929</v>
       </c>
-      <c r="CM32" s="7">
+      <c r="CQ32" s="7">
         <f>SUM(BC32:BF32)</f>
         <v>116609</v>
       </c>
-      <c r="CN32" s="7">
+      <c r="CR32" s="7">
         <f>SUM(BG32:BJ32)</f>
         <v>134901</v>
       </c>
-      <c r="CO32" s="7">
+      <c r="CS32" s="7">
         <f>SUM(BK32:BN32)</f>
         <v>164500</v>
       </c>
-      <c r="CP32" s="7">
+      <c r="CT32" s="7">
         <f>SUM(BO32:BR32)</f>
-        <v>191021.2</v>
-      </c>
-      <c r="CQ32" s="7">
-        <f>+CP32*1.1</f>
-        <v>210123.32000000004</v>
-      </c>
-      <c r="CR32" s="7">
-        <f>+CQ32*1.08</f>
-        <v>226933.18560000006</v>
-      </c>
-      <c r="CS32" s="7">
-        <f>+CR32*1.08</f>
-        <v>245087.84044800009</v>
-      </c>
-      <c r="CT32" s="7">
-        <f>+CS32*1.05</f>
-        <v>257342.23247040011</v>
+        <v>195263.2</v>
       </c>
       <c r="CU32" s="7">
-        <f>+CT32*1.05</f>
-        <v>270209.34409392014</v>
-      </c>
-    </row>
-    <row r="33" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>+CT32*1.1</f>
+        <v>214789.52000000002</v>
+      </c>
+      <c r="CV32" s="7">
+        <f>+CU32*1.08</f>
+        <v>231972.68160000004</v>
+      </c>
+      <c r="CW32" s="7">
+        <f>+CV32*1.08</f>
+        <v>250530.49612800006</v>
+      </c>
+      <c r="CX32" s="7">
+        <f>+CW32*1.05</f>
+        <v>263057.02093440009</v>
+      </c>
+      <c r="CY32" s="7">
+        <f>+CX32*1.05</f>
+        <v>276209.87198112009</v>
+      </c>
+    </row>
+    <row r="33" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -5524,97 +5577,100 @@
         <v>8491</v>
       </c>
       <c r="BQ33" s="6">
-        <f>+BQ32-BQ34</f>
-        <v>7990</v>
+        <v>9206</v>
       </c>
       <c r="BR33" s="6">
         <f>+BR32-BR34</f>
         <v>9212.5040000000008</v>
       </c>
       <c r="BS33" s="6"/>
-      <c r="BX33" s="3">
+      <c r="BT33" s="6"/>
+      <c r="BU33" s="6"/>
+      <c r="BV33" s="6"/>
+      <c r="BW33" s="6"/>
+      <c r="CB33" s="3">
         <v>41</v>
       </c>
-      <c r="BY33" s="3">
+      <c r="CC33" s="3">
         <v>124</v>
       </c>
-      <c r="BZ33" s="3">
+      <c r="CD33" s="3">
         <v>223</v>
       </c>
-      <c r="CA33" s="3">
+      <c r="CE33" s="3">
         <v>493</v>
       </c>
-      <c r="CB33" s="3">
+      <c r="CF33" s="3">
         <v>860</v>
       </c>
-      <c r="CC33" s="3">
+      <c r="CG33" s="3">
         <v>1364</v>
       </c>
-      <c r="CD33" s="3">
+      <c r="CH33" s="3">
         <v>1875</v>
       </c>
-      <c r="CE33" s="3">
+      <c r="CI33" s="3">
         <v>2153</v>
       </c>
-      <c r="CF33" s="3">
+      <c r="CJ33" s="3">
         <v>2867</v>
       </c>
-      <c r="CG33" s="3">
+      <c r="CK33" s="3">
         <v>3789</v>
       </c>
-      <c r="CH33" s="3">
+      <c r="CL33" s="3">
         <v>5454</v>
       </c>
-      <c r="CI33" s="3">
+      <c r="CM33" s="3">
         <v>9355</v>
       </c>
-      <c r="CJ33" s="3">
+      <c r="CN33" s="3">
         <v>12770</v>
       </c>
-      <c r="CK33" s="3">
+      <c r="CO33" s="3">
         <v>16692</v>
       </c>
-      <c r="CL33" s="3">
+      <c r="CP33" s="3">
         <v>22649</v>
       </c>
-      <c r="CM33" s="3">
-        <f>+CM32-CM34</f>
+      <c r="CQ33" s="3">
+        <f>+CQ32-CQ34</f>
         <v>22155.709999999992</v>
       </c>
-      <c r="CN33" s="3">
-        <f t="shared" ref="CN33:CU33" si="27">+CN32-CN34</f>
+      <c r="CR33" s="3">
+        <f t="shared" ref="CR33:CY33" si="27">+CR32-CR34</f>
         <v>25631.189999999988</v>
       </c>
-      <c r="CO33" s="3">
+      <c r="CS33" s="3">
         <f t="shared" si="27"/>
         <v>31255</v>
       </c>
-      <c r="CP33" s="3">
-        <f t="shared" si="27"/>
-        <v>36294.027999999991</v>
-      </c>
-      <c r="CQ33" s="3">
-        <f t="shared" si="27"/>
-        <v>39923.430800000002</v>
-      </c>
-      <c r="CR33" s="3">
-        <f t="shared" si="27"/>
-        <v>43117.305263999995</v>
-      </c>
-      <c r="CS33" s="3">
-        <f t="shared" si="27"/>
-        <v>46566.689685120014</v>
-      </c>
       <c r="CT33" s="3">
         <f t="shared" si="27"/>
-        <v>48895.024169376004</v>
+        <v>37100.008000000002</v>
       </c>
       <c r="CU33" s="3">
         <f t="shared" si="27"/>
-        <v>51339.77537784481</v>
-      </c>
-    </row>
-    <row r="34" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40810.008799999981</v>
+      </c>
+      <c r="CV33" s="3">
+        <f t="shared" si="27"/>
+        <v>44074.809504000004</v>
+      </c>
+      <c r="CW33" s="3">
+        <f t="shared" si="27"/>
+        <v>47600.794264319993</v>
+      </c>
+      <c r="CX33" s="3">
+        <f t="shared" si="27"/>
+        <v>49980.833977536007</v>
+      </c>
+      <c r="CY33" s="3">
+        <f t="shared" si="27"/>
+        <v>52479.875676412805</v>
+      </c>
+    </row>
+    <row r="34" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -5811,112 +5867,116 @@
         <v>39025</v>
       </c>
       <c r="BQ34" s="6">
-        <f>+BQ32*0.83</f>
-        <v>39010</v>
+        <f>+BQ32-BQ33</f>
+        <v>42036</v>
       </c>
       <c r="BR34" s="6">
         <f>+BR32*0.83</f>
         <v>44978.696000000004</v>
       </c>
       <c r="BS34" s="6"/>
-      <c r="BX34" s="3">
-        <f t="shared" ref="BX34:CC34" si="37">+BX32-BX33</f>
+      <c r="BT34" s="6"/>
+      <c r="BU34" s="6"/>
+      <c r="BV34" s="6"/>
+      <c r="BW34" s="6"/>
+      <c r="CB34" s="3">
+        <f t="shared" ref="CB34:CG34" si="37">+CB32-CB33</f>
         <v>112</v>
       </c>
-      <c r="BY34" s="3">
+      <c r="CC34" s="3">
         <f t="shared" si="37"/>
         <v>148</v>
       </c>
-      <c r="BZ34" s="3">
+      <c r="CD34" s="3">
         <f t="shared" si="37"/>
         <v>554</v>
       </c>
-      <c r="CA34" s="3">
+      <c r="CE34" s="3">
         <f t="shared" si="37"/>
         <v>1481</v>
       </c>
-      <c r="CB34" s="3">
+      <c r="CF34" s="3">
         <f t="shared" si="37"/>
         <v>2851</v>
       </c>
-      <c r="CC34" s="3">
+      <c r="CG34" s="3">
         <f t="shared" si="37"/>
         <v>3725</v>
       </c>
-      <c r="CD34" s="3">
-        <f t="shared" ref="CD34:CK34" si="38">+CD32-CD33</f>
+      <c r="CH34" s="3">
+        <f t="shared" ref="CH34:CO34" si="38">+CH32-CH33</f>
         <v>5997</v>
       </c>
-      <c r="CE34" s="3">
+      <c r="CI34" s="3">
         <f t="shared" si="38"/>
         <v>10313</v>
       </c>
-      <c r="CF34" s="3">
+      <c r="CJ34" s="3">
         <f t="shared" si="38"/>
         <v>15061</v>
       </c>
-      <c r="CG34" s="3">
+      <c r="CK34" s="3">
         <f t="shared" si="38"/>
         <v>23849</v>
       </c>
-      <c r="CH34" s="3">
+      <c r="CL34" s="3">
         <f t="shared" si="38"/>
         <v>35199</v>
       </c>
-      <c r="CI34" s="3">
+      <c r="CM34" s="3">
         <f t="shared" si="38"/>
         <v>46483</v>
       </c>
-      <c r="CJ34" s="3">
+      <c r="CN34" s="3">
         <f t="shared" si="38"/>
         <v>57927</v>
       </c>
-      <c r="CK34" s="3">
+      <c r="CO34" s="3">
         <f t="shared" si="38"/>
         <v>69273</v>
       </c>
-      <c r="CL34" s="3">
-        <f t="shared" ref="CL34" si="39">+CL32-CL33</f>
+      <c r="CP34" s="3">
+        <f t="shared" ref="CP34" si="39">+CP32-CP33</f>
         <v>95280</v>
       </c>
-      <c r="CM34" s="3">
-        <f>+CM32*0.81</f>
+      <c r="CQ34" s="3">
+        <f>+CQ32*0.81</f>
         <v>94453.290000000008</v>
       </c>
-      <c r="CN34" s="3">
-        <f t="shared" ref="CN34:CU34" si="40">+CN32*0.81</f>
+      <c r="CR34" s="3">
+        <f t="shared" ref="CR34:CY34" si="40">+CR32*0.81</f>
         <v>109269.81000000001</v>
       </c>
-      <c r="CO34" s="3">
+      <c r="CS34" s="3">
         <f t="shared" si="40"/>
         <v>133245</v>
       </c>
-      <c r="CP34" s="3">
-        <f t="shared" si="40"/>
-        <v>154727.17200000002</v>
-      </c>
-      <c r="CQ34" s="3">
-        <f t="shared" si="40"/>
-        <v>170199.88920000003</v>
-      </c>
-      <c r="CR34" s="3">
-        <f t="shared" si="40"/>
-        <v>183815.88033600006</v>
-      </c>
-      <c r="CS34" s="3">
-        <f t="shared" si="40"/>
-        <v>198521.15076288008</v>
-      </c>
       <c r="CT34" s="3">
         <f t="shared" si="40"/>
-        <v>208447.2083010241</v>
+        <v>158163.19200000001</v>
       </c>
       <c r="CU34" s="3">
         <f t="shared" si="40"/>
-        <v>218869.56871607533</v>
-      </c>
-    </row>
-    <row r="35" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173979.51120000004</v>
+      </c>
+      <c r="CV34" s="3">
+        <f t="shared" si="40"/>
+        <v>187897.87209600004</v>
+      </c>
+      <c r="CW34" s="3">
+        <f t="shared" si="40"/>
+        <v>202929.70186368006</v>
+      </c>
+      <c r="CX34" s="3">
+        <f t="shared" si="40"/>
+        <v>213076.18695686408</v>
+      </c>
+      <c r="CY34" s="3">
+        <f t="shared" si="40"/>
+        <v>223729.99630470728</v>
+      </c>
+    </row>
+    <row r="35" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -6072,97 +6132,100 @@
         <v>12942</v>
       </c>
       <c r="BQ35" s="6">
-        <f t="shared" ref="BQ35:BR36" si="41">+BM35</f>
-        <v>11177</v>
+        <v>15144</v>
       </c>
       <c r="BR35" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="BR35:BR36" si="41">+BN35</f>
         <v>12180</v>
       </c>
       <c r="BS35" s="6"/>
-      <c r="BX35" s="3">
+      <c r="BT35" s="6"/>
+      <c r="BU35" s="6"/>
+      <c r="BV35" s="6"/>
+      <c r="BW35" s="6"/>
+      <c r="CB35" s="3">
         <v>32</v>
       </c>
-      <c r="BY35" s="3">
+      <c r="CC35" s="3">
         <v>76</v>
       </c>
-      <c r="BZ35" s="3">
+      <c r="CD35" s="3">
         <v>115</v>
       </c>
-      <c r="CA35" s="3">
+      <c r="CE35" s="3">
         <v>144</v>
       </c>
-      <c r="CB35" s="3">
+      <c r="CF35" s="3">
         <v>388</v>
       </c>
-      <c r="CC35" s="3">
+      <c r="CG35" s="3">
         <v>1399</v>
       </c>
-      <c r="CD35" s="3">
+      <c r="CH35" s="3">
         <v>1415</v>
       </c>
-      <c r="CE35" s="3">
+      <c r="CI35" s="3">
         <v>2666</v>
       </c>
-      <c r="CF35" s="3">
+      <c r="CJ35" s="3">
         <v>4816</v>
       </c>
-      <c r="CG35" s="3">
+      <c r="CK35" s="3">
         <v>5919</v>
       </c>
-      <c r="CH35" s="3">
+      <c r="CL35" s="3">
         <v>7754</v>
       </c>
-      <c r="CI35" s="3">
+      <c r="CM35" s="3">
         <v>10273</v>
       </c>
-      <c r="CJ35" s="3">
+      <c r="CN35" s="3">
         <v>13600</v>
       </c>
-      <c r="CK35" s="3">
+      <c r="CO35" s="3">
         <v>18447</v>
       </c>
-      <c r="CL35" s="3">
+      <c r="CP35" s="3">
         <v>24655</v>
       </c>
-      <c r="CM35" s="3">
-        <f t="shared" ref="CM35:CR35" si="42">+CL35*0.9</f>
+      <c r="CQ35" s="3">
+        <f t="shared" ref="CQ35:CV35" si="42">+CP35*0.9</f>
         <v>22189.5</v>
       </c>
-      <c r="CN35" s="3">
+      <c r="CR35" s="3">
         <f t="shared" si="42"/>
         <v>19970.55</v>
       </c>
-      <c r="CO35" s="3">
+      <c r="CS35" s="3">
         <f t="shared" si="42"/>
         <v>17973.494999999999</v>
       </c>
-      <c r="CP35" s="3">
+      <c r="CT35" s="3">
         <f t="shared" si="42"/>
         <v>16176.145499999999</v>
       </c>
-      <c r="CQ35" s="3">
+      <c r="CU35" s="3">
         <f t="shared" si="42"/>
         <v>14558.530949999998</v>
       </c>
-      <c r="CR35" s="3">
+      <c r="CV35" s="3">
         <f t="shared" si="42"/>
         <v>13102.677854999998</v>
       </c>
-      <c r="CS35" s="3">
-        <f t="shared" ref="CS35:CU35" si="43">+CR35*0.9</f>
+      <c r="CW35" s="3">
+        <f t="shared" ref="CW35:CY35" si="43">+CV35*0.9</f>
         <v>11792.410069499998</v>
       </c>
-      <c r="CT35" s="3">
+      <c r="CX35" s="3">
         <f t="shared" si="43"/>
         <v>10613.169062549998</v>
       </c>
-      <c r="CU35" s="3">
+      <c r="CY35" s="3">
         <f t="shared" si="43"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -6318,81 +6381,68 @@
         <v>2979</v>
       </c>
       <c r="BQ36" s="6">
-        <f t="shared" si="41"/>
-        <v>2822</v>
+        <v>2845</v>
       </c>
       <c r="BR36" s="6">
         <f t="shared" si="41"/>
         <v>3240</v>
       </c>
       <c r="BS36" s="6"/>
-      <c r="BX36" s="3">
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="6"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="CB36" s="3">
         <v>81</v>
       </c>
-      <c r="BY36" s="3">
+      <c r="CC36" s="3">
         <v>47</v>
       </c>
-      <c r="BZ36" s="3">
+      <c r="CD36" s="3">
         <v>87</v>
       </c>
-      <c r="CA36" s="3">
+      <c r="CE36" s="3">
         <v>167</v>
       </c>
-      <c r="CB36" s="3">
+      <c r="CF36" s="3">
         <v>393</v>
       </c>
-      <c r="CC36" s="3">
+      <c r="CG36" s="3">
         <v>896</v>
       </c>
-      <c r="CD36" s="3">
+      <c r="CH36" s="3">
         <v>997</v>
       </c>
-      <c r="CE36" s="3">
+      <c r="CI36" s="3">
         <v>1680</v>
       </c>
-      <c r="CF36" s="3">
+      <c r="CJ36" s="3">
         <v>2725</v>
       </c>
-      <c r="CG36" s="3">
+      <c r="CK36" s="3">
         <v>3772</v>
       </c>
-      <c r="CH36" s="3">
+      <c r="CL36" s="3">
         <v>4725</v>
       </c>
-      <c r="CI36" s="3">
+      <c r="CM36" s="3">
         <v>7846</v>
       </c>
-      <c r="CJ36" s="3">
+      <c r="CN36" s="3">
         <v>9876</v>
       </c>
-      <c r="CK36" s="3">
+      <c r="CO36" s="3">
         <v>11591</v>
       </c>
-      <c r="CL36" s="3">
+      <c r="CP36" s="3">
         <v>14043</v>
       </c>
-      <c r="CM36" s="3">
-        <f>+CL36</f>
+      <c r="CQ36" s="3">
+        <f>+CP36</f>
         <v>14043</v>
       </c>
-      <c r="CN36" s="3">
-        <f t="shared" ref="CN36:CU36" si="45">+CM36</f>
-        <v>14043</v>
-      </c>
-      <c r="CO36" s="3">
-        <f t="shared" si="45"/>
-        <v>14043</v>
-      </c>
-      <c r="CP36" s="3">
-        <f t="shared" si="45"/>
-        <v>14043</v>
-      </c>
-      <c r="CQ36" s="3">
-        <f t="shared" si="45"/>
-        <v>14043</v>
-      </c>
       <c r="CR36" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="CR36:CY36" si="45">+CQ36</f>
         <v>14043</v>
       </c>
       <c r="CS36" s="3">
@@ -6407,8 +6457,24 @@
         <f t="shared" si="45"/>
         <v>14043</v>
       </c>
-    </row>
-    <row r="37" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CV36" s="3">
+        <f t="shared" si="45"/>
+        <v>14043</v>
+      </c>
+      <c r="CW36" s="3">
+        <f t="shared" si="45"/>
+        <v>14043</v>
+      </c>
+      <c r="CX36" s="3">
+        <f t="shared" si="45"/>
+        <v>14043</v>
+      </c>
+      <c r="CY36" s="3">
+        <f t="shared" si="45"/>
+        <v>14043</v>
+      </c>
+    </row>
+    <row r="37" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -6567,78 +6633,65 @@
         <v>2663</v>
       </c>
       <c r="BQ37" s="6">
-        <f>+BM37</f>
-        <v>1865</v>
+        <v>3512</v>
       </c>
       <c r="BR37" s="6">
         <f>+BQ37</f>
-        <v>1865</v>
+        <v>3512</v>
       </c>
       <c r="BS37" s="6"/>
-      <c r="BX37" s="3">
+      <c r="BT37" s="6"/>
+      <c r="BU37" s="6"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="6"/>
+      <c r="CB37" s="3">
         <v>123</v>
       </c>
-      <c r="BY37" s="3">
+      <c r="CC37" s="3">
         <v>80</v>
       </c>
-      <c r="BZ37" s="3">
+      <c r="CD37" s="3">
         <v>90</v>
       </c>
-      <c r="CA37" s="3">
+      <c r="CE37" s="3">
         <v>138</v>
       </c>
-      <c r="CB37" s="3">
+      <c r="CF37" s="3">
         <v>314</v>
       </c>
-      <c r="CC37" s="3">
+      <c r="CG37" s="3">
         <v>892</v>
       </c>
-      <c r="CD37" s="3">
+      <c r="CH37" s="3">
         <v>781</v>
       </c>
-      <c r="CE37" s="3">
+      <c r="CI37" s="3">
         <v>973</v>
       </c>
-      <c r="CF37" s="3">
+      <c r="CJ37" s="3">
         <v>1295</v>
       </c>
-      <c r="CG37" s="3">
+      <c r="CK37" s="3">
         <v>1731</v>
       </c>
-      <c r="CH37" s="3">
+      <c r="CL37" s="3">
         <v>2517</v>
       </c>
-      <c r="CI37" s="3">
+      <c r="CM37" s="3">
         <v>3451</v>
       </c>
-      <c r="CJ37" s="3">
+      <c r="CN37" s="3">
         <f>10465-5000</f>
         <v>5465</v>
       </c>
-      <c r="CK37" s="3">
+      <c r="CO37" s="3">
         <v>6564</v>
       </c>
-      <c r="CL37" s="3">
+      <c r="CP37" s="3">
         <v>9829</v>
       </c>
-      <c r="CM37" s="3">
-        <f t="shared" ref="CM37:CU37" si="46">+CL37</f>
-        <v>9829</v>
-      </c>
-      <c r="CN37" s="3">
-        <f t="shared" si="46"/>
-        <v>9829</v>
-      </c>
-      <c r="CO37" s="3">
-        <f t="shared" si="46"/>
-        <v>9829</v>
-      </c>
-      <c r="CP37" s="3">
-        <f t="shared" si="46"/>
-        <v>9829</v>
-      </c>
       <c r="CQ37" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="CQ37:CY37" si="46">+CP37</f>
         <v>9829</v>
       </c>
       <c r="CR37" s="3">
@@ -6657,8 +6710,24 @@
         <f t="shared" si="46"/>
         <v>9829</v>
       </c>
-    </row>
-    <row r="38" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CV37" s="3">
+        <f t="shared" si="46"/>
+        <v>9829</v>
+      </c>
+      <c r="CW37" s="3">
+        <f t="shared" si="46"/>
+        <v>9829</v>
+      </c>
+      <c r="CX37" s="3">
+        <f t="shared" si="46"/>
+        <v>9829</v>
+      </c>
+      <c r="CY37" s="3">
+        <f t="shared" si="46"/>
+        <v>9829</v>
+      </c>
+    </row>
+    <row r="38" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6856,111 +6925,115 @@
       </c>
       <c r="BQ38" s="6">
         <f t="shared" si="61"/>
-        <v>15864</v>
+        <v>21501</v>
       </c>
       <c r="BR38" s="6">
         <f t="shared" si="61"/>
-        <v>17285</v>
+        <v>18932</v>
       </c>
       <c r="BS38" s="6"/>
-      <c r="BX38" s="6">
-        <f t="shared" ref="BX38:BY38" si="62">+BX37+BX36+BX35</f>
+      <c r="BT38" s="6"/>
+      <c r="BU38" s="6"/>
+      <c r="BV38" s="6"/>
+      <c r="BW38" s="6"/>
+      <c r="CB38" s="6">
+        <f t="shared" ref="CB38:CC38" si="62">+CB37+CB36+CB35</f>
         <v>236</v>
       </c>
-      <c r="BY38" s="6">
+      <c r="CC38" s="6">
         <f t="shared" si="62"/>
         <v>203</v>
       </c>
-      <c r="BZ38" s="6">
-        <f t="shared" ref="BZ38:CA38" si="63">+BZ37+BZ36+BZ35</f>
+      <c r="CD38" s="6">
+        <f t="shared" ref="CD38:CE38" si="63">+CD37+CD36+CD35</f>
         <v>292</v>
       </c>
-      <c r="CA38" s="6">
+      <c r="CE38" s="6">
         <f t="shared" si="63"/>
         <v>449</v>
       </c>
-      <c r="CB38" s="6">
-        <f t="shared" ref="CB38:CC38" si="64">+CB37+CB36+CB35</f>
+      <c r="CF38" s="6">
+        <f t="shared" ref="CF38:CG38" si="64">+CF37+CF36+CF35</f>
         <v>1095</v>
       </c>
-      <c r="CC38" s="6">
+      <c r="CG38" s="6">
         <f t="shared" si="64"/>
         <v>3187</v>
       </c>
-      <c r="CD38" s="6">
-        <f t="shared" ref="CD38:CH38" si="65">+CD37+CD36+CD35</f>
+      <c r="CH38" s="6">
+        <f t="shared" ref="CH38:CL38" si="65">+CH37+CH36+CH35</f>
         <v>3193</v>
       </c>
-      <c r="CE38" s="6">
+      <c r="CI38" s="6">
         <f t="shared" si="65"/>
         <v>5319</v>
       </c>
-      <c r="CF38" s="6">
+      <c r="CJ38" s="6">
         <f t="shared" si="65"/>
         <v>8836</v>
       </c>
-      <c r="CG38" s="6">
+      <c r="CK38" s="6">
         <f t="shared" si="65"/>
         <v>11422</v>
       </c>
-      <c r="CH38" s="6">
+      <c r="CL38" s="6">
         <f t="shared" si="65"/>
         <v>14996</v>
       </c>
-      <c r="CI38" s="3">
-        <f>SUM(CI35:CI37)</f>
+      <c r="CM38" s="3">
+        <f>SUM(CM35:CM37)</f>
         <v>21570</v>
       </c>
-      <c r="CJ38" s="3">
-        <f>SUM(CJ35:CJ37)</f>
+      <c r="CN38" s="3">
+        <f>SUM(CN35:CN37)</f>
         <v>28941</v>
       </c>
-      <c r="CK38" s="3">
-        <f>SUM(CK35:CK37)</f>
+      <c r="CO38" s="3">
+        <f>SUM(CO35:CO37)</f>
         <v>36602</v>
       </c>
-      <c r="CL38" s="3">
-        <f t="shared" ref="CL38" si="66">SUM(CL35:CL37)</f>
+      <c r="CP38" s="3">
+        <f t="shared" ref="CP38" si="66">SUM(CP35:CP37)</f>
         <v>48527</v>
       </c>
-      <c r="CM38" s="3">
-        <f t="shared" ref="CM38" si="67">SUM(CM35:CM37)</f>
+      <c r="CQ38" s="3">
+        <f t="shared" ref="CQ38" si="67">SUM(CQ35:CQ37)</f>
         <v>46061.5</v>
       </c>
-      <c r="CN38" s="3">
-        <f t="shared" ref="CN38" si="68">SUM(CN35:CN37)</f>
+      <c r="CR38" s="3">
+        <f t="shared" ref="CR38" si="68">SUM(CR35:CR37)</f>
         <v>43842.55</v>
       </c>
-      <c r="CO38" s="3">
-        <f t="shared" ref="CO38" si="69">SUM(CO35:CO37)</f>
+      <c r="CS38" s="3">
+        <f t="shared" ref="CS38" si="69">SUM(CS35:CS37)</f>
         <v>41845.494999999995</v>
       </c>
-      <c r="CP38" s="3">
-        <f t="shared" ref="CP38" si="70">SUM(CP35:CP37)</f>
+      <c r="CT38" s="3">
+        <f t="shared" ref="CT38" si="70">SUM(CT35:CT37)</f>
         <v>40048.145499999999</v>
       </c>
-      <c r="CQ38" s="3">
-        <f t="shared" ref="CQ38" si="71">SUM(CQ35:CQ37)</f>
+      <c r="CU38" s="3">
+        <f t="shared" ref="CU38" si="71">SUM(CU35:CU37)</f>
         <v>38430.53095</v>
       </c>
-      <c r="CR38" s="3">
-        <f t="shared" ref="CR38" si="72">SUM(CR35:CR37)</f>
+      <c r="CV38" s="3">
+        <f t="shared" ref="CV38" si="72">SUM(CV35:CV37)</f>
         <v>36974.677855000002</v>
       </c>
-      <c r="CS38" s="3">
-        <f t="shared" ref="CS38" si="73">SUM(CS35:CS37)</f>
+      <c r="CW38" s="3">
+        <f t="shared" ref="CW38" si="73">SUM(CW35:CW37)</f>
         <v>35664.410069499994</v>
       </c>
-      <c r="CT38" s="3">
-        <f t="shared" ref="CT38" si="74">SUM(CT35:CT37)</f>
+      <c r="CX38" s="3">
+        <f t="shared" ref="CX38" si="74">SUM(CX35:CX37)</f>
         <v>34485.169062549998</v>
       </c>
-      <c r="CU38" s="3">
-        <f t="shared" ref="CU38" si="75">SUM(CU35:CU37)</f>
+      <c r="CY38" s="3">
+        <f t="shared" ref="CY38" si="75">SUM(CY35:CY37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -7158,111 +7231,115 @@
       </c>
       <c r="BQ39" s="6">
         <f t="shared" si="90"/>
-        <v>23146</v>
+        <v>20535</v>
       </c>
       <c r="BR39" s="6">
         <f t="shared" si="90"/>
-        <v>27693.696000000004</v>
+        <v>26046.696000000004</v>
       </c>
       <c r="BS39" s="6"/>
-      <c r="BX39" s="6">
-        <f t="shared" ref="BX39:BY39" si="91">+BX34-BX38</f>
+      <c r="BT39" s="6"/>
+      <c r="BU39" s="6"/>
+      <c r="BV39" s="6"/>
+      <c r="BW39" s="6"/>
+      <c r="CB39" s="6">
+        <f t="shared" ref="CB39:CC39" si="91">+CB34-CB38</f>
         <v>-124</v>
       </c>
-      <c r="BY39" s="6">
+      <c r="CC39" s="6">
         <f t="shared" si="91"/>
         <v>-55</v>
       </c>
-      <c r="BZ39" s="6">
-        <f t="shared" ref="BZ39:CA39" si="92">+BZ34-BZ38</f>
+      <c r="CD39" s="6">
+        <f t="shared" ref="CD39:CE39" si="92">+CD34-CD38</f>
         <v>262</v>
       </c>
-      <c r="CA39" s="6">
+      <c r="CE39" s="6">
         <f t="shared" si="92"/>
         <v>1032</v>
       </c>
-      <c r="CB39" s="6">
-        <f t="shared" ref="CB39:CC39" si="93">+CB34-CB38</f>
+      <c r="CF39" s="6">
+        <f t="shared" ref="CF39:CG39" si="93">+CF34-CF38</f>
         <v>1756</v>
       </c>
-      <c r="CC39" s="6">
+      <c r="CG39" s="6">
         <f t="shared" si="93"/>
         <v>538</v>
       </c>
-      <c r="CD39" s="6">
-        <f t="shared" ref="CD39:CH39" si="94">+CD34-CD38</f>
+      <c r="CH39" s="6">
+        <f t="shared" ref="CH39:CL39" si="94">+CH34-CH38</f>
         <v>2804</v>
       </c>
-      <c r="CE39" s="6">
+      <c r="CI39" s="6">
         <f t="shared" si="94"/>
         <v>4994</v>
       </c>
-      <c r="CF39" s="6">
+      <c r="CJ39" s="6">
         <f t="shared" si="94"/>
         <v>6225</v>
       </c>
-      <c r="CG39" s="6">
+      <c r="CK39" s="6">
         <f t="shared" si="94"/>
         <v>12427</v>
       </c>
-      <c r="CH39" s="6">
+      <c r="CL39" s="6">
         <f t="shared" si="94"/>
         <v>20203</v>
       </c>
-      <c r="CI39" s="3">
-        <f>CI34-CI38</f>
+      <c r="CM39" s="3">
+        <f>CM34-CM38</f>
         <v>24913</v>
       </c>
-      <c r="CJ39" s="3">
-        <f>CJ34-CJ38</f>
+      <c r="CN39" s="3">
+        <f>CN34-CN38</f>
         <v>28986</v>
       </c>
-      <c r="CK39" s="3">
-        <f>CK34-CK38</f>
+      <c r="CO39" s="3">
+        <f>CO34-CO38</f>
         <v>32671</v>
       </c>
-      <c r="CL39" s="3">
-        <f t="shared" ref="CL39" si="95">CL34-CL38</f>
+      <c r="CP39" s="3">
+        <f t="shared" ref="CP39" si="95">CP34-CP38</f>
         <v>46753</v>
       </c>
-      <c r="CM39" s="3">
-        <f t="shared" ref="CM39" si="96">CM34-CM38</f>
+      <c r="CQ39" s="3">
+        <f t="shared" ref="CQ39" si="96">CQ34-CQ38</f>
         <v>48391.790000000008</v>
       </c>
-      <c r="CN39" s="3">
-        <f t="shared" ref="CN39" si="97">CN34-CN38</f>
+      <c r="CR39" s="3">
+        <f t="shared" ref="CR39" si="97">CR34-CR38</f>
         <v>65427.260000000009</v>
       </c>
-      <c r="CO39" s="3">
-        <f t="shared" ref="CO39" si="98">CO34-CO38</f>
+      <c r="CS39" s="3">
+        <f t="shared" ref="CS39" si="98">CS34-CS38</f>
         <v>91399.505000000005</v>
       </c>
-      <c r="CP39" s="3">
-        <f t="shared" ref="CP39" si="99">CP34-CP38</f>
-        <v>114679.02650000002</v>
-      </c>
-      <c r="CQ39" s="3">
-        <f t="shared" ref="CQ39" si="100">CQ34-CQ38</f>
-        <v>131769.35825000005</v>
-      </c>
-      <c r="CR39" s="3">
-        <f t="shared" ref="CR39" si="101">CR34-CR38</f>
-        <v>146841.20248100004</v>
-      </c>
-      <c r="CS39" s="3">
-        <f t="shared" ref="CS39" si="102">CS34-CS38</f>
-        <v>162856.74069338007</v>
-      </c>
       <c r="CT39" s="3">
-        <f t="shared" ref="CT39" si="103">CT34-CT38</f>
-        <v>173962.0392384741</v>
+        <f t="shared" ref="CT39" si="99">CT34-CT38</f>
+        <v>118115.04650000001</v>
       </c>
       <c r="CU39" s="3">
-        <f t="shared" ref="CU39" si="104">CU34-CU38</f>
-        <v>185445.71655978033</v>
-      </c>
-    </row>
-    <row r="40" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="CU39" si="100">CU34-CU38</f>
+        <v>135548.98025000002</v>
+      </c>
+      <c r="CV39" s="3">
+        <f t="shared" ref="CV39" si="101">CV34-CV38</f>
+        <v>150923.19424100005</v>
+      </c>
+      <c r="CW39" s="3">
+        <f t="shared" ref="CW39" si="102">CW34-CW38</f>
+        <v>167265.29179418006</v>
+      </c>
+      <c r="CX39" s="3">
+        <f t="shared" ref="CX39" si="103">CX34-CX38</f>
+        <v>178591.01789431408</v>
+      </c>
+      <c r="CY39" s="3">
+        <f t="shared" ref="CY39" si="104">CY34-CY38</f>
+        <v>190306.14414841228</v>
+      </c>
+    </row>
+    <row r="40" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -7394,87 +7471,90 @@
         <v>93</v>
       </c>
       <c r="BQ40" s="6">
-        <f>+BP40</f>
-        <v>93</v>
+        <v>1128</v>
       </c>
       <c r="BR40" s="6">
         <f>+BQ40</f>
-        <v>93</v>
+        <v>1128</v>
       </c>
       <c r="BS40" s="6"/>
-      <c r="CA40" s="3">
+      <c r="BT40" s="6"/>
+      <c r="BU40" s="6"/>
+      <c r="BV40" s="6"/>
+      <c r="BW40" s="6"/>
+      <c r="CE40" s="3">
         <f>-22-2</f>
         <v>-24</v>
       </c>
-      <c r="CB40" s="3">
+      <c r="CF40" s="3">
         <f>-42-19</f>
         <v>-61</v>
       </c>
-      <c r="CC40" s="3">
+      <c r="CG40" s="3">
         <f>-51+7</f>
         <v>-44</v>
       </c>
-      <c r="CD40" s="3">
+      <c r="CH40" s="3">
         <v>-50</v>
       </c>
-      <c r="CE40" s="3">
+      <c r="CI40" s="3">
         <v>-84</v>
       </c>
-      <c r="CF40" s="3">
+      <c r="CJ40" s="3">
         <v>-31</v>
       </c>
-      <c r="CG40" s="3">
+      <c r="CK40" s="3">
         <v>91</v>
       </c>
-      <c r="CH40" s="3">
+      <c r="CL40" s="3">
         <v>391</v>
       </c>
-      <c r="CI40" s="3">
+      <c r="CM40" s="3">
         <v>448</v>
       </c>
-      <c r="CJ40" s="3">
+      <c r="CN40" s="3">
         <v>826</v>
       </c>
-      <c r="CK40" s="3">
+      <c r="CO40" s="3">
         <v>509</v>
       </c>
-      <c r="CL40" s="3">
+      <c r="CP40" s="3">
         <v>531</v>
       </c>
-      <c r="CN40" s="3">
-        <f t="shared" ref="CN40:CU40" si="105">+CM59*$CZ$58</f>
+      <c r="CR40" s="3">
+        <f t="shared" ref="CR40:CY40" si="105">+CQ59*$DD$58</f>
         <v>938.78</v>
       </c>
-      <c r="CO40" s="3">
+      <c r="CS40" s="3">
         <f t="shared" si="105"/>
         <v>2027.1830560000003</v>
       </c>
-      <c r="CP40" s="3">
+      <c r="CT40" s="3">
         <f t="shared" si="105"/>
         <v>3559.3807401184004</v>
       </c>
-      <c r="CQ40" s="3">
-        <f t="shared" si="105"/>
-        <v>5498.4906188563418</v>
-      </c>
-      <c r="CR40" s="3">
-        <f t="shared" si="105"/>
-        <v>7749.6833403055871</v>
-      </c>
-      <c r="CS40" s="3">
-        <f t="shared" si="105"/>
-        <v>10284.973867774999</v>
-      </c>
-      <c r="CT40" s="3">
-        <f t="shared" si="105"/>
-        <v>13124.497986577942</v>
-      </c>
       <c r="CU40" s="3">
         <f t="shared" si="105"/>
-        <v>16192.717197068794</v>
-      </c>
-    </row>
-    <row r="41" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5554.8413468563422</v>
+      </c>
+      <c r="CV40" s="3">
+        <f t="shared" si="105"/>
+        <v>7868.9440210447856</v>
+      </c>
+      <c r="CW40" s="3">
+        <f t="shared" si="105"/>
+        <v>10473.13508854232</v>
+      </c>
+      <c r="CX40" s="3">
+        <f t="shared" si="105"/>
+        <v>13388.045289418968</v>
+      </c>
+      <c r="CY40" s="3">
+        <f t="shared" si="105"/>
+        <v>16536.50192563219</v>
+      </c>
+    </row>
+    <row r="41" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -7636,111 +7716,115 @@
       </c>
       <c r="BQ41" s="6">
         <f t="shared" si="112"/>
-        <v>23239</v>
+        <v>21663</v>
       </c>
       <c r="BR41" s="6">
         <f t="shared" si="112"/>
-        <v>27786.696000000004</v>
+        <v>27174.696000000004</v>
       </c>
       <c r="BS41" s="6"/>
-      <c r="BX41" s="3">
-        <f t="shared" ref="BX41" si="113">+BX39+BX40</f>
+      <c r="BT41" s="6"/>
+      <c r="BU41" s="6"/>
+      <c r="BV41" s="6"/>
+      <c r="BW41" s="6"/>
+      <c r="CB41" s="3">
+        <f t="shared" ref="CB41" si="113">+CB39+CB40</f>
         <v>-124</v>
       </c>
-      <c r="BY41" s="3">
-        <f t="shared" ref="BY41" si="114">+BY39+BY40</f>
+      <c r="CC41" s="3">
+        <f t="shared" ref="CC41" si="114">+CC39+CC40</f>
         <v>-55</v>
       </c>
-      <c r="BZ41" s="3">
-        <f t="shared" ref="BZ41" si="115">+BZ39+BZ40</f>
+      <c r="CD41" s="3">
+        <f t="shared" ref="CD41" si="115">+CD39+CD40</f>
         <v>262</v>
       </c>
-      <c r="CA41" s="3">
-        <f t="shared" ref="CA41:CK41" si="116">+CA39+CA40</f>
+      <c r="CE41" s="3">
+        <f t="shared" ref="CE41:CO41" si="116">+CE39+CE40</f>
         <v>1008</v>
       </c>
-      <c r="CB41" s="3">
+      <c r="CF41" s="3">
         <f t="shared" si="116"/>
         <v>1695</v>
       </c>
-      <c r="CC41" s="3">
+      <c r="CG41" s="3">
         <f t="shared" si="116"/>
         <v>494</v>
       </c>
-      <c r="CD41" s="3">
+      <c r="CH41" s="3">
         <f t="shared" si="116"/>
         <v>2754</v>
       </c>
-      <c r="CE41" s="3">
+      <c r="CI41" s="3">
         <f t="shared" si="116"/>
         <v>4910</v>
       </c>
-      <c r="CF41" s="3">
+      <c r="CJ41" s="3">
         <f t="shared" si="116"/>
         <v>6194</v>
       </c>
-      <c r="CG41" s="3">
+      <c r="CK41" s="3">
         <f t="shared" si="116"/>
         <v>12518</v>
       </c>
-      <c r="CH41" s="3">
+      <c r="CL41" s="3">
         <f t="shared" si="116"/>
         <v>20594</v>
       </c>
-      <c r="CI41" s="3">
+      <c r="CM41" s="3">
         <f t="shared" si="116"/>
         <v>25361</v>
       </c>
-      <c r="CJ41" s="3">
+      <c r="CN41" s="3">
         <f t="shared" si="116"/>
         <v>29812</v>
       </c>
-      <c r="CK41" s="3">
+      <c r="CO41" s="3">
         <f t="shared" si="116"/>
         <v>33180</v>
       </c>
-      <c r="CL41" s="3">
-        <f t="shared" ref="CL41" si="117">+CL39+CL40</f>
+      <c r="CP41" s="3">
+        <f t="shared" ref="CP41" si="117">+CP39+CP40</f>
         <v>47284</v>
       </c>
-      <c r="CM41" s="3">
-        <f t="shared" ref="CM41" si="118">+CM39+CM40</f>
+      <c r="CQ41" s="3">
+        <f t="shared" ref="CQ41" si="118">+CQ39+CQ40</f>
         <v>48391.790000000008</v>
       </c>
-      <c r="CN41" s="3">
-        <f t="shared" ref="CN41" si="119">+CN39+CN40</f>
+      <c r="CR41" s="3">
+        <f t="shared" ref="CR41" si="119">+CR39+CR40</f>
         <v>66366.040000000008</v>
       </c>
-      <c r="CO41" s="3">
-        <f t="shared" ref="CO41" si="120">+CO39+CO40</f>
+      <c r="CS41" s="3">
+        <f t="shared" ref="CS41" si="120">+CS39+CS40</f>
         <v>93426.688055999999</v>
       </c>
-      <c r="CP41" s="3">
-        <f t="shared" ref="CP41" si="121">+CP39+CP40</f>
-        <v>118238.40724011842</v>
-      </c>
-      <c r="CQ41" s="3">
-        <f t="shared" ref="CQ41" si="122">+CQ39+CQ40</f>
-        <v>137267.84886885638</v>
-      </c>
-      <c r="CR41" s="3">
-        <f t="shared" ref="CR41" si="123">+CR39+CR40</f>
-        <v>154590.88582130562</v>
-      </c>
-      <c r="CS41" s="3">
-        <f t="shared" ref="CS41" si="124">+CS39+CS40</f>
-        <v>173141.71456115507</v>
-      </c>
       <c r="CT41" s="3">
-        <f t="shared" ref="CT41" si="125">+CT39+CT40</f>
-        <v>187086.53722505204</v>
+        <f t="shared" ref="CT41" si="121">+CT39+CT40</f>
+        <v>121674.42724011841</v>
       </c>
       <c r="CU41" s="3">
-        <f t="shared" ref="CU41" si="126">+CU39+CU40</f>
-        <v>201638.43375684912</v>
-      </c>
-    </row>
-    <row r="42" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="CU41" si="122">+CU39+CU40</f>
+        <v>141103.82159685637</v>
+      </c>
+      <c r="CV41" s="3">
+        <f t="shared" ref="CV41" si="123">+CV39+CV40</f>
+        <v>158792.13826204484</v>
+      </c>
+      <c r="CW41" s="3">
+        <f t="shared" ref="CW41" si="124">+CW39+CW40</f>
+        <v>177738.42688272239</v>
+      </c>
+      <c r="CX41" s="3">
+        <f t="shared" ref="CX41" si="125">+CX39+CX40</f>
+        <v>191979.06318373306</v>
+      </c>
+      <c r="CY41" s="3">
+        <f t="shared" ref="CY41" si="126">+CY39+CY40</f>
+        <v>206842.64607404446</v>
+      </c>
+    </row>
+    <row r="42" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -7873,89 +7957,92 @@
         <v>2197</v>
       </c>
       <c r="BQ42" s="6">
-        <f>+BQ41*0.15</f>
-        <v>3485.85</v>
+        <v>0</v>
       </c>
       <c r="BR42" s="6">
         <f>+BR41*0.15</f>
-        <v>4168.0044000000007</v>
+        <v>4076.2044000000005</v>
       </c>
       <c r="BS42" s="6"/>
-      <c r="CA42" s="3">
+      <c r="BT42" s="6"/>
+      <c r="BU42" s="6"/>
+      <c r="BV42" s="6"/>
+      <c r="BW42" s="6"/>
+      <c r="CE42" s="3">
         <v>402</v>
       </c>
-      <c r="CB42" s="3">
+      <c r="CF42" s="3">
         <v>695</v>
       </c>
-      <c r="CC42" s="3">
+      <c r="CG42" s="3">
         <v>441</v>
       </c>
-      <c r="CD42" s="3">
+      <c r="CH42" s="3">
         <v>1254</v>
       </c>
-      <c r="CE42" s="3">
+      <c r="CI42" s="3">
         <v>1970</v>
       </c>
-      <c r="CF42" s="3">
+      <c r="CJ42" s="3">
         <v>2506</v>
       </c>
-      <c r="CG42" s="3">
+      <c r="CK42" s="3">
         <v>2301</v>
       </c>
-      <c r="CH42" s="3">
+      <c r="CL42" s="3">
         <v>4660</v>
       </c>
-      <c r="CI42" s="3">
+      <c r="CM42" s="3">
         <f>3249+1</f>
         <v>3250</v>
       </c>
-      <c r="CJ42" s="3">
+      <c r="CN42" s="3">
         <v>6327</v>
       </c>
-      <c r="CK42" s="3">
+      <c r="CO42" s="3">
         <v>4034</v>
       </c>
-      <c r="CL42" s="3">
+      <c r="CP42" s="3">
         <v>7914</v>
       </c>
-      <c r="CM42" s="3">
-        <f>+CM41*0.18</f>
+      <c r="CQ42" s="3">
+        <f>+CQ41*0.18</f>
         <v>8710.5222000000012</v>
       </c>
-      <c r="CN42" s="3">
-        <f t="shared" ref="CN42:CU42" si="128">+CN41*0.18</f>
+      <c r="CR42" s="3">
+        <f t="shared" ref="CR42:CY42" si="128">+CR41*0.18</f>
         <v>11945.887200000001</v>
       </c>
-      <c r="CO42" s="3">
+      <c r="CS42" s="3">
         <f t="shared" si="128"/>
         <v>16816.803850079999</v>
       </c>
-      <c r="CP42" s="3">
-        <f t="shared" si="128"/>
-        <v>21282.913303221314</v>
-      </c>
-      <c r="CQ42" s="3">
-        <f t="shared" si="128"/>
-        <v>24708.212796394149</v>
-      </c>
-      <c r="CR42" s="3">
-        <f t="shared" si="128"/>
-        <v>27826.35944783501</v>
-      </c>
-      <c r="CS42" s="3">
-        <f t="shared" si="128"/>
-        <v>31165.50862100791</v>
-      </c>
       <c r="CT42" s="3">
         <f t="shared" si="128"/>
-        <v>33675.576700509366</v>
+        <v>21901.396903221314</v>
       </c>
       <c r="CU42" s="3">
         <f t="shared" si="128"/>
-        <v>36294.91807623284</v>
-      </c>
-    </row>
-    <row r="43" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25398.687887434146</v>
+      </c>
+      <c r="CV42" s="3">
+        <f t="shared" si="128"/>
+        <v>28582.584887168072</v>
+      </c>
+      <c r="CW42" s="3">
+        <f t="shared" si="128"/>
+        <v>31992.916838890029</v>
+      </c>
+      <c r="CX42" s="3">
+        <f t="shared" si="128"/>
+        <v>34556.231373071947</v>
+      </c>
+      <c r="CY42" s="3">
+        <f t="shared" si="128"/>
+        <v>37231.676293328004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -8117,335 +8204,339 @@
       </c>
       <c r="BQ43" s="6">
         <f t="shared" si="136"/>
-        <v>19753.150000000001</v>
+        <v>21663</v>
       </c>
       <c r="BR43" s="6">
         <f t="shared" si="136"/>
-        <v>23618.691600000002</v>
+        <v>23098.491600000001</v>
       </c>
       <c r="BS43" s="6"/>
-      <c r="BX43" s="3">
-        <f t="shared" ref="BX43:BY43" si="138">+BX41-BX42</f>
+      <c r="BT43" s="6"/>
+      <c r="BU43" s="6"/>
+      <c r="BV43" s="6"/>
+      <c r="BW43" s="6"/>
+      <c r="CB43" s="3">
+        <f t="shared" ref="CB43:CC43" si="138">+CB41-CB42</f>
         <v>-124</v>
       </c>
-      <c r="BY43" s="3">
+      <c r="CC43" s="3">
         <f t="shared" si="138"/>
         <v>-55</v>
       </c>
-      <c r="BZ43" s="3">
-        <f t="shared" ref="BZ43:CK43" si="139">+BZ41-BZ42</f>
+      <c r="CD43" s="3">
+        <f t="shared" ref="CD43:CO43" si="139">+CD41-CD42</f>
         <v>262</v>
       </c>
-      <c r="CA43" s="3">
+      <c r="CE43" s="3">
         <f t="shared" si="139"/>
         <v>606</v>
       </c>
-      <c r="CB43" s="3">
+      <c r="CF43" s="3">
         <f t="shared" si="139"/>
         <v>1000</v>
       </c>
-      <c r="CC43" s="3">
+      <c r="CG43" s="3">
         <f t="shared" si="139"/>
         <v>53</v>
       </c>
-      <c r="CD43" s="3">
+      <c r="CH43" s="3">
         <f t="shared" si="139"/>
         <v>1500</v>
       </c>
-      <c r="CE43" s="3">
+      <c r="CI43" s="3">
         <f t="shared" si="139"/>
         <v>2940</v>
       </c>
-      <c r="CF43" s="3">
+      <c r="CJ43" s="3">
         <f t="shared" si="139"/>
         <v>3688</v>
       </c>
-      <c r="CG43" s="3">
+      <c r="CK43" s="3">
         <f t="shared" si="139"/>
         <v>10217</v>
       </c>
-      <c r="CH43" s="3">
+      <c r="CL43" s="3">
         <f t="shared" si="139"/>
         <v>15934</v>
       </c>
-      <c r="CI43" s="3">
+      <c r="CM43" s="3">
         <f t="shared" si="139"/>
         <v>22111</v>
       </c>
-      <c r="CJ43" s="3">
+      <c r="CN43" s="3">
         <f t="shared" si="139"/>
         <v>23485</v>
       </c>
-      <c r="CK43" s="3">
+      <c r="CO43" s="3">
         <f t="shared" si="139"/>
         <v>29146</v>
       </c>
-      <c r="CL43" s="3">
-        <f t="shared" ref="CL43" si="140">+CL41-CL42</f>
+      <c r="CP43" s="3">
+        <f t="shared" ref="CP43" si="140">+CP41-CP42</f>
         <v>39370</v>
       </c>
-      <c r="CM43" s="3">
-        <f t="shared" ref="CM43" si="141">+CM41-CM42</f>
+      <c r="CQ43" s="3">
+        <f t="shared" ref="CQ43" si="141">+CQ41-CQ42</f>
         <v>39681.267800000009</v>
       </c>
-      <c r="CN43" s="3">
-        <f t="shared" ref="CN43" si="142">+CN41-CN42</f>
+      <c r="CR43" s="3">
+        <f t="shared" ref="CR43" si="142">+CR41-CR42</f>
         <v>54420.152800000011</v>
       </c>
-      <c r="CO43" s="3">
-        <f t="shared" ref="CO43" si="143">+CO41-CO42</f>
+      <c r="CS43" s="3">
+        <f t="shared" ref="CS43" si="143">+CS41-CS42</f>
         <v>76609.884205919996</v>
       </c>
-      <c r="CP43" s="3">
-        <f t="shared" ref="CP43" si="144">+CP41-CP42</f>
-        <v>96955.49393689711</v>
-      </c>
-      <c r="CQ43" s="3">
-        <f t="shared" ref="CQ43" si="145">+CQ41-CQ42</f>
-        <v>112559.63607246224</v>
-      </c>
-      <c r="CR43" s="3">
-        <f t="shared" ref="CR43" si="146">+CR41-CR42</f>
-        <v>126764.52637347061</v>
-      </c>
-      <c r="CS43" s="3">
-        <f t="shared" ref="CS43" si="147">+CS41-CS42</f>
-        <v>141976.20594014716</v>
-      </c>
       <c r="CT43" s="3">
-        <f t="shared" ref="CT43" si="148">+CT41-CT42</f>
-        <v>153410.96052454266</v>
+        <f t="shared" ref="CT43" si="144">+CT41-CT42</f>
+        <v>99773.030336897093</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" ref="CU43" si="149">+CU41-CU42</f>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CU43" si="145">+CU41-CU42</f>
+        <v>115705.13370942223</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" ref="CV43:EA43" si="150">+CU43*(1+$CZ$57)</f>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CV43" si="146">+CV41-CV42</f>
+        <v>130209.55337487676</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CW43" si="147">+CW41-CW42</f>
+        <v>145745.51004383236</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CX43" si="148">+CX41-CX42</f>
+        <v>157422.83181066113</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CY43" si="149">+CY41-CY42</f>
+        <v>169610.96978071646</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="CZ43:EE43" si="150">+CY43*(1+$DD$57)</f>
+        <v>169610.96978071646</v>
       </c>
       <c r="DA43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DB43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DC43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DD43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DE43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DF43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DG43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DH43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DI43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DJ43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DK43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DL43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DM43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DN43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DO43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DP43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DQ43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DR43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DS43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DT43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DU43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DV43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DW43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DX43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DY43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="DZ43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EA43" s="3">
         <f t="shared" si="150"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EB43" s="3">
-        <f t="shared" ref="EB43:EY43" si="151">+EA43*(1+$CZ$57)</f>
-        <v>165343.51568061628</v>
+        <f t="shared" si="150"/>
+        <v>169610.96978071646</v>
       </c>
       <c r="EC43" s="3">
-        <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <f t="shared" si="150"/>
+        <v>169610.96978071646</v>
       </c>
       <c r="ED43" s="3">
-        <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <f t="shared" si="150"/>
+        <v>169610.96978071646</v>
       </c>
       <c r="EE43" s="3">
-        <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <f t="shared" si="150"/>
+        <v>169610.96978071646</v>
       </c>
       <c r="EF43" s="3">
-        <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <f t="shared" ref="EF43:FC43" si="151">+EE43*(1+$DD$57)</f>
+        <v>169610.96978071646</v>
       </c>
       <c r="EG43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EH43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EI43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EJ43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EK43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EL43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EM43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EN43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EO43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EP43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EQ43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="ER43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="ES43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="ET43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EU43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EV43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EW43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EX43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
+        <v>169610.96978071646</v>
       </c>
       <c r="EY43" s="3">
         <f t="shared" si="151"/>
-        <v>165343.51568061628</v>
-      </c>
-    </row>
-    <row r="44" spans="2:155" x14ac:dyDescent="0.25">
+        <v>169610.96978071646</v>
+      </c>
+      <c r="EZ43" s="3">
+        <f t="shared" si="151"/>
+        <v>169610.96978071646</v>
+      </c>
+      <c r="FA43" s="3">
+        <f t="shared" si="151"/>
+        <v>169610.96978071646</v>
+      </c>
+      <c r="FB43" s="3">
+        <f t="shared" si="151"/>
+        <v>169610.96978071646</v>
+      </c>
+      <c r="FC43" s="3">
+        <f t="shared" si="151"/>
+        <v>169610.96978071646</v>
+      </c>
+    </row>
+    <row r="44" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -8607,100 +8698,104 @@
       </c>
       <c r="BQ44" s="9">
         <f t="shared" si="159"/>
-        <v>7.6860505836575879</v>
+        <v>8.422628304821151</v>
       </c>
       <c r="BR44" s="9">
         <f t="shared" si="159"/>
-        <v>9.1901523735408563</v>
+        <v>8.9807510108864701</v>
       </c>
       <c r="BS44" s="9"/>
-      <c r="BZ44" s="17"/>
-      <c r="CA44" s="17">
-        <f t="shared" ref="CA44:CK44" si="161">+CA43/CA45</f>
+      <c r="BT44" s="9"/>
+      <c r="BU44" s="9"/>
+      <c r="BV44" s="9"/>
+      <c r="BW44" s="9"/>
+      <c r="CD44" s="17"/>
+      <c r="CE44" s="17">
+        <f t="shared" ref="CE44:CO44" si="161">+CE43/CE45</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="CB44" s="17">
+      <c r="CF44" s="17">
         <f t="shared" si="161"/>
         <v>0.66312997347480107</v>
       </c>
-      <c r="CC44" s="17">
+      <c r="CG44" s="17">
         <f t="shared" si="161"/>
         <v>2.4469067405355493E-2</v>
       </c>
-      <c r="CD44" s="17">
+      <c r="CH44" s="17">
         <f t="shared" si="161"/>
         <v>0.59594755661501786</v>
       </c>
-      <c r="CE44" s="17">
+      <c r="CI44" s="17">
         <f t="shared" si="161"/>
         <v>1.1036036036036037</v>
       </c>
-      <c r="CF44" s="17">
+      <c r="CJ44" s="17">
         <f t="shared" si="161"/>
         <v>1.2926743778478795</v>
       </c>
-      <c r="CG44" s="17">
+      <c r="CK44" s="17">
         <f t="shared" si="161"/>
         <v>3.4929914529914532</v>
       </c>
-      <c r="CH44" s="17">
+      <c r="CL44" s="17">
         <f t="shared" si="161"/>
         <v>5.4850243863516397</v>
       </c>
-      <c r="CI44" s="17">
+      <c r="CM44" s="17">
         <f t="shared" si="161"/>
         <v>7.5696679219445393</v>
       </c>
-      <c r="CJ44" s="17">
+      <c r="CN44" s="17">
         <f t="shared" si="161"/>
         <v>8.1658553546592483</v>
       </c>
-      <c r="CK44" s="17">
+      <c r="CO44" s="17">
         <f t="shared" si="161"/>
         <v>10.092105263157896</v>
       </c>
-      <c r="CL44" s="17">
-        <f t="shared" ref="CL44" si="162">+CL43/CL45</f>
+      <c r="CP44" s="17">
+        <f t="shared" ref="CP44" si="162">+CP43/CP45</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="CM44" s="17">
-        <f t="shared" ref="CM44" si="163">+CM43/CM45</f>
+      <c r="CQ44" s="17">
+        <f t="shared" ref="CQ44" si="163">+CQ43/CQ45</f>
         <v>14.721301354108704</v>
       </c>
-      <c r="CN44" s="17">
-        <f t="shared" ref="CN44" si="164">+CN43/CN45</f>
+      <c r="CR44" s="17">
+        <f t="shared" ref="CR44" si="164">+CR43/CR45</f>
         <v>20.189260916342057</v>
       </c>
-      <c r="CO44" s="17">
-        <f t="shared" ref="CO44" si="165">+CO43/CO45</f>
+      <c r="CS44" s="17">
+        <f t="shared" ref="CS44" si="165">+CS43/CS45</f>
         <v>29.369324978309372</v>
       </c>
-      <c r="CP44" s="17">
-        <f t="shared" ref="CP44" si="166">+CP43/CP45</f>
-        <v>37.169060355337209</v>
-      </c>
-      <c r="CQ44" s="17">
-        <f t="shared" ref="CQ44" si="167">+CQ43/CQ45</f>
-        <v>43.15109682670586</v>
-      </c>
-      <c r="CR44" s="17">
-        <f t="shared" ref="CR44" si="168">+CR43/CR45</f>
-        <v>48.596713196653482</v>
-      </c>
-      <c r="CS44" s="17">
-        <f t="shared" ref="CS44" si="169">+CS43/CS45</f>
-        <v>54.428294399136348</v>
-      </c>
       <c r="CT44" s="17">
-        <f t="shared" ref="CT44" si="170">+CT43/CT45</f>
-        <v>58.811945763673627</v>
+        <f t="shared" ref="CT44" si="166">+CT43/CT45</f>
+        <v>38.249196985584469</v>
       </c>
       <c r="CU44" s="17">
-        <f t="shared" ref="CU44" si="171">+CU43/CU45</f>
-        <v>63.386434993527423</v>
-      </c>
-    </row>
-    <row r="45" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="CU44" si="167">+CU43/CU45</f>
+        <v>44.356961360713903</v>
+      </c>
+      <c r="CV44" s="17">
+        <f t="shared" ref="CV44" si="168">+CV43/CV45</f>
+        <v>49.917405932481032</v>
+      </c>
+      <c r="CW44" s="17">
+        <f t="shared" ref="CW44" si="169">+CW43/CW45</f>
+        <v>55.873302681170159</v>
+      </c>
+      <c r="CX44" s="17">
+        <f t="shared" ref="CX44" si="170">+CX43/CX45</f>
+        <v>60.349945106636426</v>
+      </c>
+      <c r="CY44" s="17">
+        <f t="shared" ref="CY44" si="171">+CY43/CY45</f>
+        <v>65.022415097073591</v>
+      </c>
+    </row>
+    <row r="45" spans="2:159" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -8832,77 +8927,64 @@
         <v>2570</v>
       </c>
       <c r="BQ45" s="6">
-        <f>+BP45</f>
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="BR45" s="6">
         <f>+BQ45</f>
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="BS45" s="6"/>
-      <c r="CA45" s="3">
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="6"/>
+      <c r="BV45" s="6"/>
+      <c r="BW45" s="6"/>
+      <c r="CE45" s="3">
         <v>1414</v>
       </c>
-      <c r="CB45" s="3">
+      <c r="CF45" s="3">
         <v>1508</v>
       </c>
-      <c r="CC45" s="3">
+      <c r="CG45" s="3">
         <v>2166</v>
       </c>
-      <c r="CD45" s="3">
+      <c r="CH45" s="3">
         <v>2517</v>
       </c>
-      <c r="CE45" s="3">
+      <c r="CI45" s="3">
         <v>2664</v>
       </c>
-      <c r="CF45" s="3">
+      <c r="CJ45" s="3">
         <v>2853</v>
       </c>
-      <c r="CG45" s="3">
+      <c r="CK45" s="3">
         <v>2925</v>
       </c>
-      <c r="CH45" s="3">
+      <c r="CL45" s="3">
         <f>2395.921635+509.079123</f>
         <v>2905.0007580000001</v>
       </c>
-      <c r="CI45" s="3">
+      <c r="CM45" s="3">
         <v>2921</v>
       </c>
-      <c r="CJ45" s="3">
+      <c r="CN45" s="3">
         <v>2876</v>
       </c>
-      <c r="CK45" s="3">
+      <c r="CO45" s="3">
         <v>2888</v>
       </c>
-      <c r="CL45" s="3">
+      <c r="CP45" s="3">
         <v>2859</v>
       </c>
-      <c r="CM45" s="3">
+      <c r="CQ45" s="3">
         <f>AVERAGE(BC45:BF45)</f>
         <v>2695.5</v>
       </c>
-      <c r="CN45" s="3">
-        <f t="shared" ref="CN45:CU45" si="172">+CM45</f>
+      <c r="CR45" s="3">
+        <f t="shared" ref="CR45:CY45" si="172">+CQ45</f>
         <v>2695.5</v>
       </c>
-      <c r="CO45" s="3">
+      <c r="CS45" s="3">
         <f>AVERAGE(BK45:BN45)</f>
-        <v>2608.5</v>
-      </c>
-      <c r="CP45" s="3">
-        <f t="shared" si="172"/>
-        <v>2608.5</v>
-      </c>
-      <c r="CQ45" s="3">
-        <f t="shared" si="172"/>
-        <v>2608.5</v>
-      </c>
-      <c r="CR45" s="3">
-        <f t="shared" si="172"/>
-        <v>2608.5</v>
-      </c>
-      <c r="CS45" s="3">
-        <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
       <c r="CT45" s="3">
@@ -8913,11 +8995,27 @@
         <f t="shared" si="172"/>
         <v>2608.5</v>
       </c>
-    </row>
-    <row r="46" spans="2:155" x14ac:dyDescent="0.25">
+      <c r="CV45" s="3">
+        <f t="shared" si="172"/>
+        <v>2608.5</v>
+      </c>
+      <c r="CW45" s="3">
+        <f t="shared" si="172"/>
+        <v>2608.5</v>
+      </c>
+      <c r="CX45" s="3">
+        <f t="shared" si="172"/>
+        <v>2608.5</v>
+      </c>
+      <c r="CY45" s="3">
+        <f t="shared" si="172"/>
+        <v>2608.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:159" x14ac:dyDescent="0.25">
       <c r="BC46" s="6"/>
     </row>
-    <row r="47" spans="2:155" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:159" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -9067,119 +9165,123 @@
       </c>
       <c r="BQ47" s="11">
         <f t="shared" si="179"/>
-        <v>0.1579491980585872</v>
+        <v>0.26246027248761972</v>
       </c>
       <c r="BR47" s="11">
         <f t="shared" si="179"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="BS47" s="11"/>
-      <c r="BV47" s="18">
-        <f t="shared" ref="BV47:CH47" si="180">+BV32/BU32-1</f>
+      <c r="BT47" s="11"/>
+      <c r="BU47" s="11"/>
+      <c r="BV47" s="11"/>
+      <c r="BW47" s="11"/>
+      <c r="BZ47" s="18">
+        <f t="shared" ref="BZ47:CL47" si="180">+BZ32/BY32-1</f>
         <v>22.560209424083769</v>
       </c>
-      <c r="BW47" s="18">
+      <c r="CA47" s="18">
         <f t="shared" si="180"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="BX47" s="18">
+      <c r="CB47" s="18">
         <f t="shared" si="180"/>
         <v>2.1875</v>
       </c>
-      <c r="BY47" s="18">
+      <c r="CC47" s="18">
         <f t="shared" si="180"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="BZ47" s="18">
+      <c r="CD47" s="18">
         <f t="shared" si="180"/>
         <v>1.8566176470588234</v>
       </c>
-      <c r="CA47" s="18">
+      <c r="CE47" s="18">
         <f t="shared" si="180"/>
         <v>1.5405405405405403</v>
       </c>
-      <c r="CB47" s="18">
+      <c r="CF47" s="18">
         <f t="shared" si="180"/>
         <v>0.87993920972644379</v>
       </c>
-      <c r="CC47" s="18">
+      <c r="CG47" s="18">
         <f t="shared" si="180"/>
         <v>0.37132848288870934</v>
       </c>
-      <c r="CD47" s="18">
+      <c r="CH47" s="18">
         <f t="shared" si="180"/>
         <v>0.5468657889565729</v>
       </c>
-      <c r="CE47" s="18">
+      <c r="CI47" s="18">
         <f t="shared" si="180"/>
         <v>0.58358739837398366</v>
       </c>
-      <c r="CF47" s="18">
+      <c r="CJ47" s="18">
         <f t="shared" si="180"/>
         <v>0.43815177282207607</v>
       </c>
-      <c r="CG47" s="18">
+      <c r="CK47" s="18">
         <f t="shared" si="180"/>
         <v>0.54161088799643009</v>
       </c>
-      <c r="CH47" s="18">
+      <c r="CL47" s="18">
         <f t="shared" si="180"/>
         <v>0.47090961719371882</v>
       </c>
-      <c r="CI47" s="18">
-        <f t="shared" ref="CI47" si="181">+CI32/CH32-1</f>
+      <c r="CM47" s="18">
+        <f t="shared" ref="CM47" si="181">+CM32/CL32-1</f>
         <v>0.37352716896661997</v>
       </c>
-      <c r="CJ47" s="18">
-        <f>+CJ32/CI32-1</f>
+      <c r="CN47" s="18">
+        <f>+CN32/CM32-1</f>
         <v>0.26610910132884413</v>
       </c>
-      <c r="CK47" s="18">
-        <f>+CK32/CJ32-1</f>
+      <c r="CO47" s="18">
+        <f>+CO32/CN32-1</f>
         <v>0.21596390228722573</v>
       </c>
-      <c r="CL47" s="18">
-        <f>+CL32/CK32-1</f>
+      <c r="CP47" s="18">
+        <f>+CP32/CO32-1</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="CM47" s="18">
-        <f>+CM32/CL32-1</f>
+      <c r="CQ47" s="18">
+        <f>+CQ32/CP32-1</f>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="CN47" s="18">
-        <f t="shared" ref="CN47:CU47" si="182">+CN32/CM32-1</f>
+      <c r="CR47" s="18">
+        <f t="shared" ref="CR47:CY47" si="182">+CR32/CQ32-1</f>
         <v>0.15686610810486323</v>
       </c>
-      <c r="CO47" s="18">
+      <c r="CS47" s="18">
         <f t="shared" si="182"/>
         <v>0.21941275453851339</v>
       </c>
-      <c r="CP47" s="18">
+      <c r="CT47" s="18">
         <f t="shared" si="182"/>
-        <v>0.16122310030395148</v>
-      </c>
-      <c r="CQ47" s="18">
+        <v>0.1870103343465046</v>
+      </c>
+      <c r="CU47" s="18">
         <f t="shared" si="182"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="CR47" s="18">
+      <c r="CV47" s="18">
         <f t="shared" si="182"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="CS47" s="18">
+      <c r="CW47" s="18">
         <f t="shared" si="182"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="CT47" s="18">
+      <c r="CX47" s="18">
         <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CU47" s="18">
+      <c r="CY47" s="18">
         <f t="shared" si="182"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:155" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:159" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -9264,7 +9366,7 @@
       <c r="BH48" s="12"/>
       <c r="BI48" s="12"/>
     </row>
-    <row r="49" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -9334,7 +9436,7 @@
       <c r="BH49" s="6"/>
       <c r="BI49" s="6"/>
     </row>
-    <row r="50" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -9406,7 +9508,7 @@
       <c r="BH50" s="6"/>
       <c r="BI50" s="6"/>
     </row>
-    <row r="51" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -9530,20 +9632,24 @@
         <v>-1</v>
       </c>
       <c r="BS51" s="10"/>
-      <c r="CK51" s="19">
-        <f t="shared" ref="CK51" si="194">CK30/CJ30-1</f>
+      <c r="BT51" s="10"/>
+      <c r="BU51" s="10"/>
+      <c r="BV51" s="10"/>
+      <c r="BW51" s="10"/>
+      <c r="CO51" s="19">
+        <f t="shared" ref="CO51" si="194">CO30/CN30-1</f>
         <v>1.2734530938123751</v>
       </c>
-      <c r="CL51" s="19">
-        <f>CL30/CK30-1</f>
+      <c r="CP51" s="19">
+        <f>CP30/CO30-1</f>
         <v>0.99648814749780512</v>
       </c>
-      <c r="CM51" s="19">
-        <f>CM30/CL30-1</f>
+      <c r="CQ51" s="19">
+        <f>CQ30/CP30-1</f>
         <v>-5.0571679859278795E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -9663,15 +9769,19 @@
       </c>
       <c r="BQ52" s="10">
         <f t="shared" ref="BQ52" si="199">+BQ38/BM38-1</f>
-        <v>0</v>
+        <v>0.35533282904689867</v>
       </c>
       <c r="BR52" s="10">
         <f t="shared" ref="BR52" si="200">+BR38/BN38-1</f>
-        <v>6.8228168839997494E-2</v>
+        <v>0.17001421420184171</v>
       </c>
       <c r="BS52" s="10"/>
-    </row>
-    <row r="53" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT52" s="10"/>
+      <c r="BU52" s="10"/>
+      <c r="BV52" s="10"/>
+      <c r="BW52" s="10"/>
+    </row>
+    <row r="53" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -9741,8 +9851,12 @@
       <c r="BQ53" s="10"/>
       <c r="BR53" s="10"/>
       <c r="BS53" s="10"/>
-    </row>
-    <row r="54" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BT53" s="10"/>
+      <c r="BU53" s="10"/>
+      <c r="BV53" s="10"/>
+      <c r="BW53" s="10"/>
+    </row>
+    <row r="54" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
@@ -9904,44 +10018,32 @@
       </c>
       <c r="BQ54" s="10">
         <f t="shared" si="203"/>
-        <v>0.83</v>
+        <v>0.82034268763904605</v>
       </c>
       <c r="BR54" s="10">
         <f t="shared" si="203"/>
         <v>0.83</v>
       </c>
       <c r="BS54" s="10"/>
-      <c r="CI54" s="19">
-        <f t="shared" ref="CI54:CU54" si="204">+CI34/CI32</f>
+      <c r="BT54" s="10"/>
+      <c r="BU54" s="10"/>
+      <c r="BV54" s="10"/>
+      <c r="BW54" s="10"/>
+      <c r="CM54" s="19">
+        <f t="shared" ref="CM54:CY54" si="204">+CM34/CM32</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="CJ54" s="19">
+      <c r="CN54" s="19">
         <f t="shared" si="204"/>
         <v>0.81936998741106415</v>
       </c>
-      <c r="CK54" s="19">
+      <c r="CO54" s="19">
         <f t="shared" si="204"/>
         <v>0.80582795323678236</v>
       </c>
-      <c r="CL54" s="19">
+      <c r="CP54" s="19">
         <f t="shared" si="204"/>
         <v>0.80794376277251567</v>
-      </c>
-      <c r="CM54" s="19">
-        <f t="shared" si="204"/>
-        <v>0.81</v>
-      </c>
-      <c r="CN54" s="19">
-        <f t="shared" si="204"/>
-        <v>0.81</v>
-      </c>
-      <c r="CO54" s="19">
-        <f t="shared" si="204"/>
-        <v>0.81</v>
-      </c>
-      <c r="CP54" s="19">
-        <f t="shared" si="204"/>
-        <v>0.81</v>
       </c>
       <c r="CQ54" s="19">
         <f t="shared" si="204"/>
@@ -9963,8 +10065,24 @@
         <f t="shared" si="204"/>
         <v>0.81</v>
       </c>
-    </row>
-    <row r="55" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CV54" s="19">
+        <f t="shared" si="204"/>
+        <v>0.81</v>
+      </c>
+      <c r="CW54" s="19">
+        <f t="shared" si="204"/>
+        <v>0.81</v>
+      </c>
+      <c r="CX54" s="19">
+        <f t="shared" si="204"/>
+        <v>0.81</v>
+      </c>
+      <c r="CY54" s="19">
+        <f t="shared" si="204"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
@@ -10126,74 +10244,78 @@
       </c>
       <c r="BQ55" s="10">
         <f t="shared" si="212"/>
-        <v>0.49246808510638296</v>
+        <v>0.4007454822216151</v>
       </c>
       <c r="BR55" s="10">
         <f t="shared" si="212"/>
-        <v>0.51103677349828014</v>
+        <v>0.48064438506621004</v>
       </c>
       <c r="BS55" s="10"/>
-      <c r="CI55" s="10">
-        <f t="shared" ref="CI55:CU55" si="213">+CI39/CI32</f>
+      <c r="BT55" s="10"/>
+      <c r="BU55" s="10"/>
+      <c r="BV55" s="10"/>
+      <c r="BW55" s="10"/>
+      <c r="CM55" s="10">
+        <f t="shared" ref="CM55:CY55" si="213">+CM39/CM32</f>
         <v>0.44616569361366809</v>
       </c>
-      <c r="CJ55" s="10">
+      <c r="CN55" s="10">
         <f t="shared" si="213"/>
         <v>0.41000325332050863</v>
       </c>
-      <c r="CK55" s="10">
+      <c r="CO55" s="10">
         <f t="shared" si="213"/>
         <v>0.3800500203571221</v>
       </c>
-      <c r="CL55" s="10">
+      <c r="CP55" s="10">
         <f t="shared" si="213"/>
         <v>0.39645040660058173</v>
       </c>
-      <c r="CM55" s="10">
+      <c r="CQ55" s="10">
         <f t="shared" si="213"/>
         <v>0.4149918959943058</v>
       </c>
-      <c r="CN55" s="10">
+      <c r="CR55" s="10">
         <f t="shared" si="213"/>
         <v>0.48500203853196056</v>
       </c>
-      <c r="CO55" s="10">
+      <c r="CS55" s="10">
         <f t="shared" si="213"/>
         <v>0.55562009118541034</v>
       </c>
-      <c r="CP55" s="10">
-        <f t="shared" si="213"/>
-        <v>0.6003471159222119</v>
-      </c>
-      <c r="CQ55" s="10">
-        <f t="shared" si="213"/>
-        <v>0.62710487465170461</v>
-      </c>
-      <c r="CR55" s="10">
-        <f t="shared" si="213"/>
-        <v>0.64706799974080131</v>
-      </c>
-      <c r="CS55" s="10">
-        <f t="shared" si="213"/>
-        <v>0.66448315181892159</v>
-      </c>
       <c r="CT55" s="10">
         <f t="shared" si="213"/>
-        <v>0.67599490984630151</v>
+        <v>0.60490172495380601</v>
       </c>
       <c r="CU55" s="10">
         <f t="shared" si="213"/>
-        <v>0.68630386259078657</v>
-      </c>
-      <c r="CY55" t="s">
+        <v>0.63107818412183248</v>
+      </c>
+      <c r="CV55" s="10">
+        <f t="shared" si="213"/>
+        <v>0.65060761982845494</v>
+      </c>
+      <c r="CW55" s="10">
+        <f t="shared" si="213"/>
+        <v>0.66764443602395429</v>
+      </c>
+      <c r="CX55" s="10">
+        <f t="shared" si="213"/>
+        <v>0.67890610659219108</v>
+      </c>
+      <c r="CY55" s="10">
+        <f t="shared" si="213"/>
+        <v>0.68899110224930837</v>
+      </c>
+      <c r="DC55" t="s">
         <v>112</v>
       </c>
-      <c r="CZ55" s="3">
-        <f>NPV(CZ56,CN43:EY43)</f>
-        <v>1731978.9299193062</v>
-      </c>
-    </row>
-    <row r="56" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DD55" s="3">
+        <f>NPV(DD56,CR43:FC43)</f>
+        <v>1774326.4429682596</v>
+      </c>
+    </row>
+    <row r="56" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
@@ -10355,44 +10477,32 @@
       </c>
       <c r="BQ56" s="10">
         <f t="shared" si="217"/>
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="BR56" s="10">
         <f t="shared" si="217"/>
         <v>0.15</v>
       </c>
       <c r="BS56" s="10"/>
-      <c r="CI56" s="19">
-        <f t="shared" ref="CI56:CU56" si="218">+CI42/CI41</f>
+      <c r="BT56" s="10"/>
+      <c r="BU56" s="10"/>
+      <c r="BV56" s="10"/>
+      <c r="BW56" s="10"/>
+      <c r="CM56" s="19">
+        <f t="shared" ref="CM56:CY56" si="218">+CM42/CM41</f>
         <v>0.12814952091794488</v>
       </c>
-      <c r="CJ56" s="19">
+      <c r="CN56" s="19">
         <f t="shared" si="218"/>
         <v>0.21222997450690997</v>
       </c>
-      <c r="CK56" s="19">
+      <c r="CO56" s="19">
         <f t="shared" si="218"/>
         <v>0.12157926461723931</v>
       </c>
-      <c r="CL56" s="19">
+      <c r="CP56" s="19">
         <f t="shared" si="218"/>
         <v>0.16737162676592504</v>
-      </c>
-      <c r="CM56" s="19">
-        <f t="shared" si="218"/>
-        <v>0.18</v>
-      </c>
-      <c r="CN56" s="19">
-        <f t="shared" si="218"/>
-        <v>0.18</v>
-      </c>
-      <c r="CO56" s="19">
-        <f t="shared" si="218"/>
-        <v>0.18</v>
-      </c>
-      <c r="CP56" s="19">
-        <f t="shared" si="218"/>
-        <v>0.18</v>
       </c>
       <c r="CQ56" s="19">
         <f t="shared" si="218"/>
@@ -10414,23 +10524,39 @@
         <f t="shared" si="218"/>
         <v>0.18</v>
       </c>
-      <c r="CY56" s="3" t="s">
+      <c r="CV56" s="19">
+        <f t="shared" si="218"/>
+        <v>0.18</v>
+      </c>
+      <c r="CW56" s="19">
+        <f t="shared" si="218"/>
+        <v>0.18</v>
+      </c>
+      <c r="CX56" s="19">
+        <f t="shared" si="218"/>
+        <v>0.18</v>
+      </c>
+      <c r="CY56" s="19">
+        <f t="shared" si="218"/>
+        <v>0.18</v>
+      </c>
+      <c r="DC56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CZ56" s="19">
+      <c r="DD56" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:108" x14ac:dyDescent="0.25">
       <c r="BC57" s="6"/>
-      <c r="CY57" t="s">
+      <c r="DC57" t="s">
         <v>114</v>
       </c>
-      <c r="CZ57" s="19">
+      <c r="DD57" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:104" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:108" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>195</v>
       </c>
@@ -10463,7 +10589,7 @@
         <v>33681</v>
       </c>
       <c r="BH58" s="6">
-        <f t="shared" ref="BH58:BO58" si="221">+BH59-BH73</f>
+        <f t="shared" ref="BH58:BQ58" si="221">+BH59-BH73</f>
         <v>41272</v>
       </c>
       <c r="BI58" s="6">
@@ -10494,18 +10620,28 @@
         <f t="shared" si="221"/>
         <v>47569</v>
       </c>
-      <c r="BP58" s="6"/>
-      <c r="BQ58" s="6"/>
+      <c r="BP58" s="6">
+        <f t="shared" si="221"/>
+        <v>40227</v>
+      </c>
+      <c r="BQ58" s="6">
+        <f t="shared" si="221"/>
+        <v>40688</v>
+      </c>
       <c r="BR58" s="6"/>
       <c r="BS58" s="6"/>
-      <c r="CY58" s="3" t="s">
+      <c r="BT58" s="6"/>
+      <c r="BU58" s="6"/>
+      <c r="BV58" s="6"/>
+      <c r="BW58" s="6"/>
+      <c r="DC58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CZ58" s="19">
+      <c r="DD58" s="19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -10628,59 +10764,69 @@
         <f>28750+41480+6168</f>
         <v>76398</v>
       </c>
-      <c r="BP59" s="6"/>
-      <c r="BQ59" s="6"/>
+      <c r="BP59" s="6">
+        <f>12005+35066+21988</f>
+        <v>69059</v>
+      </c>
+      <c r="BQ59" s="6">
+        <f>10187+34261+25074</f>
+        <v>69522</v>
+      </c>
       <c r="BR59" s="6"/>
       <c r="BS59" s="6"/>
-      <c r="CL59" s="3">
+      <c r="BT59" s="6"/>
+      <c r="BU59" s="6"/>
+      <c r="BV59" s="6"/>
+      <c r="BW59" s="6"/>
+      <c r="CP59" s="3">
         <f>+BB59</f>
         <v>54773</v>
       </c>
-      <c r="CM59" s="3">
+      <c r="CQ59" s="3">
         <f>+BF59</f>
         <v>46939</v>
       </c>
-      <c r="CN59" s="3">
-        <f t="shared" ref="CN59:CU59" si="222">+CM59+CN43</f>
+      <c r="CR59" s="3">
+        <f t="shared" ref="CR59:CY59" si="222">+CQ59+CR43</f>
         <v>101359.15280000001</v>
       </c>
-      <c r="CO59" s="3">
+      <c r="CS59" s="3">
         <f t="shared" si="222"/>
         <v>177969.03700592002</v>
       </c>
-      <c r="CP59" s="3">
-        <f t="shared" si="222"/>
-        <v>274924.5309428171</v>
-      </c>
-      <c r="CQ59" s="3">
-        <f t="shared" si="222"/>
-        <v>387484.16701527935</v>
-      </c>
-      <c r="CR59" s="3">
-        <f t="shared" si="222"/>
-        <v>514248.69338874996</v>
-      </c>
-      <c r="CS59" s="3">
-        <f t="shared" si="222"/>
-        <v>656224.89932889713</v>
-      </c>
       <c r="CT59" s="3">
         <f t="shared" si="222"/>
-        <v>809635.85985343973</v>
+        <v>277742.06734281708</v>
       </c>
       <c r="CU59" s="3">
         <f t="shared" si="222"/>
-        <v>974979.37553405599</v>
-      </c>
-      <c r="CY59" s="3" t="s">
+        <v>393447.20105223928</v>
+      </c>
+      <c r="CV59" s="3">
+        <f t="shared" si="222"/>
+        <v>523656.75442711601</v>
+      </c>
+      <c r="CW59" s="3">
+        <f t="shared" si="222"/>
+        <v>669402.26447094837</v>
+      </c>
+      <c r="CX59" s="3">
+        <f t="shared" si="222"/>
+        <v>826825.0962816095</v>
+      </c>
+      <c r="CY59" s="3">
+        <f t="shared" si="222"/>
+        <v>996436.06606232596</v>
+      </c>
+      <c r="DC59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CZ59" s="17">
-        <f>CZ55/Main!M3</f>
-        <v>668.71773355957771</v>
-      </c>
-    </row>
-    <row r="60" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DD59" s="17">
+        <f>DD55/Main!M3</f>
+        <v>689.86253614629061</v>
+      </c>
+    </row>
+    <row r="60" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -10785,15 +10931,21 @@
       <c r="BO60" s="3">
         <v>14514</v>
       </c>
-      <c r="CY60" s="3" t="s">
+      <c r="BP60" s="3">
+        <v>16561</v>
+      </c>
+      <c r="BQ60" s="3">
+        <v>17297</v>
+      </c>
+      <c r="DC60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CZ60" s="19">
-        <f>CZ59/Main!M2-1</f>
-        <v>-7.3798152964573815E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DD60" s="19">
+        <f>DD59/Main!M2-1</f>
+        <v>1.3014003151675002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -10898,8 +11050,14 @@
       <c r="BO61" s="3">
         <v>5483</v>
       </c>
-    </row>
-    <row r="62" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP61" s="3">
+        <v>9981</v>
+      </c>
+      <c r="BQ61" s="3">
+        <v>11373</v>
+      </c>
+    </row>
+    <row r="62" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -11004,8 +11162,14 @@
       <c r="BO62" s="3">
         <v>133567</v>
       </c>
-    </row>
-    <row r="63" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP62" s="3">
+        <v>147039</v>
+      </c>
+      <c r="BQ62" s="3">
+        <v>160270</v>
+      </c>
+    </row>
+    <row r="63" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -11110,8 +11274,14 @@
       <c r="BO63" s="3">
         <v>15505</v>
       </c>
-    </row>
-    <row r="64" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP63" s="3">
+        <v>15662</v>
+      </c>
+      <c r="BQ63" s="3">
+        <v>17372</v>
+      </c>
+    </row>
+    <row r="64" spans="2:108" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -11229,8 +11399,14 @@
       <c r="BO64" s="3">
         <v>20654</v>
       </c>
-    </row>
-    <row r="65" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP64" s="3">
+        <v>20654</v>
+      </c>
+      <c r="BQ64" s="3">
+        <v>21158</v>
+      </c>
+    </row>
+    <row r="65" spans="2:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -11335,8 +11511,14 @@
       <c r="BO65" s="3">
         <v>14092</v>
       </c>
-    </row>
-    <row r="66" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP65" s="3">
+        <v>15788</v>
+      </c>
+      <c r="BQ65" s="3">
+        <v>6852</v>
+      </c>
+    </row>
+    <row r="66" spans="2:75" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -11420,7 +11602,7 @@
         <v>178894</v>
       </c>
       <c r="BF66" s="6">
-        <f t="shared" ref="BF66:BO66" si="226">SUM(BF59:BF65)</f>
+        <f t="shared" ref="BF66:BQ66" si="226">SUM(BF59:BF65)</f>
         <v>185727</v>
       </c>
       <c r="BG66" s="6">
@@ -11459,11 +11641,19 @@
         <f t="shared" si="226"/>
         <v>280213</v>
       </c>
-    </row>
-    <row r="67" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP66" s="6">
+        <f t="shared" si="226"/>
+        <v>294744</v>
+      </c>
+      <c r="BQ66" s="6">
+        <f t="shared" si="226"/>
+        <v>303844</v>
+      </c>
+    </row>
+    <row r="67" spans="2:75" x14ac:dyDescent="0.25">
       <c r="BC67" s="6"/>
     </row>
-    <row r="68" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -11521,8 +11711,14 @@
       <c r="BO68" s="3">
         <v>8512</v>
       </c>
-    </row>
-    <row r="69" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP68" s="3">
+        <v>10271</v>
+      </c>
+      <c r="BQ68" s="3">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="69" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -11580,8 +11776,14 @@
       <c r="BO69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP69" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -11657,8 +11859,16 @@
         <f>1976+18714</f>
         <v>20690</v>
       </c>
-    </row>
-    <row r="71" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP70" s="3">
+        <f>1977+18751</f>
+        <v>20728</v>
+      </c>
+      <c r="BQ70" s="3">
+        <f>2113+20113</f>
+        <v>22226</v>
+      </c>
+    </row>
+    <row r="71" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -11716,8 +11926,14 @@
       <c r="BO71" s="3">
         <v>23402</v>
       </c>
-    </row>
-    <row r="72" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP71" s="3">
+        <v>25057</v>
+      </c>
+      <c r="BQ71" s="3">
+        <v>27047</v>
+      </c>
+    </row>
+    <row r="72" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -11767,8 +11983,14 @@
       <c r="BO72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP72" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="3">
+        <v>11738</v>
+      </c>
+    </row>
+    <row r="73" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -11812,12 +12034,20 @@
       <c r="BO73" s="6">
         <v>28829</v>
       </c>
-      <c r="BP73" s="6"/>
-      <c r="BQ73" s="6"/>
+      <c r="BP73" s="6">
+        <v>28832</v>
+      </c>
+      <c r="BQ73" s="6">
+        <v>28834</v>
+      </c>
       <c r="BR73" s="6"/>
       <c r="BS73" s="6"/>
-    </row>
-    <row r="74" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BT73" s="6"/>
+      <c r="BU73" s="6"/>
+      <c r="BV73" s="6"/>
+      <c r="BW73" s="6"/>
+    </row>
+    <row r="74" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -11880,8 +12110,15 @@
         <f>10991+2760</f>
         <v>13751</v>
       </c>
-    </row>
-    <row r="75" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP74" s="3">
+        <f>12046+2740</f>
+        <v>14786</v>
+      </c>
+      <c r="BQ74" s="3">
+        <v>12135</v>
+      </c>
+    </row>
+    <row r="75" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -11939,8 +12176,14 @@
       <c r="BO75" s="3">
         <v>85568</v>
       </c>
-    </row>
-    <row r="76" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP75" s="3">
+        <v>88496</v>
+      </c>
+      <c r="BQ75" s="3">
+        <v>92330</v>
+      </c>
+    </row>
+    <row r="76" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -11998,8 +12241,14 @@
       <c r="BO76" s="3">
         <v>-1865</v>
       </c>
-    </row>
-    <row r="77" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP76" s="3">
+        <v>229</v>
+      </c>
+      <c r="BQ76" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -12057,8 +12306,14 @@
       <c r="BO77" s="3">
         <v>101326</v>
       </c>
-    </row>
-    <row r="78" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP77" s="3">
+        <v>106345</v>
+      </c>
+      <c r="BQ77" s="3">
+        <v>101577</v>
+      </c>
+    </row>
+    <row r="78" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>61</v>
       </c>
@@ -12115,7 +12370,7 @@
         <v>229623</v>
       </c>
       <c r="BK78" s="6">
-        <f t="shared" ref="BK78:BO78" si="230">SUM(BK68:BK77)</f>
+        <f t="shared" ref="BK78:BQ78" si="230">SUM(BK68:BK77)</f>
         <v>222844</v>
       </c>
       <c r="BL78" s="6">
@@ -12134,11 +12389,19 @@
         <f t="shared" si="230"/>
         <v>280213</v>
       </c>
-    </row>
-    <row r="79" spans="2:71" x14ac:dyDescent="0.25">
+      <c r="BP78" s="6">
+        <f t="shared" si="230"/>
+        <v>294744</v>
+      </c>
+      <c r="BQ78" s="6">
+        <f t="shared" si="230"/>
+        <v>303844</v>
+      </c>
+    </row>
+    <row r="79" spans="2:75" x14ac:dyDescent="0.25">
       <c r="BC79" s="6"/>
     </row>
-    <row r="80" spans="2:71" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:75" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
@@ -12191,7 +12454,7 @@
         <v>13288.690000000002</v>
       </c>
       <c r="BK80" s="6">
-        <f t="shared" ref="BK80:BO80" si="232">BK43</f>
+        <f t="shared" ref="BK80:BQ80" si="232">BK43</f>
         <v>12369</v>
       </c>
       <c r="BL80" s="6">
@@ -12210,8 +12473,16 @@
         <f t="shared" si="232"/>
         <v>16644</v>
       </c>
-    </row>
-    <row r="81" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP80" s="6">
+        <f t="shared" si="232"/>
+        <v>18337</v>
+      </c>
+      <c r="BQ80" s="6">
+        <f t="shared" si="232"/>
+        <v>21663</v>
+      </c>
+    </row>
+    <row r="81" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -12276,8 +12547,15 @@
       <c r="BO81" s="3">
         <v>16644</v>
       </c>
-    </row>
-    <row r="82" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP81" s="3">
+        <f>34981-BO81</f>
+        <v>18337</v>
+      </c>
+      <c r="BQ81" s="3">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="82" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -12342,8 +12620,15 @@
       <c r="BO82" s="3">
         <v>3900</v>
       </c>
-    </row>
-    <row r="83" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP82" s="3">
+        <f>8242-BO82</f>
+        <v>4342</v>
+      </c>
+      <c r="BQ82" s="3">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="83" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -12408,8 +12693,15 @@
       <c r="BO83" s="3">
         <v>4147</v>
       </c>
-    </row>
-    <row r="84" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP83" s="3">
+        <f>8981-BO83</f>
+        <v>4834</v>
+      </c>
+      <c r="BQ83" s="3">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="84" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -12474,8 +12766,15 @@
       <c r="BO84" s="3">
         <v>-993</v>
       </c>
-    </row>
-    <row r="85" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP84" s="3">
+        <f>-2163-BO84</f>
+        <v>-1170</v>
+      </c>
+      <c r="BQ84" s="3">
+        <v>19868</v>
+      </c>
+    </row>
+    <row r="85" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -12542,8 +12841,16 @@
       <c r="BO85" s="3">
         <v>-231</v>
       </c>
-    </row>
-    <row r="86" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP85" s="3">
+        <f>374-BO85-430</f>
+        <v>175</v>
+      </c>
+      <c r="BQ85" s="3">
+        <f>-922-23</f>
+        <v>-945</v>
+      </c>
+    </row>
+    <row r="86" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -12615,8 +12922,16 @@
         <f>2804+360-52-1034-2231+712</f>
         <v>559</v>
       </c>
-    </row>
-    <row r="87" spans="2:94" x14ac:dyDescent="0.25">
+      <c r="BP86" s="3">
+        <f>1466+686-242-574-3338+1604-BO86</f>
+        <v>-957</v>
+      </c>
+      <c r="BQ86" s="3">
+        <f>-807-1033+33-63+455-736</f>
+        <v>-2151</v>
+      </c>
+    </row>
+    <row r="87" spans="2:98" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
@@ -12661,7 +12976,7 @@
         <v>17309</v>
       </c>
       <c r="BI87" s="6">
-        <f t="shared" ref="BI87:BO87" si="234">SUM(BI81:BI86)</f>
+        <f t="shared" ref="BI87:BQ87" si="234">SUM(BI81:BI86)</f>
         <v>20402</v>
       </c>
       <c r="BJ87" s="6">
@@ -12688,21 +13003,30 @@
         <f t="shared" si="234"/>
         <v>24026</v>
       </c>
-      <c r="CA87" s="3">
+      <c r="BP87" s="3">
+        <f t="shared" si="234"/>
+        <v>25561</v>
+      </c>
+      <c r="BQ87" s="3">
+        <f t="shared" si="234"/>
+        <v>29999</v>
+      </c>
+      <c r="CE87" s="3">
         <v>698</v>
       </c>
-      <c r="CB87" s="3">
+      <c r="CF87" s="3">
         <v>1549</v>
       </c>
-      <c r="CC87" s="3">
+      <c r="CG87" s="3">
         <v>1612</v>
       </c>
     </row>
-    <row r="88" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:98" x14ac:dyDescent="0.25">
       <c r="BC88" s="6"/>
       <c r="BD88" s="6"/>
-    </row>
-    <row r="89" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BQ88" s="3"/>
+    </row>
+    <row r="89" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -12819,26 +13143,26 @@
         <v>-12941</v>
       </c>
       <c r="BP89" s="3">
+        <f>-29479-BO89</f>
         <v>-16538</v>
       </c>
       <c r="BQ89" s="3">
-        <f>+BP89-2000</f>
-        <v>-18538</v>
+        <v>-18829</v>
       </c>
       <c r="BR89" s="3">
         <f>+BQ89-2000</f>
-        <v>-20538</v>
-      </c>
-      <c r="CO89" s="3">
+        <v>-20829</v>
+      </c>
+      <c r="CS89" s="3">
         <f>SUM(BK89:BN89)</f>
         <v>-37256</v>
       </c>
-      <c r="CP89" s="3">
+      <c r="CT89" s="3">
         <f>SUM(BO89:BR89)</f>
-        <v>-68555</v>
-      </c>
-    </row>
-    <row r="90" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-69137</v>
+      </c>
+    </row>
+    <row r="90" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -12958,8 +13282,16 @@
         <f>-11763+4784-90</f>
         <v>-7069</v>
       </c>
-    </row>
-    <row r="91" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP90" s="3">
+        <f>-19509+19057-15214-775+14-BO90</f>
+        <v>-9358</v>
+      </c>
+      <c r="BQ90" s="3">
+        <f>-2840+4704-3046-62-1022</f>
+        <v>-2266</v>
+      </c>
+    </row>
+    <row r="91" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -13072,8 +13404,15 @@
       <c r="BO91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP91" s="3">
+        <f>-62-BO91</f>
+        <v>-62</v>
+      </c>
+      <c r="BQ91" s="3">
+        <v>-753</v>
+      </c>
+    </row>
+    <row r="92" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -13174,27 +13513,35 @@
         <v>-6472</v>
       </c>
       <c r="BK92" s="3">
-        <f>SUM(BK89:BK91)</f>
+        <f t="shared" ref="BK92:BQ92" si="236">SUM(BK89:BK91)</f>
         <v>-8734</v>
       </c>
       <c r="BL92" s="3">
-        <f>SUM(BL89:BL91)</f>
+        <f t="shared" si="236"/>
         <v>-8298</v>
       </c>
       <c r="BM92" s="3">
-        <f>SUM(BM89:BM91)</f>
+        <f t="shared" si="236"/>
         <v>-8620</v>
       </c>
       <c r="BN92" s="3">
-        <f>SUM(BN89:BN91)</f>
+        <f t="shared" si="236"/>
         <v>-21498</v>
       </c>
       <c r="BO92" s="3">
-        <f>SUM(BO89:BO91)</f>
+        <f t="shared" si="236"/>
         <v>-20010</v>
       </c>
-    </row>
-    <row r="93" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP92" s="3">
+        <f t="shared" si="236"/>
+        <v>-25958</v>
+      </c>
+      <c r="BQ92" s="3">
+        <f t="shared" si="236"/>
+        <v>-21848</v>
+      </c>
+    </row>
+    <row r="93" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -13255,7 +13602,7 @@
       <c r="BH93" s="6"/>
       <c r="BI93" s="6"/>
     </row>
-    <row r="94" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -13368,8 +13715,15 @@
       <c r="BO94" s="3">
         <v>-4883</v>
       </c>
-    </row>
-    <row r="95" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP94" s="3">
+        <f>-8993-BO94</f>
+        <v>-4110</v>
+      </c>
+      <c r="BQ94" s="3">
+        <v>-5135</v>
+      </c>
+    </row>
+    <row r="95" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
@@ -13482,8 +13836,15 @@
       <c r="BO95" s="3">
         <v>-12754</v>
       </c>
-    </row>
-    <row r="96" spans="2:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP95" s="3">
+        <f>-22921-BO95</f>
+        <v>-10167</v>
+      </c>
+      <c r="BQ95" s="3">
+        <v>-3327</v>
+      </c>
+    </row>
+    <row r="96" spans="2:98" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -13573,8 +13934,15 @@
       <c r="BO96" s="3">
         <v>-1329</v>
       </c>
-    </row>
-    <row r="97" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP96" s="3">
+        <f>-2656-BO96</f>
+        <v>-1327</v>
+      </c>
+      <c r="BQ96" s="3">
+        <v>-1330</v>
+      </c>
+    </row>
+    <row r="97" spans="2:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -13670,8 +14038,14 @@
       <c r="BO97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP97" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -13790,8 +14164,16 @@
         <f>-751+222</f>
         <v>-529</v>
       </c>
-    </row>
-    <row r="99" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BP98" s="3">
+        <f>-1225+323-BO98</f>
+        <v>-373</v>
+      </c>
+      <c r="BQ98" s="3">
+        <f>-545+290</f>
+        <v>-255</v>
+      </c>
+    </row>
+    <row r="99" spans="2:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -13844,75 +14226,83 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="6">
-        <f t="shared" ref="AY99:BA99" si="236">SUM(AY94:AY98)</f>
+        <f t="shared" ref="AY99:BA99" si="237">SUM(AY94:AY98)</f>
         <v>-5185</v>
       </c>
       <c r="AZ99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-8549</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-15252</v>
       </c>
       <c r="BB99" s="6">
-        <f t="shared" ref="BB99" si="237">SUM(BB94:BB98)</f>
+        <f t="shared" ref="BB99" si="238">SUM(BB94:BB98)</f>
         <v>-21742</v>
       </c>
       <c r="BC99" s="6">
-        <f t="shared" ref="BC99:BO99" si="238">SUM(BC94:BC98)</f>
+        <f t="shared" ref="BC99:BQ99" si="239">SUM(BC94:BC98)</f>
         <v>-10660</v>
       </c>
       <c r="BD99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-6563</v>
       </c>
       <c r="BE99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>2147</v>
       </c>
       <c r="BF99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-7060</v>
       </c>
       <c r="BG99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-10516</v>
       </c>
       <c r="BH99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>5292</v>
       </c>
       <c r="BI99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-5875</v>
       </c>
       <c r="BJ99" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-8401</v>
       </c>
       <c r="BK99" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-19767</v>
       </c>
       <c r="BL99" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-11178</v>
       </c>
       <c r="BM99" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-4371</v>
       </c>
       <c r="BN99" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-5465</v>
       </c>
       <c r="BO99" s="3">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-19495</v>
       </c>
-    </row>
-    <row r="100" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP99" s="3">
+        <f t="shared" si="239"/>
+        <v>-15977</v>
+      </c>
+      <c r="BQ99" s="3">
+        <f t="shared" si="239"/>
+        <v>-10047</v>
+      </c>
+    </row>
+    <row r="100" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -13977,37 +14367,44 @@
       <c r="BO100" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="101" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP100" s="3">
+        <f>243-BO100</f>
+        <v>131</v>
+      </c>
+      <c r="BQ100" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" ref="AY101:BJ101" si="239">+AY100+AY99+AY92+AY87</f>
+        <f t="shared" ref="AY101:BJ101" si="240">+AY100+AY99+AY92+AY87</f>
         <v>1937</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-3380</v>
       </c>
       <c r="BA101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-1707</v>
       </c>
       <c r="BB101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2061</v>
       </c>
       <c r="BC101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-1512</v>
       </c>
       <c r="BD101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-1875</v>
       </c>
       <c r="BE101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>1773</v>
       </c>
       <c r="BF101" s="6">
@@ -14015,46 +14412,54 @@
         <v>345</v>
       </c>
       <c r="BG101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-3176</v>
       </c>
       <c r="BH101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>17384</v>
       </c>
       <c r="BI101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>8096</v>
       </c>
       <c r="BJ101" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>4927</v>
       </c>
       <c r="BK101" s="3">
-        <f>+BK100+BK99+BK92+BK87</f>
+        <f t="shared" ref="BK101:BQ101" si="241">+BK100+BK99+BK92+BK87</f>
         <v>-9543</v>
       </c>
       <c r="BL101" s="3">
-        <f>+BL100+BL99+BL92+BL87</f>
+        <f t="shared" si="241"/>
         <v>-258</v>
       </c>
       <c r="BM101" s="3">
-        <f>+BM100+BM99+BM92+BM87</f>
+        <f t="shared" si="241"/>
         <v>12101</v>
       </c>
       <c r="BN101" s="3">
-        <f>+BN100+BN99+BN92+BN87</f>
+        <f t="shared" si="241"/>
         <v>311</v>
       </c>
       <c r="BO101" s="3">
-        <f>+BO100+BO99+BO92+BO87</f>
+        <f t="shared" si="241"/>
         <v>-15367</v>
       </c>
-    </row>
-    <row r="102" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP101" s="3">
+        <f t="shared" si="241"/>
+        <v>-16243</v>
+      </c>
+      <c r="BQ101" s="3">
+        <f t="shared" si="241"/>
+        <v>-1887</v>
+      </c>
+    </row>
+    <row r="102" spans="2:74" x14ac:dyDescent="0.25">
       <c r="BC102" s="6"/>
     </row>
-    <row r="103" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -14155,69 +14560,72 @@
       <c r="BO103" s="3">
         <v>76834</v>
       </c>
-    </row>
-    <row r="104" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BQ103" s="3">
+        <v>78450</v>
+      </c>
+    </row>
+    <row r="104" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="BC104" s="6">
-        <f t="shared" ref="BC104:BO104" si="240">+BC103-BB103</f>
+        <f t="shared" ref="BC104:BO104" si="242">+BC103-BB103</f>
         <v>5835</v>
       </c>
       <c r="BD104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>5748</v>
       </c>
       <c r="BE104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>3761</v>
       </c>
       <c r="BF104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>-1314</v>
       </c>
       <c r="BG104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>-8886</v>
       </c>
       <c r="BH104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>-5645</v>
       </c>
       <c r="BI104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>-5284</v>
       </c>
       <c r="BJ104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>1132</v>
       </c>
       <c r="BK104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>2012</v>
       </c>
       <c r="BL104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>1470</v>
       </c>
       <c r="BM104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>1605</v>
       </c>
       <c r="BN104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>1663</v>
       </c>
       <c r="BO104" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="242"/>
         <v>2767</v>
       </c>
     </row>
-    <row r="105" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:74" x14ac:dyDescent="0.25">
       <c r="BC105" s="6"/>
       <c r="BD105" s="6"/>
     </row>
-    <row r="106" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -14226,51 +14634,51 @@
         <v>7970</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" ref="AZ106:BC106" si="241">+AZ87+AZ89</f>
+        <f t="shared" ref="AZ106:BC106" si="243">+AZ87+AZ89</f>
         <v>8635</v>
       </c>
       <c r="BA106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>9776</v>
       </c>
       <c r="BB106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>12734</v>
       </c>
       <c r="BC106" s="6">
-        <f t="shared" si="241"/>
+        <f t="shared" si="243"/>
         <v>8761</v>
       </c>
       <c r="BD106" s="6">
-        <f t="shared" ref="BD106:BJ106" si="242">+BD87+BD89</f>
+        <f t="shared" ref="BD106:BJ106" si="244">+BD87+BD89</f>
         <v>4669</v>
       </c>
       <c r="BE106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>336</v>
       </c>
       <c r="BF106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>5523</v>
       </c>
       <c r="BG106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>7175</v>
       </c>
       <c r="BH106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>11175</v>
       </c>
       <c r="BI106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>13906</v>
       </c>
       <c r="BJ106" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="244"/>
         <v>11812</v>
       </c>
       <c r="BK106" s="3">
-        <f t="shared" ref="BK106" si="243">+BK87+BK89</f>
+        <f t="shared" ref="BK106" si="245">+BK87+BK89</f>
         <v>12846</v>
       </c>
       <c r="BL106" s="3">
@@ -14289,17 +14697,25 @@
         <f>+BO87+BO89</f>
         <v>11085</v>
       </c>
-    </row>
-    <row r="107" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP106" s="3">
+        <f t="shared" ref="BP106:BQ106" si="246">+BP87+BP89</f>
+        <v>9023</v>
+      </c>
+      <c r="BQ106" s="3">
+        <f t="shared" si="246"/>
+        <v>11170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="BB107" s="6">
-        <f t="shared" ref="BB107:BC107" si="244">SUM(AY106:BB106)</f>
+        <f t="shared" ref="BB107:BC107" si="247">SUM(AY106:BB106)</f>
         <v>39115</v>
       </c>
       <c r="BC107" s="6">
-        <f t="shared" si="244"/>
+        <f t="shared" si="247"/>
         <v>39906</v>
       </c>
       <c r="BD107" s="6">
@@ -14315,31 +14731,31 @@
         <v>19289</v>
       </c>
       <c r="BG107" s="6">
-        <f t="shared" ref="BG107:BK107" si="245">SUM(BD106:BG106)</f>
+        <f t="shared" ref="BG107:BK107" si="248">SUM(BD106:BG106)</f>
         <v>17703</v>
       </c>
       <c r="BH107" s="6">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>24209</v>
       </c>
       <c r="BI107" s="6">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>37779</v>
       </c>
       <c r="BJ107" s="6">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>44068</v>
       </c>
       <c r="BK107" s="6">
-        <f t="shared" si="245"/>
+        <f t="shared" si="248"/>
         <v>49739</v>
       </c>
       <c r="BL107" s="3">
-        <f t="shared" ref="BL107:BM107" si="246">SUM(BI106:BL106)</f>
+        <f t="shared" ref="BL107:BM107" si="249">SUM(BI106:BL106)</f>
         <v>49761</v>
       </c>
       <c r="BM107" s="3">
-        <f t="shared" si="246"/>
+        <f t="shared" si="249"/>
         <v>52321</v>
       </c>
       <c r="BN107" s="3">
@@ -14350,8 +14766,16 @@
         <f>SUM(BL106:BO106)</f>
         <v>52311</v>
       </c>
-    </row>
-    <row r="108" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP107" s="3">
+        <f t="shared" ref="BP107:BQ107" si="250">SUM(BM106:BP106)</f>
+        <v>50137</v>
+      </c>
+      <c r="BQ107" s="3">
+        <f t="shared" si="250"/>
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="108" spans="2:74" x14ac:dyDescent="0.25">
       <c r="BB108" s="6"/>
       <c r="BC108" s="6"/>
       <c r="BD108" s="6"/>
@@ -14372,8 +14796,16 @@
         <f>+BO107/BC107-1</f>
         <v>0.3108555104495565</v>
       </c>
-    </row>
-    <row r="109" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="BP108" s="19">
+        <f t="shared" ref="BP108:BQ108" si="251">+BP107/BD107-1</f>
+        <v>0.39501947690595429</v>
+      </c>
+      <c r="BQ108" s="19">
+        <f t="shared" si="251"/>
+        <v>0.69211320754716987</v>
+      </c>
+    </row>
+    <row r="109" spans="2:74" x14ac:dyDescent="0.25">
       <c r="BB109" s="6"/>
       <c r="BC109" s="6"/>
       <c r="BD109" s="6"/>
@@ -14389,7 +14821,7 @@
       <c r="BN109" s="19"/>
       <c r="BO109" s="19"/>
     </row>
-    <row r="110" spans="2:70" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:74" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>257</v>
       </c>
@@ -14398,59 +14830,59 @@
         <v>94400</v>
       </c>
       <c r="AZ110" s="3">
-        <f t="shared" ref="AZ110:BM110" si="247">SUM(AW32:AZ32)</f>
+        <f t="shared" ref="AZ110:BM110" si="252">SUM(AW32:AZ32)</f>
         <v>104790</v>
       </c>
       <c r="BA110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>112330</v>
       </c>
       <c r="BB110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>117929</v>
       </c>
       <c r="BC110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>119666</v>
       </c>
       <c r="BD110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>119411</v>
       </c>
       <c r="BE110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>118115</v>
       </c>
       <c r="BF110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>116609</v>
       </c>
       <c r="BG110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>117346</v>
       </c>
       <c r="BH110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>120523</v>
       </c>
       <c r="BI110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>126955</v>
       </c>
       <c r="BJ110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>134901</v>
       </c>
       <c r="BK110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>142711</v>
       </c>
       <c r="BL110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>149783</v>
       </c>
       <c r="BM110" s="3">
-        <f t="shared" si="247"/>
+        <f t="shared" si="252"/>
         <v>156226</v>
       </c>
       <c r="BN110" s="3">
@@ -14467,19 +14899,27 @@
       </c>
       <c r="BQ110" s="3">
         <f>SUM(BN32:BQ32)</f>
-        <v>185215</v>
+        <v>189457</v>
       </c>
       <c r="BR110" s="3">
         <f>SUM(BO32:BR32)</f>
-        <v>191021.2</v>
-      </c>
-    </row>
-    <row r="111" spans="2:70" x14ac:dyDescent="0.25">
+        <v>195263.2</v>
+      </c>
+      <c r="BS110" s="3"/>
+      <c r="BT110" s="3"/>
+      <c r="BU110" s="3"/>
+      <c r="BV110" s="3"/>
+    </row>
+    <row r="111" spans="2:74" x14ac:dyDescent="0.25">
       <c r="BN111" s="19"/>
       <c r="BO111" s="19"/>
       <c r="BR111" s="19"/>
-    </row>
-    <row r="112" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BS111" s="19"/>
+      <c r="BT111" s="19"/>
+      <c r="BU111" s="19"/>
+      <c r="BV111" s="19"/>
+    </row>
+    <row r="112" spans="2:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>194</v>
       </c>
